--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,222 @@
   </si>
   <si>
     <t>总结：这次计划完成得还算顺利，就是安排的内容有点少。组员们很快就完成了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林晓亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王崧淦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林冰莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范永盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈观钦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app“我的”页面的设计初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app“首页”页面的设计初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app“作品”页面的设计初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成app“资讯”页面的设计初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与崧淦一起完成app“首页”页面的设计初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前完成的组员实现页面的文字说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：这次计划顺利完成。安排的任务都开始着手备注中的用例规约的文字说明工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.9.11 第三周 周一 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始app“我的”页面的子页面的设计并完成子界面中的一半界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始app“首页”页面的子页面的设计并完成子界面中的一半界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始app“资讯”页面的子页面的设计并完成子界面中的一半界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始app“作品”页面的子页面的设计并完成子界面中的一半界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前完成的组员实现页面的文字说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此次计划顺利完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.9.13 第三周 周三 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上对演示进行小组总结，并确定下一步的界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在进行小组总结和讨论后，完善“首页”页面的界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在进行小组总结和讨论后，完善“作品”页面的界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在进行小组总结和讨论后，完善“资讯”页面的界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分参考此次演示其他小组所提的建议，从而制定接下来的实施方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了小组总结和讨论。下一步的界面设计初步决定了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：由于这个计划是基于演示后，进过总结再实施的计划。所以好多突发状况没有预料到。所以造成了大家都没有按计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的”页面及子页面的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“首页”页面及子页面的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“作品”页面及子页面的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“布料辅料”页面及子页面的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“设计师”页面及子页面的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.9.18 第四周 周一 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：进度有点慢。后期会加快进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.9.19 第四周 周二 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的”页面用例规约的文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“首页”页面用例规约的文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“作品”页面用例规约的文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“布料辅料”页面用例规约的文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文字描述过程中遇到问题或者不解可以向小组组长提出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：大体的用例规约已经完成。准备下一步的细微修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行用例规约文档的合并和细微的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Mybatis和Hbuilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对界面进行细微修改，以达到最后的最终版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在实施过程有有疑问及时和组长联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +465,54 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -318,42 +582,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -363,7 +732,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -704,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -719,271 +1103,757 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="39"/>
+    </row>
+    <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="24"/>
+    </row>
+    <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="25">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
@@ -991,11 +1861,23 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进行用例规约文档的合并和细微的修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,6 +392,26 @@
   </si>
   <si>
     <t>日期：2017.9.20 第四周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未完成  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：由于第一次安排对Hbuilder内容的学习，没有充分考虑到可行性，所以导致了最后的考核出现了问题，所以下次将会参考第四组的做法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，完成了文档的合并和一小部分的文档修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,85 +685,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1091,7 +1107,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D60"/>
+      <selection activeCell="A67" sqref="A67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1103,12 +1119,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1142,7 +1158,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1156,7 +1172,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1168,7 +1184,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1180,7 +1196,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1192,23 +1208,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1234,7 +1250,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1248,7 +1264,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1260,7 +1276,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1272,7 +1288,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1284,23 +1300,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1326,7 +1342,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1340,7 +1356,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1352,7 +1368,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1364,7 +1380,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1376,21 +1392,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
@@ -1424,7 +1440,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1438,7 +1454,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1450,7 +1466,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1462,7 +1478,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1474,21 +1490,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -1522,7 +1538,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1536,7 +1552,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1548,7 +1564,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1560,7 +1576,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1572,15 +1588,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="28"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -1614,7 +1630,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1626,7 +1642,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="23"/>
+      <c r="D47" s="40"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1638,7 +1654,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="23"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1650,7 +1666,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="23"/>
+      <c r="D49" s="40"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1662,15 +1678,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="24"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -1704,7 +1720,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1718,7 +1734,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1730,7 +1746,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="17"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1742,7 +1758,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1754,19 +1770,19 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="18"/>
+      <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1791,11 +1807,13 @@
         <v>6</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,57 +1821,71 @@
         <v>7</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="A67" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D54:D58"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
@@ -1861,18 +1893,12 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,38 @@
   </si>
   <si>
     <t>未完成，完成了文档的合并和一小部分的文档修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成早上未完成的文档修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder的页面跳转并完成相应的demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder的actionsheet 和卡片视图并完成相应的demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder消息框。并完成对应的demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Mybatis和Hbuilder的侧拉菜单并完成对应的demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现问题都可以和组长沟通。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +673,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,9 +714,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -764,6 +809,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1104,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:D67"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1119,20 +1173,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1158,7 +1212,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1172,7 +1226,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1184,7 +1238,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1196,7 +1250,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1208,23 +1262,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1250,7 +1304,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1264,7 +1318,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1276,7 +1330,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1288,7 +1342,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1300,23 +1354,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1342,7 +1396,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="27" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1356,7 +1410,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1368,7 +1422,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1380,7 +1434,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1392,29 +1446,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1440,7 +1494,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1454,7 +1508,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1466,7 +1520,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1478,7 +1532,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1490,29 +1544,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1538,7 +1592,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="36" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1552,7 +1606,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1564,7 +1618,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1576,7 +1630,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1588,23 +1642,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1630,7 +1684,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1642,7 +1696,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="40"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1654,7 +1708,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="40"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1666,7 +1720,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1678,23 +1732,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1720,7 +1774,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="40" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1734,7 +1788,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="36"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1746,7 +1800,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="36"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1758,7 +1812,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="36"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1770,23 +1824,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="37"/>
+      <c r="D58" s="42"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -1812,7 +1866,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="40" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1826,7 +1880,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="36"/>
+      <c r="D63" s="41"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1838,7 +1892,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="41"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1850,7 +1904,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="41"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -1862,30 +1916,105 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="37"/>
+      <c r="D66" s="42"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+    </row>
+    <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+    </row>
+    <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="48"/>
+    </row>
+    <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="48"/>
+    </row>
+    <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="48"/>
+    </row>
+    <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="49"/>
+    </row>
+    <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
+  <mergeCells count="28">
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
@@ -1893,12 +2022,22 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成早上未完成的文档修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,6 +440,14 @@
   </si>
   <si>
     <t>出现问题都可以和组长沟通。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：这次计划完成得不错。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,70 +718,87 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -802,23 +823,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1161,7 +1167,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70:D74"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1173,20 +1179,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1265,20 +1271,20 @@
       <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1357,20 +1363,20 @@
       <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1396,7 +1402,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1410,7 +1416,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1422,7 +1428,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1434,7 +1440,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1446,29 +1452,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1494,7 +1500,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="19" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1508,7 +1514,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1520,7 +1526,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1532,7 +1538,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1544,29 +1550,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1592,7 +1598,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="41" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1606,7 +1612,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="37"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1618,7 +1624,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="37"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1630,7 +1636,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="37"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1642,23 +1648,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="38"/>
+      <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1684,7 +1690,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1696,7 +1702,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1708,7 +1714,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1720,7 +1726,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1732,23 +1738,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="46"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1774,7 +1780,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="45" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1788,7 +1794,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="41"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1800,7 +1806,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1812,7 +1818,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="41"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1824,23 +1830,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="42"/>
+      <c r="D58" s="47"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -1866,7 +1872,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="45" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1880,7 +1886,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="41"/>
+      <c r="D63" s="46"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1892,7 +1898,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="41"/>
+      <c r="D64" s="46"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1904,7 +1910,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="41"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -1916,23 +1922,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="42"/>
+      <c r="D66" s="47"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -1952,76 +1958,74 @@
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="47" t="s">
+      <c r="B70" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="49" t="s">
         <v>97</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="48"/>
+      <c r="B71" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="36"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="48"/>
+      <c r="B72" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="48"/>
+      <c r="B73" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="36"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="49"/>
+      <c r="B74" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
+      <c r="A75" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="D70:D74"/>
@@ -2038,6 +2042,18 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
     <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,22 @@
   </si>
   <si>
     <t>总结：这次计划完成得不错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 第五周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考数据库的实体类型并列出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先每个人独自列出来。后面再经过讨论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +693,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,107 +740,120 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1164,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1179,20 +1208,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1218,7 +1247,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="42" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1232,7 +1261,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1244,7 +1273,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1256,7 +1285,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1268,23 +1297,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1310,7 +1339,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1324,7 +1353,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1336,7 +1365,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1348,7 +1377,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1360,23 +1389,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1402,7 +1431,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="49" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1416,7 +1445,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1428,7 +1457,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1440,7 +1469,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1452,29 +1481,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1500,7 +1529,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1514,7 +1543,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1526,7 +1555,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1538,7 +1567,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1550,29 +1579,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1598,7 +1627,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1612,7 +1641,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1624,7 +1653,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="42"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1636,7 +1665,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="42"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1648,23 +1677,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="43"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1690,7 +1719,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1702,7 +1731,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="20"/>
+      <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1714,7 +1743,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="20"/>
+      <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1726,7 +1755,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="20"/>
+      <c r="D49" s="47"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1738,23 +1767,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="21"/>
+      <c r="D50" s="48"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1780,7 +1809,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1794,7 +1823,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="46"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1806,7 +1835,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="46"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1818,7 +1847,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="46"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1830,23 +1859,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="47"/>
+      <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -1872,7 +1901,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="35" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1886,7 +1915,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="46"/>
+      <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1898,7 +1927,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="46"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1910,7 +1939,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="46"/>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -1922,23 +1951,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="47"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -1961,10 +1990,10 @@
       <c r="B70" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="20" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1975,10 +2004,10 @@
       <c r="B71" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="36"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -1987,10 +2016,10 @@
       <c r="B72" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="36"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -1999,10 +2028,10 @@
       <c r="B73" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="36"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2011,21 +2040,118 @@
       <c r="B74" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="37"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="50"/>
+      <c r="D78" s="52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="50"/>
+      <c r="D79" s="53"/>
+    </row>
+    <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="50"/>
+      <c r="D80" s="53"/>
+    </row>
+    <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="50"/>
+      <c r="D81" s="53"/>
+    </row>
+    <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="50"/>
+      <c r="D82" s="54"/>
+    </row>
+    <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="31">
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="D70:D74"/>
@@ -2042,18 +2168,6 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="104">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,15 +455,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>思考数据库的实体类型并列出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先每个人独自列出来。后面再经过讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思考数据库的实体类型并列出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先每个人独自列出来。后面再经过讨论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,12 +747,75 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -767,24 +834,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -794,9 +846,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -809,51 +858,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1208,20 +1214,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1247,7 +1253,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1261,7 +1267,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1273,7 +1279,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1285,7 +1291,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1297,23 +1303,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1339,7 +1345,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1353,7 +1359,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1365,7 +1371,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1377,7 +1383,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1389,23 +1395,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1431,7 +1437,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="32" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1445,7 +1451,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1457,7 +1463,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1469,7 +1475,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1481,29 +1487,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1529,7 +1535,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1543,7 +1549,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1555,7 +1561,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1567,7 +1573,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1579,29 +1585,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1627,7 +1633,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="47" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1641,7 +1647,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1653,7 +1659,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1665,7 +1671,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1677,23 +1683,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1719,7 +1725,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1731,7 +1737,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1743,7 +1749,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="47"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1755,7 +1761,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1767,23 +1773,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="48"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1809,7 +1815,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="50" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1823,7 +1829,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="36"/>
+      <c r="D55" s="51"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1835,7 +1841,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="36"/>
+      <c r="D56" s="51"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1847,7 +1853,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="36"/>
+      <c r="D57" s="51"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1859,23 +1865,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="37"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -1901,7 +1907,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="50" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1915,7 +1921,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="36"/>
+      <c r="D63" s="51"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1927,7 +1933,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="51"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1939,7 +1945,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="51"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -1951,23 +1957,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="37"/>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -1993,7 +1999,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="41" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2007,7 +2013,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="21"/>
+      <c r="D71" s="42"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2019,7 +2025,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="21"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2031,7 +2037,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="21"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2043,23 +2049,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="43"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2079,69 +2085,81 @@
       <c r="A78" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="C78" s="50"/>
-      <c r="D78" s="52" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="53"/>
+      <c r="B79" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="50"/>
-      <c r="D80" s="53"/>
+      <c r="B80" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="50"/>
-      <c r="D81" s="53"/>
+      <c r="B81" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="54"/>
+      <c r="B82" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
+      <c r="A83" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -2152,22 +2170,20 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="D54:D58"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14505" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="九月" sheetId="1" r:id="rId1"/>
+    <sheet name="十月" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +469,38 @@
   </si>
   <si>
     <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林晓亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在昨天列出的实体类型的基础上，去完成实体的描述和设计。PS:有疑问有问题的集中收集起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库的实体描述和表的设计（第1实体到第4个实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库的实体描述和表的设计（第5个实体到第10个实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库的实体描述和表的设计（第11实体到第14个实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库的实体描述和表的设计（第15实体到第17个实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库的实体描述和表的设计（第17实体到第19个实体）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +730,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,12 +783,72 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -771,51 +864,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -828,24 +882,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -858,8 +894,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1199,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:D83"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1214,12 +1250,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1253,7 +1289,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1267,7 +1303,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1279,7 +1315,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1291,7 +1327,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1303,23 +1339,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1345,7 +1381,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1359,7 +1395,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1371,7 +1407,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1383,7 +1419,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1395,23 +1431,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1437,7 +1473,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="33" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1451,7 +1487,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1463,7 +1499,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1475,7 +1511,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1487,21 +1523,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
@@ -1535,7 +1571,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1549,7 +1585,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="33"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1561,7 +1597,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="33"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1573,7 +1609,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1585,21 +1621,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
@@ -1633,7 +1669,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1647,7 +1683,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="48"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1659,7 +1695,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="48"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1671,7 +1707,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1683,15 +1719,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="49"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
@@ -1725,7 +1761,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1737,7 +1773,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="28"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1749,7 +1785,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="28"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1761,7 +1797,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="28"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1773,15 +1809,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
@@ -1815,7 +1851,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="51" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1829,7 +1865,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="51"/>
+      <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1841,7 +1877,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="51"/>
+      <c r="D56" s="52"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1853,7 +1889,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="51"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1865,15 +1901,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="52"/>
+      <c r="D58" s="53"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
@@ -1907,7 +1943,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1921,7 +1957,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="51"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1933,7 +1969,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="51"/>
+      <c r="D64" s="52"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1945,7 +1981,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="51"/>
+      <c r="D65" s="52"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -1957,18 +1993,18 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="52"/>
+      <c r="D66" s="53"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="39" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="19"/>
@@ -1999,7 +2035,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="48" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2013,7 +2049,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="42"/>
+      <c r="D71" s="49"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2025,7 +2061,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="42"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2037,7 +2073,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="42"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2049,18 +2085,18 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="43"/>
+      <c r="D74" s="50"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="39" t="s">
         <v>99</v>
       </c>
       <c r="B76" s="19"/>
@@ -2083,7 +2119,7 @@
     </row>
     <row r="78" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>100</v>
@@ -2091,7 +2127,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="41" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2102,10 +2138,10 @@
       <c r="B79" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="22"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2114,10 +2150,10 @@
       <c r="B80" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="22"/>
+      <c r="D80" s="42"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2126,10 +2162,10 @@
       <c r="B81" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="22"/>
+      <c r="D81" s="42"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2138,38 +2174,106 @@
       <c r="B82" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="23"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+    </row>
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="55"/>
+      <c r="D86" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="55"/>
+      <c r="D87" s="49"/>
+    </row>
+    <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="55"/>
+      <c r="D88" s="49"/>
+    </row>
+    <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="55"/>
+      <c r="D89" s="49"/>
+    </row>
+    <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="55"/>
+      <c r="D90" s="50"/>
+    </row>
+    <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
+  <mergeCells count="34">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="D78:D82"/>
@@ -2184,6 +2288,23 @@
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2195,4 +2316,17 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,14 @@
   </si>
   <si>
     <t>完成数据库的实体描述和表的设计（第17实体到第19个实体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d's</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -617,6 +625,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -730,7 +745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,33 +801,108 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -822,80 +912,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1235,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:D91"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I92" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1250,20 +1268,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1289,7 +1307,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1303,7 +1321,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1315,7 +1333,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1327,7 +1345,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1339,23 +1357,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1381,7 +1399,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="49" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1395,7 +1413,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1407,7 +1425,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1419,7 +1437,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1431,23 +1449,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1473,7 +1491,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="42" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1487,7 +1505,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1499,7 +1517,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1511,7 +1529,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="43"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1523,29 +1541,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1571,7 +1589,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="32" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1585,7 +1603,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1597,7 +1615,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1609,7 +1627,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1621,29 +1639,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="44"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1669,7 +1687,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1683,7 +1701,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="54"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1695,7 +1713,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="54"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1707,7 +1725,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="54"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1719,23 +1737,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="30"/>
+      <c r="D42" s="55"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1761,7 +1779,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1773,7 +1791,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1785,7 +1803,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1797,7 +1815,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="33"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1809,23 +1827,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="46"/>
+      <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1851,7 +1869,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="36" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1865,7 +1883,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="52"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1877,7 +1895,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="52"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1889,7 +1907,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="52"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1901,23 +1919,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="53"/>
+      <c r="D58" s="38"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -1943,7 +1961,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="36" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1957,7 +1975,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="52"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1969,7 +1987,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="52"/>
+      <c r="D64" s="37"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1981,7 +1999,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="52"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -1993,23 +2011,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="53"/>
+      <c r="D66" s="38"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2035,7 +2053,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2049,7 +2067,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="49"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2061,7 +2079,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="49"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2073,7 +2091,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2085,23 +2103,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="50"/>
+      <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2127,7 +2145,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2141,7 +2159,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="42"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2153,7 +2171,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="42"/>
+      <c r="D80" s="27"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2165,7 +2183,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="42"/>
+      <c r="D81" s="27"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2177,23 +2195,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="43"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2213,11 +2231,13 @@
       <c r="A86" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="48" t="s">
+      <c r="C86" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2225,58 +2245,82 @@
       <c r="A87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="55"/>
-      <c r="D87" s="49"/>
+      <c r="C87" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="24"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="49"/>
+      <c r="C88" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="49"/>
+      <c r="C89" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="24"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="50"/>
+      <c r="C90" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="25"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D96" s="56" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="A68:D68"/>
@@ -2288,23 +2332,12 @@
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="121">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,7 +508,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d's</t>
+    <t>日期：2017.9.26 第五周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库设计的整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ssm的开发环境搭建并搭建环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出app的logo初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder的轮播图的实现并完成demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder的懒加载并完成demo（迟到）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +773,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,12 +832,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -911,9 +960,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1253,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I92" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1268,20 +1314,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1307,7 +1353,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="53" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1321,7 +1367,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1333,7 +1379,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1345,7 +1391,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1357,23 +1403,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1399,7 +1445,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="56" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1413,7 +1459,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1425,7 +1471,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1437,7 +1483,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1449,23 +1495,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1491,7 +1537,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="49" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1505,7 +1551,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1517,7 +1563,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1529,7 +1575,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="50"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1541,29 +1587,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="51"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1589,7 +1635,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="39" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1603,7 +1649,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1615,7 +1661,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="43"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1627,7 +1673,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1639,29 +1685,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1687,7 +1733,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="60" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1701,7 +1747,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1713,7 +1759,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1725,7 +1771,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="54"/>
+      <c r="D41" s="61"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1737,23 +1783,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="62"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1779,7 +1825,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="32"/>
+      <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1791,7 +1837,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="33"/>
+      <c r="D47" s="40"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1803,7 +1849,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1815,7 +1861,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="33"/>
+      <c r="D49" s="40"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1827,23 +1873,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="34"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="38"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1869,7 +1915,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="43" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1883,7 +1929,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="37"/>
+      <c r="D55" s="44"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1895,7 +1941,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1907,7 +1953,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="37"/>
+      <c r="D57" s="44"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1919,23 +1965,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="38"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -1961,7 +2007,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="43" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1975,7 +2021,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="44"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1987,7 +2033,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="37"/>
+      <c r="D64" s="44"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1999,7 +2045,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="37"/>
+      <c r="D65" s="44"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2011,23 +2057,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="38"/>
+      <c r="D66" s="45"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2053,7 +2099,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2067,7 +2113,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="24"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2079,7 +2125,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="24"/>
+      <c r="D72" s="31"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2091,7 +2137,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="24"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2103,23 +2149,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="25"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2145,7 +2191,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="33" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2159,7 +2205,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="27"/>
+      <c r="D79" s="34"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2171,7 +2217,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="27"/>
+      <c r="D80" s="34"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2183,7 +2229,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="27"/>
+      <c r="D81" s="34"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2195,23 +2241,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="28"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
+      <c r="A84" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2237,7 +2283,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="30" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2251,7 +2297,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="24"/>
+      <c r="D87" s="31"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2263,7 +2309,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="24"/>
+      <c r="D88" s="31"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2275,7 +2321,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="24"/>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2287,23 +2333,98 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="25"/>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D96" s="56" t="s">
-        <v>113</v>
-      </c>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+    </row>
+    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+    </row>
+    <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="20"/>
+      <c r="D94" s="26"/>
+    </row>
+    <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="20"/>
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="27"/>
+    </row>
+    <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="28"/>
+    </row>
+    <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
@@ -2321,6 +2442,9 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="A68:D68"/>
@@ -2332,12 +2456,12 @@
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="122">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成数据库设计的整合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,6 +533,14 @@
   </si>
   <si>
     <t>学习Hbuilder的懒加载并完成demo（迟到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：数据库设计大体已经完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +777,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,11 +839,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -859,107 +965,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1302,7 +1309,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="A99" sqref="A99:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1314,20 +1321,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1353,7 +1360,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1367,7 +1374,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1379,7 +1386,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1391,7 +1398,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1403,23 +1410,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1445,7 +1452,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1459,7 +1466,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1471,7 +1478,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1483,7 +1490,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1495,23 +1502,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1537,7 +1544,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1551,7 +1558,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1563,7 +1570,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1575,7 +1582,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1587,29 +1594,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1635,7 +1642,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1649,7 +1656,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1661,7 +1668,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1673,7 +1680,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1685,29 +1692,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1733,7 +1740,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1747,7 +1754,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="61"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1759,7 +1766,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="61"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1771,7 +1778,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1783,23 +1790,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="62"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1825,7 +1832,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1837,7 +1844,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="40"/>
+      <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1849,7 +1856,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="40"/>
+      <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1861,7 +1868,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="47"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1873,23 +1880,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="48"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1915,7 +1922,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1929,7 +1936,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="44"/>
+      <c r="D55" s="54"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1941,7 +1948,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="44"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1953,7 +1960,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="44"/>
+      <c r="D57" s="54"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1965,23 +1972,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="55"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2007,7 +2014,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="53" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2021,7 +2028,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="44"/>
+      <c r="D63" s="54"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2033,7 +2040,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="44"/>
+      <c r="D64" s="54"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2045,7 +2052,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="44"/>
+      <c r="D65" s="54"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2057,23 +2064,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="45"/>
+      <c r="D66" s="55"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2099,7 +2106,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="50" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2113,7 +2120,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="31"/>
+      <c r="D71" s="51"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2125,7 +2132,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="31"/>
+      <c r="D72" s="51"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2137,7 +2144,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="31"/>
+      <c r="D73" s="51"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2149,23 +2156,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="32"/>
+      <c r="D74" s="52"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2191,7 +2198,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="43" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2205,7 +2212,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="34"/>
+      <c r="D79" s="44"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2217,7 +2224,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="34"/>
+      <c r="D80" s="44"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2229,7 +2236,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="34"/>
+      <c r="D81" s="44"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2241,23 +2248,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="35"/>
+      <c r="D82" s="45"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2283,7 +2290,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="50" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2297,7 +2304,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="31"/>
+      <c r="D87" s="51"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2309,7 +2316,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="31"/>
+      <c r="D88" s="51"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2321,7 +2328,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="31"/>
+      <c r="D89" s="51"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2333,23 +2340,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="32"/>
+      <c r="D90" s="52"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2370,78 +2377,77 @@
         <v>6</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="26"/>
+        <v>115</v>
+      </c>
+      <c r="C94" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="60"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="27"/>
+        <v>116</v>
+      </c>
+      <c r="C95" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="61"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="61"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="27"/>
+        <v>118</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" s="61"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B98" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="28"/>
+      <c r="D98" s="62"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="25"/>
+      <c r="A99" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="D78:D82"/>
@@ -2456,12 +2462,23 @@
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,27 +520,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成；完成50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成；完成40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据库进行细微修改并创建出数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学习ssm的开发环境搭建并搭建环境</t>
+  </si>
+  <si>
+    <t>学习ssm的开发环境搭建并搭建环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>画出app的logo初稿</t>
+  </si>
+  <si>
+    <t>画出app的logo初稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习Hbuilder的轮播图的实现并完成demo</t>
+  </si>
+  <si>
+    <t>学习Hbuilder的轮播图的实现并完成demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习Hbuilder的懒加载并完成demo（迟到）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：数据库设计大体已经完成</t>
+  </si>
+  <si>
+    <t>学习Hbuilder的懒加载并完成demo（迟到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：数据库设计大体已经完成，其他的由于不熟悉。学习学习进度比较慢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +813,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,33 +875,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -875,98 +1004,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1306,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:D99"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1321,20 +1360,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1360,7 +1399,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="54" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1374,7 +1413,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1386,7 +1425,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1398,7 +1437,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="55"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1410,23 +1449,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1452,7 +1491,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="57" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1466,7 +1505,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1478,7 +1517,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1490,7 +1529,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1502,23 +1541,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1544,7 +1583,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="50" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1558,7 +1597,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1570,7 +1609,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1582,7 +1621,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1594,29 +1633,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1642,7 +1681,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1656,7 +1695,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="51"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1668,7 +1707,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="51"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1680,7 +1719,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1692,29 +1731,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1740,7 +1779,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="61" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1754,7 +1793,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="62"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1766,7 +1805,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="62"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1778,7 +1817,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="62"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1790,23 +1829,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="63"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1832,7 +1871,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1844,7 +1883,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1856,7 +1895,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="47"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1868,7 +1907,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1880,23 +1919,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="48"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1922,7 +1961,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="44" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1936,7 +1975,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="54"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1948,7 +1987,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="54"/>
+      <c r="D56" s="45"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1960,7 +1999,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="54"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -1972,23 +2011,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="55"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2014,7 +2053,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="44" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2028,7 +2067,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="54"/>
+      <c r="D63" s="45"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2040,7 +2079,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="54"/>
+      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2052,7 +2091,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="54"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2064,23 +2103,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="55"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2106,7 +2145,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="50" t="s">
+      <c r="D70" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2120,7 +2159,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="51"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2132,7 +2171,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="51"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2144,7 +2183,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="51"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2156,23 +2195,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="52"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2198,7 +2237,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="34" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2212,7 +2251,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="44"/>
+      <c r="D79" s="35"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2224,7 +2263,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="44"/>
+      <c r="D80" s="35"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2236,7 +2275,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="44"/>
+      <c r="D81" s="35"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2248,23 +2287,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="45"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
+      <c r="A84" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2290,7 +2329,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2304,7 +2343,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="51"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2316,7 +2355,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="51"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2328,7 +2367,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="51"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2340,23 +2379,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="52"/>
+      <c r="D90" s="33"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2379,75 +2418,168 @@
       <c r="B94" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="60"/>
+      <c r="C94" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="27"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D95" s="61"/>
+        <v>124</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96" s="61"/>
+        <v>121</v>
+      </c>
+      <c r="D96" s="28"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="61"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B98" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="29"/>
+    </row>
+    <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
+    </row>
+    <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+    </row>
+    <row r="105" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+    </row>
+    <row r="106" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+    </row>
+    <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="62"/>
-    </row>
-    <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="59"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
+  <mergeCells count="39">
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="D78:D82"/>
@@ -2462,23 +2594,12 @@
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,10 @@
   </si>
   <si>
     <t>总结：数据库设计大体已经完成，其他的由于不熟悉。学习学习进度比较慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,6 +888,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -901,111 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1348,7 +1352,7 @@
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="A107" sqref="A107:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1360,12 +1364,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1399,7 +1403,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1413,7 +1417,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1425,7 +1429,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1437,7 +1441,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1449,23 +1453,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1491,7 +1495,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1505,7 +1509,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1517,7 +1521,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="43"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1529,7 +1533,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1541,23 +1545,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1583,7 +1587,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1597,7 +1601,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1609,7 +1613,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1621,7 +1625,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1633,21 +1637,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
@@ -1681,7 +1685,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1695,7 +1699,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="51"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1707,7 +1711,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="51"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1719,7 +1723,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1731,21 +1735,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
@@ -1779,7 +1783,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="33" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1793,7 +1797,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="62"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1805,7 +1809,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="62"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1817,7 +1821,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="62"/>
+      <c r="D41" s="34"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1829,15 +1833,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -1871,7 +1875,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="40"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1883,7 +1887,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="41"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1895,7 +1899,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1907,7 +1911,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="41"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1919,15 +1923,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="42"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -1961,7 +1965,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="55" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1975,7 +1979,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="45"/>
+      <c r="D55" s="56"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1987,7 +1991,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="45"/>
+      <c r="D56" s="56"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -1999,7 +2003,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="45"/>
+      <c r="D57" s="56"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2011,15 +2015,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="46"/>
+      <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
@@ -2053,7 +2057,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="55" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2067,7 +2071,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="45"/>
+      <c r="D63" s="56"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2079,7 +2083,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="45"/>
+      <c r="D64" s="56"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2091,7 +2095,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="45"/>
+      <c r="D65" s="56"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2103,15 +2107,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="46"/>
+      <c r="D66" s="57"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -2145,7 +2149,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="52" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2159,7 +2163,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="53"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2171,7 +2175,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="53"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2183,7 +2187,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="53"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2195,15 +2199,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="33"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -2237,7 +2241,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="45" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2251,7 +2255,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="35"/>
+      <c r="D79" s="46"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2263,7 +2267,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="35"/>
+      <c r="D80" s="46"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2275,7 +2279,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="35"/>
+      <c r="D81" s="46"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2287,15 +2291,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="36"/>
+      <c r="D82" s="47"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
@@ -2329,7 +2333,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="52" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2343,7 +2347,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="32"/>
+      <c r="D87" s="53"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2355,7 +2359,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="32"/>
+      <c r="D88" s="53"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2367,7 +2371,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="32"/>
+      <c r="D89" s="53"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2379,15 +2383,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="33"/>
+      <c r="D90" s="54"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -2421,7 +2425,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="27"/>
+      <c r="D94" s="62"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2433,7 +2437,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="28"/>
+      <c r="D95" s="63"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2445,7 +2449,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="28"/>
+      <c r="D96" s="63"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2457,7 +2461,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="28"/>
+      <c r="D97" s="63"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2469,15 +2473,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="29"/>
+      <c r="D98" s="64"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="26"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
@@ -2508,7 +2512,9 @@
       <c r="B102" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="20"/>
+      <c r="C102" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="D102" s="20"/>
     </row>
     <row r="103" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2518,7 +2524,9 @@
       <c r="B103" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C103" s="20"/>
+      <c r="C103" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="D103" s="20"/>
     </row>
     <row r="104" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2528,7 +2536,9 @@
       <c r="B104" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="20"/>
+      <c r="C104" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2538,7 +2548,9 @@
       <c r="B105" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C105" s="20"/>
+      <c r="C105" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2548,28 +2560,34 @@
       <c r="B106" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="20"/>
+      <c r="C106" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -2580,6 +2598,15 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="D78:D82"/>
@@ -2587,19 +2614,6 @@
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="138">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,26 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.16 第五周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对web接口文档和数据库接口文档进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向数据库录入10条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +837,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,6 +908,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -900,12 +992,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -924,33 +1010,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -973,42 +1032,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:D107"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1364,12 +1393,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1403,7 +1432,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1417,7 +1446,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1429,7 +1458,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1441,7 +1470,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1453,23 +1482,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1495,7 +1524,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1509,7 +1538,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1521,7 +1550,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1533,7 +1562,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1545,23 +1574,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="47"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1587,7 +1616,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1601,7 +1630,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1613,7 +1642,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1625,7 +1654,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="41"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1637,21 +1666,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
@@ -1685,7 +1714,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="51" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1699,7 +1728,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1711,7 +1740,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1723,7 +1752,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1735,21 +1764,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
@@ -1783,7 +1812,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="55" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1797,7 +1826,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1809,7 +1838,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="56"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1821,7 +1850,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1833,15 +1862,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="35"/>
+      <c r="D42" s="57"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -1875,7 +1904,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1887,7 +1916,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="49"/>
+      <c r="D47" s="62"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1899,7 +1928,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="49"/>
+      <c r="D48" s="62"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1911,7 +1940,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="62"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1923,15 +1952,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="63"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -1965,7 +1994,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1979,7 +2008,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="56"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -1991,7 +2020,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="56"/>
+      <c r="D56" s="35"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2003,7 +2032,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="56"/>
+      <c r="D57" s="35"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2015,15 +2044,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="57"/>
+      <c r="D58" s="36"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
@@ -2057,7 +2086,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="34" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2071,7 +2100,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="56"/>
+      <c r="D63" s="35"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2083,7 +2112,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="56"/>
+      <c r="D64" s="35"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2095,7 +2124,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="56"/>
+      <c r="D65" s="35"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2107,15 +2136,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="57"/>
+      <c r="D66" s="36"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -2149,7 +2178,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2163,7 +2192,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="53"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2175,7 +2204,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="53"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2187,7 +2216,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="53"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2199,15 +2228,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="54"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -2241,7 +2270,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="45" t="s">
+      <c r="D78" s="58" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2255,7 +2284,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="46"/>
+      <c r="D79" s="59"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2267,7 +2296,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="46"/>
+      <c r="D80" s="59"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2279,7 +2308,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="46"/>
+      <c r="D81" s="59"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2291,15 +2320,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="47"/>
+      <c r="D82" s="60"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="44" t="s">
+      <c r="A83" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
@@ -2333,7 +2362,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="52" t="s">
+      <c r="D86" s="31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2347,7 +2376,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="53"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2359,7 +2388,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="53"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2371,7 +2400,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="53"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2383,15 +2412,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="54"/>
+      <c r="D90" s="33"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="44" t="s">
+      <c r="A91" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -2425,7 +2454,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="62"/>
+      <c r="D94" s="27"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2437,7 +2466,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="63"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2449,7 +2478,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="63"/>
+      <c r="D96" s="28"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2461,7 +2490,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="63"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2473,15 +2502,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="64"/>
+      <c r="D98" s="29"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="59" t="s">
+      <c r="A99" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
@@ -2566,38 +2595,104 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+    </row>
+    <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+    </row>
+    <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="20"/>
+      <c r="D110" s="65"/>
+    </row>
+    <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="66"/>
+    </row>
+    <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="66"/>
+    </row>
+    <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="66"/>
+    </row>
+    <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" s="20"/>
+      <c r="D114" s="67"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="30"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
+  <mergeCells count="42">
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="A44:D44"/>
@@ -2614,6 +2709,29 @@
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="140">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,19 +588,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对web接口文档和数据库接口文档进行修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向数据库录入10条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺席</t>
+    <t>编写“首页”数据库接口的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“设计师和设计作品”数据库接口的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“布料辅料”数据库接口文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,6 +916,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -924,120 +1046,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,7 +1389,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1393,12 +1401,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1432,7 +1440,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="51" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1446,7 +1454,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1458,7 +1466,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1470,7 +1478,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1482,23 +1490,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="53"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1524,7 +1532,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="54" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1538,7 +1546,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1550,7 +1558,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1562,7 +1570,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1574,23 +1582,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1616,7 +1624,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="49" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1630,7 +1638,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1642,7 +1650,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1654,7 +1662,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1666,21 +1674,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
@@ -1714,7 +1722,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="31" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1728,7 +1736,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1740,7 +1748,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="41"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1752,7 +1760,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="41"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1764,21 +1772,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
@@ -1812,7 +1820,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="37" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1826,7 +1834,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="56"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1838,7 +1846,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="56"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1850,7 +1858,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1862,15 +1870,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="57"/>
+      <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -1904,7 +1912,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1916,7 +1924,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="62"/>
+      <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1928,7 +1936,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="62"/>
+      <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1940,7 +1948,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="62"/>
+      <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1952,15 +1960,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -1994,7 +2002,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="58" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2008,7 +2016,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="35"/>
+      <c r="D55" s="59"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2020,7 +2028,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="35"/>
+      <c r="D56" s="59"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2032,7 +2040,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="35"/>
+      <c r="D57" s="59"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2044,15 +2052,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="36"/>
+      <c r="D58" s="60"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
@@ -2086,7 +2094,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="58" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2100,7 +2108,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="35"/>
+      <c r="D63" s="59"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2112,7 +2120,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="35"/>
+      <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2124,7 +2132,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="35"/>
+      <c r="D65" s="59"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2136,15 +2144,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="36"/>
+      <c r="D66" s="60"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -2178,7 +2186,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2192,7 +2200,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="56"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2204,7 +2212,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2216,7 +2224,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="56"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2228,15 +2236,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="33"/>
+      <c r="D74" s="57"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -2270,7 +2278,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="40" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2284,7 +2292,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="59"/>
+      <c r="D79" s="41"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2296,7 +2304,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="59"/>
+      <c r="D80" s="41"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2308,7 +2316,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="59"/>
+      <c r="D81" s="41"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2320,15 +2328,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="60"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
@@ -2362,7 +2370,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="55" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2376,7 +2384,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="32"/>
+      <c r="D87" s="56"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2388,7 +2396,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="32"/>
+      <c r="D88" s="56"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2400,7 +2408,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="32"/>
+      <c r="D89" s="56"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2412,15 +2420,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="33"/>
+      <c r="D90" s="57"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -2454,7 +2462,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="27"/>
+      <c r="D94" s="65"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2466,7 +2474,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="28"/>
+      <c r="D95" s="66"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2478,7 +2486,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="28"/>
+      <c r="D96" s="66"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2490,7 +2498,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="28"/>
+      <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2502,15 +2510,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="29"/>
+      <c r="D98" s="67"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="26"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="64"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
@@ -2595,12 +2603,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="48" t="s">
+      <c r="A107" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
@@ -2629,86 +2637,73 @@
         <v>6</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C110" s="20"/>
-      <c r="D110" s="65"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C111" s="20"/>
-      <c r="D111" s="66"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C112" s="20"/>
-      <c r="D112" s="66"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C113" s="20"/>
-      <c r="D113" s="66"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C114" s="20"/>
-      <c r="D114" s="67"/>
+      <c r="D114" s="27"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
+      <c r="A115" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="30"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -2719,6 +2714,13 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="D70:D74"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A59:D59"/>
@@ -2726,12 +2728,18 @@
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,10 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺席</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +605,22 @@
   </si>
   <si>
     <t>编写“布料辅料”数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：内容太多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,10 +928,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -930,123 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1389,7 +1401,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+      <selection activeCell="A115" sqref="A115:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1401,12 +1413,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1440,7 +1452,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1454,7 +1466,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1466,7 +1478,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1478,7 +1490,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1490,23 +1502,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1532,7 +1544,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1546,7 +1558,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1558,7 +1570,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="43"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1570,7 +1582,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1582,23 +1594,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="54"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1624,7 +1636,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1638,7 +1650,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1650,7 +1662,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1662,7 +1674,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1674,21 +1686,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
@@ -1722,7 +1734,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="50" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1736,7 +1748,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1748,7 +1760,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1760,7 +1772,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1772,21 +1784,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="33"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
@@ -1820,7 +1832,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="61" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1834,7 +1846,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="38"/>
+      <c r="D39" s="62"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1846,7 +1858,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="62"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1858,7 +1870,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="38"/>
+      <c r="D41" s="62"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1870,15 +1882,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="63"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -1912,7 +1924,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="31"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1924,7 +1936,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1936,7 +1948,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="51"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1948,7 +1960,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="44"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1960,15 +1972,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="52"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -2002,7 +2014,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="54" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2016,7 +2028,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="59"/>
+      <c r="D55" s="55"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2028,7 +2040,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="59"/>
+      <c r="D56" s="55"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2040,7 +2052,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="59"/>
+      <c r="D57" s="55"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2052,15 +2064,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="60"/>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
@@ -2094,7 +2106,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D62" s="54" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2108,7 +2120,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="59"/>
+      <c r="D63" s="55"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2120,7 +2132,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="59"/>
+      <c r="D64" s="55"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2132,7 +2144,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="59"/>
+      <c r="D65" s="55"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2144,15 +2156,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="60"/>
+      <c r="D66" s="56"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -2186,7 +2198,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2200,7 +2212,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="56"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2212,7 +2224,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="56"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2224,7 +2236,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="56"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2236,15 +2248,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="57"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -2278,7 +2290,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="40" t="s">
+      <c r="D78" s="44" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2292,7 +2304,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="41"/>
+      <c r="D79" s="45"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2304,7 +2316,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="41"/>
+      <c r="D80" s="45"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2316,7 +2328,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="41"/>
+      <c r="D81" s="45"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2328,15 +2340,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="D82" s="46"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
@@ -2370,7 +2382,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="55" t="s">
+      <c r="D86" s="31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2384,7 +2396,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="56"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2396,7 +2408,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="56"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2408,7 +2420,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="56"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2420,15 +2432,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="57"/>
+      <c r="D90" s="33"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -2462,7 +2474,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="65"/>
+      <c r="D94" s="27"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2474,7 +2486,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="66"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2486,7 +2498,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="66"/>
+      <c r="D96" s="28"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2498,7 +2510,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="66"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2510,15 +2522,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="67"/>
+      <c r="D98" s="29"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="62" t="s">
+      <c r="A99" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="63"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="64"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
@@ -2603,12 +2615,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
@@ -2637,83 +2649,89 @@
         <v>6</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="25"/>
+        <v>135</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="64"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" s="65"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="26"/>
+        <v>137</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" s="65"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" s="65"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114" s="66"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+      <c r="A115" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="A116" s="30"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="D78:D82"/>
@@ -2728,18 +2746,22 @@
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="149">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,10 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.16 第五周 周三 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺席</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,15 +608,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成一半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：内容太多</t>
+    <t>日期：2017.10.16 第8周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.18 第8周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始app的登录界面的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改web接口文档和数据库接口文档的返回结果的书写规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对app主界面的学习，以及尝试去实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向数据库表录入十条数据（字典数据表除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这过程中遇到任何问题及时和组长私聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +881,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,6 +952,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -946,119 +1084,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1398,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:D116"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1413,12 +1443,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1452,7 +1482,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="58" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1466,7 +1496,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1478,7 +1508,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="59"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1490,7 +1520,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1502,23 +1532,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1544,7 +1574,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="61" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1558,7 +1588,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1570,7 +1600,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1582,7 +1612,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1594,23 +1624,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1636,7 +1666,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="56" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1650,7 +1680,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1662,7 +1692,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1674,7 +1704,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1686,21 +1716,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
@@ -1734,7 +1764,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="31" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1748,7 +1778,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1760,7 +1790,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1772,7 +1802,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="37"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1784,21 +1814,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="38"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
@@ -1832,7 +1862,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="37" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1846,7 +1876,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="62"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1858,7 +1888,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="62"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1870,7 +1900,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="62"/>
+      <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1882,15 +1912,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -1924,7 +1954,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1936,7 +1966,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="51"/>
+      <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1948,7 +1978,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="51"/>
+      <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1960,7 +1990,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="51"/>
+      <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -1972,15 +2002,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="52"/>
+      <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -2014,7 +2044,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="50" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2028,7 +2058,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="55"/>
+      <c r="D55" s="51"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2040,7 +2070,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="55"/>
+      <c r="D56" s="51"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2052,7 +2082,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="55"/>
+      <c r="D57" s="51"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2064,15 +2094,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="56"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
@@ -2106,7 +2136,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="50" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2120,7 +2150,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="55"/>
+      <c r="D63" s="51"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2132,7 +2162,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="55"/>
+      <c r="D64" s="51"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2144,7 +2174,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="55"/>
+      <c r="D65" s="51"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2156,15 +2186,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="56"/>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -2198,7 +2228,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="47" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2212,7 +2242,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="48"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2224,7 +2254,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="48"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2236,7 +2266,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="48"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2248,15 +2278,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="33"/>
+      <c r="D74" s="49"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -2290,7 +2320,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="40" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2304,7 +2334,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="45"/>
+      <c r="D79" s="41"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2316,7 +2346,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="45"/>
+      <c r="D80" s="41"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2328,7 +2358,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="45"/>
+      <c r="D81" s="41"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2340,15 +2370,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="46"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
@@ -2382,7 +2412,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="47" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2396,7 +2426,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="32"/>
+      <c r="D87" s="48"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2408,7 +2438,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="32"/>
+      <c r="D88" s="48"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2420,7 +2450,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="32"/>
+      <c r="D89" s="48"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2432,15 +2462,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="33"/>
+      <c r="D90" s="49"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -2474,7 +2504,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="27"/>
+      <c r="D94" s="65"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2486,7 +2516,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="28"/>
+      <c r="D95" s="66"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2498,7 +2528,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="28"/>
+      <c r="D96" s="66"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2510,7 +2540,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="28"/>
+      <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2522,15 +2552,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="29"/>
+      <c r="D98" s="67"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="26"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="64"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
@@ -2615,16 +2645,16 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="67"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -2649,89 +2679,187 @@
         <v>6</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D110" s="64"/>
+        <v>138</v>
+      </c>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D111" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D112" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D113" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C114" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+    </row>
+    <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D114" s="66"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="30" t="s">
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+    </row>
+    <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="30"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="26"/>
+    </row>
+    <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="20"/>
+      <c r="D121" s="26"/>
+    </row>
+    <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="20"/>
+      <c r="D122" s="26"/>
+    </row>
+    <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="20"/>
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="69"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="69"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
+  <mergeCells count="45">
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="D78:D82"/>
@@ -2746,22 +2874,18 @@
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="158">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,23 +628,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总结：无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对app主界面的学习，以及尝试去实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向数据库表录入十条数据（字典数据表除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这过程中遇到任何问题及时和组长私聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对app主界面的学习，以及尝试去实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向数据库表录入十条数据（字典数据表除外）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在这过程中遇到任何问题及时和组长私聊</t>
+    <t xml:space="preserve">日期：2017.10.23 第9周 周一 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登陆界面的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成忘记密码界面的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入数据库字典数据以及寻找app所要用到的图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册普通用户界面的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册设计师界面的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有疑问请问组长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,10 +988,115 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -964,131 +1105,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1430,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:D123"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1443,12 +1479,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1482,7 +1518,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1496,7 +1532,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1508,7 +1544,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1520,7 +1556,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1532,23 +1568,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1574,7 +1610,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="46" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1588,7 +1624,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1600,7 +1636,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="61"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1612,7 +1648,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="61"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1624,23 +1660,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1666,7 +1702,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1680,7 +1716,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1692,7 +1728,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1704,7 +1740,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1716,21 +1752,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
@@ -1764,7 +1800,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1778,7 +1814,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1790,7 +1826,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1802,7 +1838,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1814,21 +1850,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="33"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
@@ -1862,7 +1898,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="33" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1876,7 +1912,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="38"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1888,7 +1924,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1900,7 +1936,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="38"/>
+      <c r="D41" s="34"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1912,15 +1948,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -1954,7 +1990,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="31"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -1966,7 +2002,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -1978,7 +2014,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -1990,7 +2026,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="44"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2002,15 +2038,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -2044,7 +2080,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="36" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2058,7 +2094,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="51"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2070,7 +2106,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="51"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2082,7 +2118,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="51"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2094,15 +2130,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="52"/>
+      <c r="D58" s="38"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
@@ -2136,7 +2172,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="36" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2150,7 +2186,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="51"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2162,7 +2198,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="51"/>
+      <c r="D64" s="37"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2174,7 +2210,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="51"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2186,15 +2222,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="52"/>
+      <c r="D66" s="38"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -2228,7 +2264,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D70" s="48" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2242,7 +2278,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="48"/>
+      <c r="D71" s="49"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2254,7 +2290,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="48"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2266,7 +2302,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="48"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2278,15 +2314,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="50"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -2320,7 +2356,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="40" t="s">
+      <c r="D78" s="52" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2334,7 +2370,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="41"/>
+      <c r="D79" s="53"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2346,7 +2382,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="41"/>
+      <c r="D80" s="53"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2358,7 +2394,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="41"/>
+      <c r="D81" s="53"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2370,15 +2406,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="D82" s="54"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
@@ -2412,7 +2448,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D86" s="48" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2426,7 +2462,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="48"/>
+      <c r="D87" s="49"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2438,7 +2474,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="49"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2450,7 +2486,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="48"/>
+      <c r="D89" s="49"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2462,15 +2498,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="49"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -2504,7 +2540,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="65"/>
+      <c r="D94" s="66"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2516,7 +2552,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="66"/>
+      <c r="D95" s="67"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2528,7 +2564,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="66"/>
+      <c r="D96" s="67"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2540,7 +2576,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="66"/>
+      <c r="D97" s="67"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2552,15 +2588,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="67"/>
+      <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="62" t="s">
+      <c r="A99" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="63"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="65"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
@@ -2645,12 +2681,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
@@ -2684,7 +2720,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="60"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2696,7 +2732,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="26"/>
+      <c r="D111" s="61"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2708,7 +2744,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="26"/>
+      <c r="D112" s="61"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2720,7 +2756,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="26"/>
+      <c r="D113" s="61"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2732,21 +2768,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="27"/>
+      <c r="D114" s="62"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+      <c r="A115" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
@@ -2777,9 +2813,11 @@
       <c r="B119" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C119" s="20"/>
-      <c r="D119" s="25" t="s">
+      <c r="C119" s="20" t="s">
         <v>148</v>
+      </c>
+      <c r="D119" s="60" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2787,10 +2825,12 @@
         <v>7</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="26"/>
+        <v>145</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="61"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -2799,67 +2839,154 @@
       <c r="B121" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C121" s="20"/>
-      <c r="D121" s="26"/>
+      <c r="C121" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" s="61"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="26"/>
+        <v>146</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D122" s="61"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C123" s="20"/>
-      <c r="D123" s="27"/>
+        <v>146</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D123" s="62"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124" s="69"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
+      <c r="A124" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="69"/>
-      <c r="B125" s="69"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="69"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C134" s="68"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="59"/>
+    </row>
+    <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+    </row>
+    <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="19"/>
+      <c r="D128" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" s="19"/>
+      <c r="D129" s="49"/>
+    </row>
+    <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="49"/>
+    </row>
+    <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" s="49"/>
+    </row>
+    <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="50"/>
+    </row>
+    <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="48">
+    <mergeCell ref="D128:D132"/>
     <mergeCell ref="A117:D117"/>
     <mergeCell ref="A124:D125"/>
     <mergeCell ref="D119:D123"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="D78:D82"/>
@@ -2870,22 +2997,29 @@
     <mergeCell ref="D70:D74"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A133:D134"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="159">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +681,10 @@
   </si>
   <si>
     <t>有疑问请问组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,6 +986,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,6 +1002,102 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,24 +1106,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1035,96 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1467,7 +1471,7 @@
   <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128:D132"/>
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1479,20 +1483,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1518,7 +1522,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1532,7 +1536,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1544,7 +1548,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1556,7 +1560,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1568,23 +1572,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1610,7 +1614,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="58" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1624,7 +1628,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1636,7 +1640,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1648,7 +1652,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1660,23 +1664,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1702,7 +1706,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1716,7 +1720,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1728,7 +1732,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1740,7 +1744,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1752,29 +1756,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="43"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1800,7 +1804,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="50" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1814,7 +1818,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1826,7 +1830,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1838,7 +1842,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1850,29 +1854,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1898,7 +1902,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="63" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1912,7 +1916,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="64"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1924,7 +1928,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="64"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1936,7 +1940,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="64"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1948,23 +1952,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="35"/>
+      <c r="D42" s="65"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1990,7 +1994,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2002,7 +2006,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="56"/>
+      <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2014,7 +2018,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="56"/>
+      <c r="D48" s="51"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2026,7 +2030,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="56"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2038,23 +2042,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="57"/>
+      <c r="D50" s="52"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2080,7 +2084,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2094,7 +2098,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="37"/>
+      <c r="D55" s="67"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2106,7 +2110,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="67"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2118,7 +2122,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="37"/>
+      <c r="D57" s="67"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2130,23 +2134,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="38"/>
+      <c r="D58" s="68"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2172,7 +2176,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="66" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2186,7 +2190,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="67"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2198,7 +2202,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="37"/>
+      <c r="D64" s="67"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2210,7 +2214,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="37"/>
+      <c r="D65" s="67"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2222,23 +2226,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="38"/>
+      <c r="D66" s="68"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2264,7 +2268,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="22" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2278,7 +2282,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="49"/>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2290,7 +2294,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="49"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2302,7 +2306,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="23"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2314,23 +2318,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="50"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58" t="s">
+      <c r="A75" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2356,7 +2360,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="44" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2370,7 +2374,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="53"/>
+      <c r="D79" s="45"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2382,7 +2386,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="53"/>
+      <c r="D80" s="45"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2394,7 +2398,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="53"/>
+      <c r="D81" s="45"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2406,23 +2410,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="54"/>
+      <c r="D82" s="46"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2448,7 +2452,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D86" s="22" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2462,7 +2466,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="49"/>
+      <c r="D87" s="23"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2474,7 +2478,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="49"/>
+      <c r="D88" s="23"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2486,7 +2490,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="49"/>
+      <c r="D89" s="23"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2498,23 +2502,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="50"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2540,7 +2544,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="66"/>
+      <c r="D94" s="34"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2552,7 +2556,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="67"/>
+      <c r="D95" s="35"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2564,7 +2568,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="67"/>
+      <c r="D96" s="35"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2576,7 +2580,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="67"/>
+      <c r="D97" s="35"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2588,23 +2592,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="68"/>
+      <c r="D98" s="36"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="63" t="s">
+      <c r="A99" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="65"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="33"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2681,20 +2685,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="69" t="s">
+      <c r="A107" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -2720,7 +2724,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="60"/>
+      <c r="D110" s="28"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2732,7 +2736,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="61"/>
+      <c r="D111" s="29"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2744,7 +2748,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="61"/>
+      <c r="D112" s="29"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2756,7 +2760,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="61"/>
+      <c r="D113" s="29"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2768,29 +2772,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="62"/>
+      <c r="D114" s="30"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="47" t="s">
+      <c r="A115" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -2816,7 +2820,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="60" t="s">
+      <c r="D119" s="28" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2830,7 +2834,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="61"/>
+      <c r="D120" s="29"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -2842,7 +2846,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="61"/>
+      <c r="D121" s="29"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -2854,7 +2858,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="61"/>
+      <c r="D122" s="29"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -2866,29 +2870,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="62"/>
+      <c r="D123" s="30"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="59" t="s">
+      <c r="A124" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="59"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="59"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="59"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="59"/>
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -2911,8 +2915,10 @@
       <c r="B128" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C128" s="19"/>
-      <c r="D128" s="48" t="s">
+      <c r="C128" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="22" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2923,8 +2929,10 @@
       <c r="B129" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C129" s="19"/>
-      <c r="D129" s="49"/>
+      <c r="C129" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="23"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -2933,8 +2941,10 @@
       <c r="B130" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C130" s="19"/>
-      <c r="D130" s="49"/>
+      <c r="C130" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" s="23"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -2943,8 +2953,10 @@
       <c r="B131" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C131" s="19"/>
-      <c r="D131" s="49"/>
+      <c r="C131" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D131" s="23"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -2953,58 +2965,27 @@
       <c r="B132" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="50"/>
+      <c r="C132" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D132" s="24"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="24" t="s">
+      <c r="A133" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A126:D126"/>
     <mergeCell ref="A133:D134"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
@@ -3020,6 +3001,39 @@
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A126:D126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="168">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,6 +685,42 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.10.24 第9周 周二 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对开发环境的数据进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成昨天忘记密码界面未完成部分的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成昨天普通用户注册界面未完成部分的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder app开发并完成设置界面的demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有不懂请问组长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +957,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -986,6 +1022,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,11 +1088,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1031,104 +1163,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1468,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1483,20 +1522,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1522,7 +1561,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="47" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1536,7 +1575,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1548,7 +1587,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1560,7 +1599,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1572,23 +1611,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1614,7 +1653,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="50" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1628,7 +1667,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1640,7 +1679,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1652,7 +1691,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1664,23 +1703,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1706,7 +1745,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1720,7 +1759,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1732,7 +1771,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1744,7 +1783,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1756,29 +1795,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1804,7 +1843,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="26" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1818,7 +1857,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1830,7 +1869,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1842,7 +1881,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1854,29 +1893,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1902,7 +1941,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="32" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1916,7 +1955,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1928,7 +1967,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1940,7 +1979,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1952,23 +1991,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1994,7 +2033,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2006,7 +2045,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="51"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2018,7 +2057,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="51"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2030,7 +2069,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="51"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2042,23 +2081,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="52"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2084,7 +2123,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2098,7 +2137,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="67"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2110,7 +2149,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="67"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2122,7 +2161,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="67"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2134,23 +2173,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="68"/>
+      <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2176,7 +2215,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="66" t="s">
+      <c r="D62" s="35" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2190,7 +2229,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="67"/>
+      <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2202,7 +2241,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="67"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2214,7 +2253,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="67"/>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2226,23 +2265,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="68"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="69" t="s">
+      <c r="A67" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2268,7 +2307,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="41" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2282,7 +2321,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="23"/>
+      <c r="D71" s="42"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2294,7 +2333,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="23"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2306,7 +2345,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="23"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2318,23 +2357,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="24"/>
+      <c r="D74" s="43"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2360,7 +2399,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="52" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2374,7 +2413,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="45"/>
+      <c r="D79" s="53"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2386,7 +2425,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="45"/>
+      <c r="D80" s="53"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2398,7 +2437,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="45"/>
+      <c r="D81" s="53"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2410,23 +2449,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="46"/>
+      <c r="D82" s="54"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2452,7 +2491,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2466,7 +2505,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="23"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2478,7 +2517,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="23"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2490,7 +2529,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="23"/>
+      <c r="D89" s="42"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2502,23 +2541,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="24"/>
+      <c r="D90" s="43"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2544,7 +2583,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="34"/>
+      <c r="D94" s="66"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2556,7 +2595,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="35"/>
+      <c r="D95" s="67"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2568,7 +2607,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="35"/>
+      <c r="D96" s="67"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2580,7 +2619,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="35"/>
+      <c r="D97" s="67"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2592,23 +2631,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="36"/>
+      <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="33"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="65"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2685,20 +2724,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -2724,7 +2763,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="28"/>
+      <c r="D110" s="60"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2736,7 +2775,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="29"/>
+      <c r="D111" s="61"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2748,7 +2787,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="29"/>
+      <c r="D112" s="61"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2760,7 +2799,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="29"/>
+      <c r="D113" s="61"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2772,29 +2811,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="30"/>
+      <c r="D114" s="62"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -2820,7 +2859,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="28" t="s">
+      <c r="D119" s="60" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2834,7 +2873,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="29"/>
+      <c r="D120" s="61"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -2846,7 +2885,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="29"/>
+      <c r="D121" s="61"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -2858,7 +2897,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="29"/>
+      <c r="D122" s="61"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -2870,29 +2909,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="30"/>
+      <c r="D123" s="62"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="59"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -2918,7 +2957,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="41" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2930,9 +2969,9 @@
         <v>152</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D129" s="23"/>
+        <v>162</v>
+      </c>
+      <c r="D129" s="42"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -2942,9 +2981,9 @@
         <v>154</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D130" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="D130" s="42"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -2954,9 +2993,9 @@
         <v>155</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D131" s="23"/>
+        <v>162</v>
+      </c>
+      <c r="D131" s="42"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -2966,26 +3005,149 @@
         <v>156</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D132" s="24"/>
+        <v>162</v>
+      </c>
+      <c r="D132" s="43"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="59" t="s">
+      <c r="A133" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="59"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="59"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="59"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="59"/>
-      <c r="D134" s="59"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+    </row>
+    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+    </row>
+    <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" s="20"/>
+      <c r="D137" s="60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="20"/>
+      <c r="D138" s="61"/>
+    </row>
+    <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C139" s="20"/>
+      <c r="D139" s="61"/>
+    </row>
+    <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C140" s="20"/>
+      <c r="D140" s="61"/>
+    </row>
+    <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="20"/>
+      <c r="D141" s="62"/>
+    </row>
+    <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="51">
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A133:D134"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
@@ -3001,39 +3163,7 @@
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:D59"/>
     <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A126:D126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,6 +717,14 @@
   </si>
   <si>
     <t>有不懂请问组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：这次任务完成得不错。接下来的开发工作会逐步加快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,36 +1026,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1072,102 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1510,7 +1514,7 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:D143"/>
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1522,12 +1526,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1561,7 +1565,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1575,7 +1579,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1587,7 +1591,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1599,7 +1603,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1611,23 +1615,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1653,7 +1657,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="59" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1667,7 +1671,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1679,7 +1683,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1691,7 +1695,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1703,23 +1707,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1745,7 +1749,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1759,7 +1763,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1771,7 +1775,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1783,7 +1787,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1795,21 +1799,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="28"/>
+      <c r="D24" s="41"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
@@ -1843,7 +1847,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="48" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1857,7 +1861,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1869,7 +1873,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1881,7 +1885,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1893,21 +1897,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
@@ -1941,7 +1945,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="64" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1955,7 +1959,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="33"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1967,7 +1971,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="33"/>
+      <c r="D40" s="65"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1979,7 +1983,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="65"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1991,15 +1995,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="66"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -2033,7 +2037,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="48"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2045,7 +2049,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="56"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2057,7 +2061,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="56"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2069,7 +2073,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="56"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2081,15 +2085,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="57"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -2123,7 +2127,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="67" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2137,7 +2141,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="36"/>
+      <c r="D55" s="68"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2149,7 +2153,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="36"/>
+      <c r="D56" s="68"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2161,7 +2165,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="36"/>
+      <c r="D57" s="68"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2173,15 +2177,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="37"/>
+      <c r="D58" s="69"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
@@ -2215,7 +2219,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="67" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2229,7 +2233,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="36"/>
+      <c r="D63" s="68"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2241,7 +2245,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="68"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2253,7 +2257,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="68"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2265,18 +2269,18 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="37"/>
+      <c r="D66" s="69"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="23"/>
@@ -2307,7 +2311,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="52" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2321,7 +2325,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="42"/>
+      <c r="D71" s="53"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2333,7 +2337,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="42"/>
+      <c r="D72" s="53"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2345,7 +2349,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="42"/>
+      <c r="D73" s="53"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2357,18 +2361,18 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="43"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58" t="s">
+      <c r="A75" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B76" s="23"/>
@@ -2399,7 +2403,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="42" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2413,7 +2417,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="53"/>
+      <c r="D79" s="43"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2425,7 +2429,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="53"/>
+      <c r="D80" s="43"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2437,7 +2441,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="53"/>
+      <c r="D81" s="43"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2449,18 +2453,18 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="54"/>
+      <c r="D82" s="44"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="22" t="s">
         <v>113</v>
       </c>
       <c r="B84" s="23"/>
@@ -2491,7 +2495,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="52" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2505,7 +2509,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="D87" s="53"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2517,7 +2521,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="42"/>
+      <c r="D88" s="53"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2529,7 +2533,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="42"/>
+      <c r="D89" s="53"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2541,18 +2545,18 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="43"/>
+      <c r="D90" s="54"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B92" s="23"/>
@@ -2583,7 +2587,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="66"/>
+      <c r="D94" s="32"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2595,7 +2599,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="67"/>
+      <c r="D95" s="33"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2607,7 +2611,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="67"/>
+      <c r="D96" s="33"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2619,7 +2623,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="67"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2631,18 +2635,18 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="68"/>
+      <c r="D98" s="34"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="63" t="s">
+      <c r="A99" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="65"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="31"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
+      <c r="A100" s="22" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="23"/>
@@ -2724,15 +2728,15 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="69" t="s">
+      <c r="A107" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="39" t="s">
+      <c r="A108" s="22" t="s">
         <v>140</v>
       </c>
       <c r="B108" s="23"/>
@@ -2763,7 +2767,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="60"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2775,7 +2779,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="61"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2787,7 +2791,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="61"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2799,7 +2803,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="61"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2811,24 +2815,24 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="62"/>
+      <c r="D114" s="27"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="40"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="22" t="s">
         <v>141</v>
       </c>
       <c r="B117" s="23"/>
@@ -2859,7 +2863,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="60" t="s">
+      <c r="D119" s="25" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2873,7 +2877,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="61"/>
+      <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -2885,7 +2889,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="61"/>
+      <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -2897,7 +2901,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="61"/>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -2909,24 +2913,24 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="62"/>
+      <c r="D123" s="27"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="59" t="s">
+      <c r="A124" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="59"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="59"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="59"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="59"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="22" t="s">
         <v>150</v>
       </c>
       <c r="B126" s="23"/>
@@ -2957,7 +2961,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="41" t="s">
+      <c r="D128" s="52" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2969,9 +2973,9 @@
         <v>152</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D129" s="42"/>
+        <v>161</v>
+      </c>
+      <c r="D129" s="53"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -2981,9 +2985,9 @@
         <v>154</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D130" s="42"/>
+        <v>162</v>
+      </c>
+      <c r="D130" s="53"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -2993,9 +2997,9 @@
         <v>155</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D131" s="42"/>
+        <v>161</v>
+      </c>
+      <c r="D131" s="53"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3005,26 +3009,26 @@
         <v>156</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D132" s="43"/>
+        <v>161</v>
+      </c>
+      <c r="D132" s="54"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="22"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="22"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
+      <c r="A134" s="60"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="60"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="22" t="s">
         <v>159</v>
       </c>
       <c r="B135" s="23"/>
@@ -3052,9 +3056,11 @@
       <c r="B137" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C137" s="20"/>
-      <c r="D137" s="60" t="s">
+      <c r="C137" s="21" t="s">
         <v>167</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3062,72 +3068,83 @@
         <v>7</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C138" s="20"/>
-      <c r="D138" s="61"/>
+        <v>163</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="26"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C139" s="20"/>
-      <c r="D139" s="61"/>
+        <v>165</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D139" s="26"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="61"/>
+        <v>164</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" s="26"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="62"/>
+        <v>164</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D141" s="27"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
+      <c r="A142" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3141,28 +3158,25 @@
     <mergeCell ref="D70:D74"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A133:D134"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A133:D134"/>
     <mergeCell ref="D128:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="177">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,38 @@
   </si>
   <si>
     <t>总结：这次任务完成得不错。接下来的开发工作会逐步加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.10.25 第9周 周三 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册普通用户功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder的页面跳转并完成相应的demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习页面下拉刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设置页面的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习html的ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有疑问请问组长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +993,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,153 +1058,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1511,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1526,20 +1562,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1565,7 +1601,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1579,7 +1615,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1591,7 +1627,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1603,7 +1639,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1615,23 +1651,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1657,7 +1693,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1671,7 +1707,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1683,7 +1719,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1695,7 +1731,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1707,23 +1743,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1749,7 +1785,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1763,7 +1799,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1775,7 +1811,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="46"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1787,7 +1823,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1799,29 +1835,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1847,7 +1883,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="52" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1861,7 +1897,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1873,7 +1909,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1885,7 +1921,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1897,29 +1933,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1945,7 +1981,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="35" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1959,7 +1995,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1971,7 +2007,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1983,7 +2019,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="65"/>
+      <c r="D41" s="36"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1995,23 +2031,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="66"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2037,7 +2073,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="48"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2049,7 +2085,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="49"/>
+      <c r="D47" s="53"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2061,7 +2097,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="49"/>
+      <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2073,7 +2109,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="53"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2085,23 +2121,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="54"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2127,7 +2163,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="D54" s="23" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2141,7 +2177,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="68"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2153,7 +2189,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="68"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2165,7 +2201,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="68"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2177,23 +2213,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="69"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2219,7 +2255,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="67" t="s">
+      <c r="D62" s="23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2233,7 +2269,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="68"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2245,7 +2281,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="68"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2257,7 +2293,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="68"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2269,23 +2305,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="69"/>
+      <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2311,7 +2347,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="29" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2325,7 +2361,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="53"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2337,7 +2373,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="53"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2349,7 +2385,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="53"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2361,23 +2397,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="54"/>
+      <c r="D74" s="31"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2403,7 +2439,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="48" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2417,7 +2453,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="43"/>
+      <c r="D79" s="49"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2429,7 +2465,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="43"/>
+      <c r="D80" s="49"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2441,7 +2477,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="43"/>
+      <c r="D81" s="49"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2453,23 +2489,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="44"/>
+      <c r="D82" s="50"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2495,7 +2531,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="52" t="s">
+      <c r="D86" s="29" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2509,7 +2545,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="53"/>
+      <c r="D87" s="30"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2521,7 +2557,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="53"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2533,7 +2569,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="53"/>
+      <c r="D89" s="30"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2545,23 +2581,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="54"/>
+      <c r="D90" s="31"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2587,7 +2623,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="32"/>
+      <c r="D94" s="61"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2599,7 +2635,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="33"/>
+      <c r="D95" s="62"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2611,7 +2647,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="33"/>
+      <c r="D96" s="62"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2623,7 +2659,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="33"/>
+      <c r="D97" s="62"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2635,23 +2671,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="34"/>
+      <c r="D98" s="63"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="31"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="60"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2728,20 +2764,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -2767,7 +2803,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="64"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2779,7 +2815,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="26"/>
+      <c r="D111" s="65"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2791,7 +2827,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="26"/>
+      <c r="D112" s="65"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2803,7 +2839,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="26"/>
+      <c r="D113" s="65"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2815,29 +2851,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="27"/>
+      <c r="D114" s="66"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="35"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -2863,7 +2899,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="64" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2877,7 +2913,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="26"/>
+      <c r="D120" s="65"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -2889,7 +2925,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="26"/>
+      <c r="D121" s="65"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -2901,7 +2937,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="26"/>
+      <c r="D122" s="65"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -2913,29 +2949,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="27"/>
+      <c r="D123" s="66"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
+      <c r="A125" s="69"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="69"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -2961,7 +2997,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="52" t="s">
+      <c r="D128" s="29" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2975,7 +3011,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="53"/>
+      <c r="D129" s="30"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -2987,7 +3023,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="53"/>
+      <c r="D130" s="30"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -2999,7 +3035,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="53"/>
+      <c r="D131" s="30"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3011,29 +3047,29 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="54"/>
+      <c r="D132" s="31"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="60" t="s">
+      <c r="A133" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="60"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
+      <c r="A134" s="70"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3059,7 +3095,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="64" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3073,7 +3109,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="26"/>
+      <c r="D138" s="65"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3085,7 +3121,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="26"/>
+      <c r="D139" s="65"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3097,7 +3133,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="26"/>
+      <c r="D140" s="65"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3109,42 +3145,132 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="27"/>
+      <c r="D141" s="66"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="24" t="s">
+      <c r="A142" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
+      <c r="A143" s="68"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+    </row>
+    <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+    </row>
+    <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A145" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146" s="72"/>
+      <c r="D146" s="64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C147" s="72"/>
+      <c r="D147" s="65"/>
+    </row>
+    <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" s="72"/>
+      <c r="D148" s="65"/>
+    </row>
+    <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" s="72"/>
+      <c r="D149" s="65"/>
+    </row>
+    <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C150" s="72"/>
+      <c r="D150" s="66"/>
+    </row>
+    <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="70"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="70"/>
+      <c r="B152" s="70"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
+  <mergeCells count="54">
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3161,23 +3287,24 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="179">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,6 +757,14 @@
   </si>
   <si>
     <t>有疑问请问组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,157 +1066,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1550,7 +1558,7 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1562,20 +1570,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1601,7 +1609,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="61" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1615,7 +1623,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1627,7 +1635,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1639,7 +1647,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1651,23 +1659,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1693,7 +1701,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="64" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1707,7 +1715,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1719,7 +1727,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1731,7 +1739,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1743,23 +1751,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1838,26 +1846,26 @@
       <c r="D24" s="47"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1883,7 +1891,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="54" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1936,26 +1944,26 @@
       <c r="D33" s="47"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1981,7 +1989,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1995,7 +2003,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2007,7 +2015,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="36"/>
+      <c r="D40" s="67"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2019,7 +2027,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="36"/>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2031,23 +2039,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="68"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2073,7 +2081,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="52"/>
+      <c r="D46" s="54"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2085,7 +2093,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="53"/>
+      <c r="D47" s="55"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2097,7 +2105,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="53"/>
+      <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2109,7 +2117,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="53"/>
+      <c r="D49" s="55"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2121,23 +2129,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="54"/>
+      <c r="D50" s="56"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2163,7 +2171,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="69" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2177,7 +2185,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="24"/>
+      <c r="D55" s="70"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2189,7 +2197,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="24"/>
+      <c r="D56" s="70"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2201,7 +2209,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="70"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2213,23 +2221,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="25"/>
+      <c r="D58" s="71"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2255,7 +2263,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="69" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2269,7 +2277,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="24"/>
+      <c r="D63" s="70"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2281,7 +2289,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="24"/>
+      <c r="D64" s="70"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2293,7 +2301,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="24"/>
+      <c r="D65" s="70"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2305,23 +2313,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="25"/>
+      <c r="D66" s="71"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2347,7 +2355,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="32" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2361,7 +2369,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="30"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2373,7 +2381,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="30"/>
+      <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2385,7 +2393,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="30"/>
+      <c r="D73" s="33"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2397,23 +2405,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="31"/>
+      <c r="D74" s="34"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2492,20 +2500,20 @@
       <c r="D82" s="50"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2531,7 +2539,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="32" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2545,7 +2553,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="30"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2557,7 +2565,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="30"/>
+      <c r="D88" s="33"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2569,7 +2577,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="30"/>
+      <c r="D89" s="33"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2581,23 +2589,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="31"/>
+      <c r="D90" s="34"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2623,7 +2631,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="61"/>
+      <c r="D94" s="38"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2635,7 +2643,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="62"/>
+      <c r="D95" s="39"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2647,7 +2655,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="62"/>
+      <c r="D96" s="39"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2659,7 +2667,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="62"/>
+      <c r="D97" s="39"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2671,23 +2679,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="63"/>
+      <c r="D98" s="40"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58" t="s">
+      <c r="A99" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="60"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2764,20 +2772,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="67"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -2803,7 +2811,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="64"/>
+      <c r="D110" s="27"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2815,7 +2823,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="65"/>
+      <c r="D111" s="28"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2827,7 +2835,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="65"/>
+      <c r="D112" s="28"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2839,7 +2847,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="65"/>
+      <c r="D113" s="28"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2851,29 +2859,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="66"/>
+      <c r="D114" s="29"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="28"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="A116" s="41"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -2899,7 +2907,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="64" t="s">
+      <c r="D119" s="27" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2913,7 +2921,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="65"/>
+      <c r="D120" s="28"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -2925,7 +2933,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="65"/>
+      <c r="D121" s="28"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -2937,7 +2945,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="65"/>
+      <c r="D122" s="28"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -2949,29 +2957,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="66"/>
+      <c r="D123" s="29"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="69" t="s">
+      <c r="A124" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="69"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="69"/>
-      <c r="B125" s="69"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="69"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -2997,7 +3005,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="32" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3011,7 +3019,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="30"/>
+      <c r="D129" s="33"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3023,7 +3031,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="30"/>
+      <c r="D130" s="33"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3035,7 +3043,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="30"/>
+      <c r="D131" s="33"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3047,29 +3055,29 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="31"/>
+      <c r="D132" s="34"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="70" t="s">
+      <c r="A133" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3095,7 +3103,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="64" t="s">
+      <c r="D137" s="27" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3109,7 +3117,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="65"/>
+      <c r="D138" s="28"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3121,7 +3129,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="65"/>
+      <c r="D139" s="28"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3133,7 +3141,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="65"/>
+      <c r="D140" s="28"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3145,41 +3153,41 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="66"/>
+      <c r="D141" s="29"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="68" t="s">
+      <c r="A142" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="68"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="68"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="68"/>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="27" t="s">
+      <c r="A144" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="71" t="s">
+      <c r="A145" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="71" t="s">
+      <c r="B145" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C145" s="71" t="s">
+      <c r="C145" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="71" t="s">
+      <c r="D145" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3187,11 +3195,13 @@
       <c r="A146" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="72" t="s">
+      <c r="B146" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="64" t="s">
+      <c r="C146" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D146" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3199,78 +3209,84 @@
       <c r="A147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B147" s="72" t="s">
+      <c r="B147" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="72"/>
-      <c r="D147" s="65"/>
+      <c r="C147" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147" s="28"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="72" t="s">
+      <c r="B148" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C148" s="72"/>
-      <c r="D148" s="65"/>
+      <c r="C148" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D148" s="28"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B149" s="72" t="s">
+      <c r="B149" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C149" s="72"/>
-      <c r="D149" s="65"/>
+      <c r="C149" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" s="28"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B150" s="72" t="s">
+      <c r="B150" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C150" s="72"/>
-      <c r="D150" s="66"/>
+      <c r="C150" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150" s="29"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="70" t="s">
+      <c r="A151" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="70"/>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3287,24 +3303,26 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="184">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +765,26 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册普通用户的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设置页面的子页面的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder的提示消息的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ssm怎样获取用户数据并显示出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,152 +1090,152 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1555,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1570,20 +1590,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1609,7 +1629,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1623,7 +1643,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1635,7 +1655,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1647,7 +1667,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1659,23 +1679,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1701,7 +1721,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="46" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1715,7 +1735,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1727,7 +1747,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1739,7 +1759,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1751,23 +1771,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1793,7 +1813,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="47" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1807,7 +1827,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1819,7 +1839,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1831,7 +1851,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1843,29 +1863,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1905,7 +1925,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1917,7 +1937,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1929,7 +1949,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="46"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1941,7 +1961,7 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="58" t="s">
@@ -1958,12 +1978,12 @@
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1989,7 +2009,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="37" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2003,7 +2023,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="67"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2015,7 +2035,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="67"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2027,7 +2047,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="67"/>
+      <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2039,23 +2059,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="68"/>
+      <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2132,20 +2152,20 @@
       <c r="D50" s="56"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2171,7 +2191,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D54" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2185,7 +2205,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="70"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2197,7 +2217,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="70"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2209,7 +2229,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="70"/>
+      <c r="D57" s="26"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2221,23 +2241,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="71"/>
+      <c r="D58" s="27"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2263,7 +2283,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="69" t="s">
+      <c r="D62" s="25" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2277,7 +2297,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="70"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2289,7 +2309,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="70"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2301,7 +2321,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="70"/>
+      <c r="D65" s="26"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2313,23 +2333,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="71"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2355,7 +2375,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2369,7 +2389,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="33"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2381,7 +2401,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="33"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2393,7 +2413,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="33"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2405,7 +2425,7 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="34"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="57" t="s">
@@ -2416,12 +2436,12 @@
       <c r="D75" s="57"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2447,7 +2467,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="48" t="s">
+      <c r="D78" s="50" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2461,7 +2481,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="49"/>
+      <c r="D79" s="51"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2473,7 +2493,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="49"/>
+      <c r="D80" s="51"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2485,7 +2505,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="49"/>
+      <c r="D81" s="51"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2497,23 +2517,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="50"/>
+      <c r="D82" s="52"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2539,7 +2559,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2553,7 +2573,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="33"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2565,7 +2585,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="33"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2577,7 +2597,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="33"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2589,23 +2609,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="34"/>
+      <c r="D90" s="33"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2631,7 +2651,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="38"/>
+      <c r="D94" s="63"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2643,7 +2663,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="39"/>
+      <c r="D95" s="64"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2655,7 +2675,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="39"/>
+      <c r="D96" s="64"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2667,7 +2687,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="39"/>
+      <c r="D97" s="64"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2679,23 +2699,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="40"/>
+      <c r="D98" s="65"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="35" t="s">
+      <c r="A99" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="37"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2772,20 +2792,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -2811,7 +2831,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="27"/>
+      <c r="D110" s="66"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2823,7 +2843,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="28"/>
+      <c r="D111" s="67"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2835,7 +2855,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="28"/>
+      <c r="D112" s="67"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2847,7 +2867,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="28"/>
+      <c r="D113" s="67"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2859,29 +2879,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="29"/>
+      <c r="D114" s="68"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="41" t="s">
+      <c r="A115" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="41"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
+      <c r="A116" s="30"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="24" t="s">
+      <c r="A117" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -2907,7 +2927,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="66" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2921,7 +2941,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="28"/>
+      <c r="D120" s="67"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -2933,7 +2953,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="28"/>
+      <c r="D121" s="67"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -2945,7 +2965,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="28"/>
+      <c r="D122" s="67"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -2957,29 +2977,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="29"/>
+      <c r="D123" s="68"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="31"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -3005,7 +3025,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="32" t="s">
+      <c r="D128" s="31" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3019,7 +3039,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="33"/>
+      <c r="D129" s="32"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3031,7 +3051,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="33"/>
+      <c r="D130" s="32"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3043,7 +3063,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="33"/>
+      <c r="D131" s="32"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3055,29 +3075,29 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="34"/>
+      <c r="D132" s="33"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="26" t="s">
+      <c r="A133" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="26"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
+      <c r="A134" s="71"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3103,7 +3123,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="27" t="s">
+      <c r="D137" s="66" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3117,7 +3137,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="28"/>
+      <c r="D138" s="67"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3129,7 +3149,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="28"/>
+      <c r="D139" s="67"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3141,7 +3161,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="28"/>
+      <c r="D140" s="67"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3153,29 +3173,29 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="29"/>
+      <c r="D141" s="68"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="30" t="s">
+      <c r="A142" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="30"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="24" t="s">
+      <c r="A144" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A145" s="22" t="s">
@@ -3199,9 +3219,9 @@
         <v>170</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D146" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D146" s="66" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3215,7 +3235,7 @@
       <c r="C147" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="28"/>
+      <c r="D147" s="67"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3227,7 +3247,7 @@
       <c r="C148" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="28"/>
+      <c r="D148" s="67"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3239,7 +3259,7 @@
       <c r="C149" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="28"/>
+      <c r="D149" s="67"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3251,42 +3271,107 @@
       <c r="C150" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="29"/>
+      <c r="D150" s="68"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="26" t="s">
+      <c r="A151" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
+      <c r="A152" s="71"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
+    </row>
+    <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+    </row>
+    <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
+  <mergeCells count="55">
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3303,26 +3388,24 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="186">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,6 +785,14 @@
   </si>
   <si>
     <t>学习ssm怎样获取用户数据并显示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：这次任务完成的不错。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +926,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1015,13 +1023,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,152 +1159,169 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1575,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146:D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1590,20 +1677,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1629,7 +1716,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="60" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1643,7 +1730,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1655,7 +1742,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1667,7 +1754,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1679,15 +1766,15 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
@@ -1721,7 +1808,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="63" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1735,7 +1822,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="63"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1747,7 +1834,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1759,7 +1846,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="63"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1771,15 +1858,15 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="63"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -1813,7 +1900,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="44" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1827,7 +1914,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="48"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1839,7 +1926,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1851,7 +1938,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1863,29 +1950,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1911,7 +1998,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1925,7 +2012,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1937,7 +2024,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="48"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1949,7 +2036,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="48"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1961,29 +2048,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="49"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -2009,7 +2096,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="65" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2023,7 +2110,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="38"/>
+      <c r="D39" s="66"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2035,7 +2122,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="66"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2047,7 +2134,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="38"/>
+      <c r="D41" s="66"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2059,23 +2146,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="67"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2101,7 +2188,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="54"/>
+      <c r="D46" s="53"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2113,7 +2200,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2125,7 +2212,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="55"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2137,7 +2224,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="55"/>
+      <c r="D49" s="54"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2149,23 +2236,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="56"/>
+      <c r="D50" s="55"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2191,7 +2278,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="68" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2205,7 +2292,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="69"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2217,7 +2304,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="26"/>
+      <c r="D56" s="69"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2229,7 +2316,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="26"/>
+      <c r="D57" s="69"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2241,23 +2328,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="27"/>
+      <c r="D58" s="70"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2283,7 +2370,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="68" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2297,7 +2384,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="69"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2309,7 +2396,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="26"/>
+      <c r="D64" s="69"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2321,7 +2408,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="26"/>
+      <c r="D65" s="69"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2333,23 +2420,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="27"/>
+      <c r="D66" s="70"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2428,20 +2515,20 @@
       <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2467,7 +2554,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="47" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2481,7 +2568,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="51"/>
+      <c r="D79" s="48"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2493,7 +2580,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="51"/>
+      <c r="D80" s="48"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2505,7 +2592,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="51"/>
+      <c r="D81" s="48"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2517,23 +2604,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="52"/>
+      <c r="D82" s="49"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2612,20 +2699,20 @@
       <c r="D90" s="33"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2651,7 +2738,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="63"/>
+      <c r="D94" s="37"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2663,7 +2750,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="64"/>
+      <c r="D95" s="38"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2675,7 +2762,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="64"/>
+      <c r="D96" s="38"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2687,7 +2774,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="64"/>
+      <c r="D97" s="38"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2699,23 +2786,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="65"/>
+      <c r="D98" s="39"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="60" t="s">
+      <c r="A99" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="61"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="62"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="36"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2792,20 +2879,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="69" t="s">
+      <c r="A107" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -2831,7 +2918,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="66"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2843,7 +2930,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="67"/>
+      <c r="D111" s="27"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2855,7 +2942,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="67"/>
+      <c r="D112" s="27"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2867,7 +2954,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="67"/>
+      <c r="D113" s="27"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2879,29 +2966,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="68"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="30"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -2927,7 +3014,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="66" t="s">
+      <c r="D119" s="26" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2941,7 +3028,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="67"/>
+      <c r="D120" s="27"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -2953,7 +3040,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="67"/>
+      <c r="D121" s="27"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -2965,7 +3052,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="67"/>
+      <c r="D122" s="27"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -2977,29 +3064,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="68"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="70" t="s">
+      <c r="A124" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -3078,26 +3165,26 @@
       <c r="D132" s="33"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="71" t="s">
+      <c r="A133" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="71"/>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="71"/>
-      <c r="B134" s="71"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3123,7 +3210,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="66" t="s">
+      <c r="D137" s="26" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3137,7 +3224,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="67"/>
+      <c r="D138" s="27"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3149,7 +3236,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="67"/>
+      <c r="D139" s="27"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3161,7 +3248,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="67"/>
+      <c r="D140" s="27"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3173,29 +3260,29 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="68"/>
+      <c r="D141" s="28"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="72" t="s">
+      <c r="A142" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="72"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="72"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="72"/>
-      <c r="D143" s="72"/>
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="29" t="s">
+      <c r="A144" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A145" s="22" t="s">
@@ -3215,13 +3302,13 @@
       <c r="A146" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="66" t="s">
+      <c r="D146" s="26" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3229,71 +3316,71 @@
       <c r="A147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="67"/>
+      <c r="D147" s="27"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="67"/>
+      <c r="D148" s="27"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="67"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="68"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="71" t="s">
+      <c r="A151" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="71"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="71"/>
-      <c r="B152" s="71"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="29" t="s">
+      <c r="A153" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="22" t="s">
@@ -3313,65 +3400,97 @@
       <c r="A155" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="20" t="s">
         <v>180</v>
       </c>
+      <c r="C155" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" s="20"/>
     </row>
     <row r="156" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="20" t="s">
         <v>181</v>
       </c>
+      <c r="C156" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D156" s="20"/>
     </row>
     <row r="157" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="20" t="s">
         <v>182</v>
       </c>
+      <c r="C157" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D157" s="20"/>
     </row>
     <row r="158" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="C158" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D158" s="20"/>
     </row>
     <row r="159" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B159" s="23" t="s">
+      <c r="B159" s="20" t="s">
         <v>175</v>
       </c>
+      <c r="C159" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D159" s="20"/>
+    </row>
+    <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" s="73"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="74"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="75"/>
+      <c r="B161" s="76"/>
+      <c r="C161" s="76"/>
+      <c r="D161" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
+  <mergeCells count="56">
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3388,24 +3507,27 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="193">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,6 +793,34 @@
   </si>
   <si>
     <t>总结：这次任务完成的不错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.10.30 第10周 周一 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始我的关注页面的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改查看个人详细信息的页面，加入一次可以修改多个资料功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登录功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习瀑布流效果的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习轮播图的实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1119,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1159,170 +1187,173 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1662,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146:D150"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1677,20 +1708,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1716,7 +1747,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="48" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1730,7 +1761,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1742,7 +1773,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1754,7 +1785,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1766,23 +1797,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1808,7 +1839,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1822,7 +1853,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1834,7 +1865,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1846,7 +1877,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1858,23 +1889,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1900,7 +1931,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="52" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1914,7 +1945,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1926,7 +1957,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1938,7 +1969,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="53"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1950,29 +1981,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1998,7 +2029,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="59" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2012,7 +2043,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2024,7 +2055,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2036,7 +2067,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2048,29 +2079,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="54"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -2096,7 +2127,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="42" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2110,7 +2141,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="66"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2122,7 +2153,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="66"/>
+      <c r="D40" s="43"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2134,7 +2165,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="66"/>
+      <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2146,23 +2177,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="67"/>
+      <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2188,7 +2219,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="53"/>
+      <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2200,7 +2231,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="54"/>
+      <c r="D47" s="60"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2212,7 +2243,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="60"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2224,7 +2255,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="54"/>
+      <c r="D49" s="60"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2236,23 +2267,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="61"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2278,7 +2309,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="68" t="s">
+      <c r="D54" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2292,7 +2323,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="69"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2304,7 +2335,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="69"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2316,7 +2347,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="69"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2328,23 +2359,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="70"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2370,7 +2401,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="30" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2384,7 +2415,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="69"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2396,7 +2427,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="69"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2408,7 +2439,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="69"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2420,23 +2451,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="70"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2462,7 +2493,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="36" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2476,7 +2507,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="37"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2488,7 +2519,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="37"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2500,7 +2531,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2512,23 +2543,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="33"/>
+      <c r="D74" s="38"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2554,7 +2585,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="47" t="s">
+      <c r="D78" s="55" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2568,7 +2599,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="48"/>
+      <c r="D79" s="56"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2580,7 +2611,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="48"/>
+      <c r="D80" s="56"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2592,7 +2623,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="48"/>
+      <c r="D81" s="56"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2604,23 +2635,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="49"/>
+      <c r="D82" s="57"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2646,7 +2677,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2660,7 +2691,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="32"/>
+      <c r="D87" s="37"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2672,7 +2703,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="32"/>
+      <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2684,7 +2715,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="32"/>
+      <c r="D89" s="37"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2696,23 +2727,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="33"/>
+      <c r="D90" s="38"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2738,7 +2769,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="37"/>
+      <c r="D94" s="68"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2750,7 +2781,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="38"/>
+      <c r="D95" s="69"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2762,7 +2793,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="38"/>
+      <c r="D96" s="69"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2774,7 +2805,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="38"/>
+      <c r="D97" s="69"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2786,23 +2817,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="39"/>
+      <c r="D98" s="70"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="36"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="67"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2879,20 +2910,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -2918,7 +2949,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="26"/>
+      <c r="D110" s="71"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2930,7 +2961,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="27"/>
+      <c r="D111" s="72"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2942,7 +2973,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="27"/>
+      <c r="D112" s="72"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2954,7 +2985,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="27"/>
+      <c r="D113" s="72"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2966,29 +2997,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="28"/>
+      <c r="D114" s="73"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="40"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -3014,7 +3045,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="71" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3028,7 +3059,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="27"/>
+      <c r="D120" s="72"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3040,7 +3071,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="27"/>
+      <c r="D121" s="72"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3052,7 +3083,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="27"/>
+      <c r="D122" s="72"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3064,29 +3095,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="28"/>
+      <c r="D123" s="73"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="75"/>
+      <c r="D124" s="75"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="30"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
+      <c r="A125" s="75"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="75"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -3112,7 +3143,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="36" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3126,7 +3157,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="32"/>
+      <c r="D129" s="37"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3138,7 +3169,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="32"/>
+      <c r="D130" s="37"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3150,7 +3181,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="32"/>
+      <c r="D131" s="37"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3162,29 +3193,29 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="33"/>
+      <c r="D132" s="38"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
+      <c r="A134" s="76"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3210,7 +3241,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="71" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3224,7 +3255,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="27"/>
+      <c r="D138" s="72"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3236,7 +3267,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="27"/>
+      <c r="D139" s="72"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3248,7 +3279,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="27"/>
+      <c r="D140" s="72"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3260,29 +3291,29 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="28"/>
+      <c r="D141" s="73"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="29" t="s">
+      <c r="A142" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
+      <c r="A143" s="77"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="23" t="s">
+      <c r="A144" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A145" s="22" t="s">
@@ -3308,7 +3339,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="71" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3322,7 +3353,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="27"/>
+      <c r="D147" s="72"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3334,7 +3365,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="27"/>
+      <c r="D148" s="72"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3346,7 +3377,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="27"/>
+      <c r="D149" s="72"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3358,29 +3389,29 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="28"/>
+      <c r="D150" s="73"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
+      <c r="B151" s="76"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="76"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
+      <c r="A152" s="76"/>
+      <c r="B152" s="76"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="76"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="23" t="s">
+      <c r="A153" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="22" t="s">
@@ -3457,40 +3488,122 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="72" t="s">
+      <c r="A160" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="73"/>
-      <c r="C160" s="73"/>
-      <c r="D160" s="74"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="25"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="75"/>
-      <c r="B161" s="76"/>
-      <c r="C161" s="76"/>
-      <c r="D161" s="77"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="28"/>
+    </row>
+    <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+    </row>
+    <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A163" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C164" s="20"/>
+      <c r="D164" s="71"/>
+    </row>
+    <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C165" s="20"/>
+      <c r="D165" s="72"/>
+    </row>
+    <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C166" s="20"/>
+      <c r="D166" s="72"/>
+    </row>
+    <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C167" s="20"/>
+      <c r="D167" s="72"/>
+    </row>
+    <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C168" s="20"/>
+      <c r="D168" s="73"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B169" s="78"/>
+      <c r="C169" s="78"/>
+      <c r="D169" s="78"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="78"/>
+      <c r="B170" s="78"/>
+      <c r="C170" s="78"/>
+      <c r="D170" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
+  <mergeCells count="59">
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3507,6 +3620,25 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="D94:D98"/>
@@ -3516,18 +3648,6 @@
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="201">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,6 +821,38 @@
   </si>
   <si>
     <t>学习轮播图的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.31 第10周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成发送验证码到邮箱功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写发布作品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习html的下拉刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习mybatis的分页查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,6 +1219,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,111 +1366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1331,29 +1384,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1693,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:D170"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1708,20 +1740,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1747,7 +1779,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="54" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1761,7 +1793,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1773,7 +1805,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1785,7 +1817,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="55"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1797,23 +1829,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1839,7 +1871,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="57" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1853,7 +1885,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1865,7 +1897,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1877,7 +1909,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1889,23 +1921,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1931,7 +1963,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1945,7 +1977,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1957,7 +1989,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="53"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1969,7 +2001,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="53"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1981,29 +2013,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -2029,7 +2061,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="47" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2043,7 +2075,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="53"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2055,7 +2087,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="53"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2067,7 +2099,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="53"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2079,29 +2111,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="39"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -2127,7 +2159,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="59" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2141,7 +2173,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="60"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2153,7 +2185,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="60"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2165,7 +2197,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="60"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2177,23 +2209,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="61"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2219,7 +2251,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2231,7 +2263,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="60"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2243,7 +2275,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="60"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2255,7 +2287,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="60"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2267,23 +2299,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="61"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2309,7 +2341,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="62" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2323,7 +2355,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="31"/>
+      <c r="D55" s="63"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2335,7 +2367,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="31"/>
+      <c r="D56" s="63"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2347,7 +2379,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="31"/>
+      <c r="D57" s="63"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2359,23 +2391,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="32"/>
+      <c r="D58" s="64"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2401,7 +2433,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2415,7 +2447,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="31"/>
+      <c r="D63" s="63"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2427,7 +2459,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="31"/>
+      <c r="D64" s="63"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2439,7 +2471,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="31"/>
+      <c r="D65" s="63"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2451,23 +2483,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="32"/>
+      <c r="D66" s="64"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2493,7 +2525,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2507,7 +2539,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="37"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2519,7 +2551,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="37"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2531,7 +2563,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="37"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2543,23 +2575,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="38"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2585,7 +2617,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="41" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2599,7 +2631,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="56"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2611,7 +2643,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="56"/>
+      <c r="D80" s="42"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2623,7 +2655,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="56"/>
+      <c r="D81" s="42"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2635,23 +2667,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="57"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2677,7 +2709,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2691,7 +2723,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="37"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2703,7 +2735,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="37"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2715,7 +2747,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="37"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2727,23 +2759,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="38"/>
+      <c r="D90" s="33"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2769,7 +2801,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="68"/>
+      <c r="D94" s="75"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2781,7 +2813,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="69"/>
+      <c r="D95" s="76"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2793,7 +2825,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="69"/>
+      <c r="D96" s="76"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2805,7 +2837,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="69"/>
+      <c r="D97" s="76"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2817,23 +2849,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="70"/>
+      <c r="D98" s="77"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="67"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="74"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2910,20 +2942,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="74" t="s">
+      <c r="A107" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="74"/>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -2949,7 +2981,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="71"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2961,7 +2993,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="72"/>
+      <c r="D111" s="27"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -2973,7 +3005,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="72"/>
+      <c r="D112" s="27"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -2985,7 +3017,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="72"/>
+      <c r="D113" s="27"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -2997,29 +3029,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="73"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="35"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -3045,7 +3077,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="71" t="s">
+      <c r="D119" s="26" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3059,7 +3091,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="72"/>
+      <c r="D120" s="27"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3071,7 +3103,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="72"/>
+      <c r="D121" s="27"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3083,7 +3115,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="72"/>
+      <c r="D122" s="27"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3095,29 +3127,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="73"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="75" t="s">
+      <c r="A124" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="75"/>
-      <c r="C124" s="75"/>
-      <c r="D124" s="75"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="75"/>
-      <c r="B125" s="75"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="75"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -3143,7 +3175,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="36" t="s">
+      <c r="D128" s="31" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3157,7 +3189,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="37"/>
+      <c r="D129" s="32"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3169,7 +3201,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="37"/>
+      <c r="D130" s="32"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3181,7 +3213,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="37"/>
+      <c r="D131" s="32"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3193,29 +3225,29 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="38"/>
+      <c r="D132" s="33"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="76" t="s">
+      <c r="A133" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="76"/>
-      <c r="C133" s="76"/>
-      <c r="D133" s="76"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="76"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="76"/>
+      <c r="A134" s="30"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3241,7 +3273,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="71" t="s">
+      <c r="D137" s="26" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3255,7 +3287,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="72"/>
+      <c r="D138" s="27"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3267,7 +3299,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="72"/>
+      <c r="D139" s="27"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3279,7 +3311,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="72"/>
+      <c r="D140" s="27"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3291,29 +3323,29 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="73"/>
+      <c r="D141" s="28"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="77" t="s">
+      <c r="A142" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="77"/>
-      <c r="C142" s="77"/>
-      <c r="D142" s="77"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="77"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="77"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A145" s="22" t="s">
@@ -3339,7 +3371,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="71" t="s">
+      <c r="D146" s="26" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3353,7 +3385,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="72"/>
+      <c r="D147" s="27"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3365,7 +3397,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="72"/>
+      <c r="D148" s="27"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3377,7 +3409,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="72"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3389,29 +3421,29 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="73"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="76" t="s">
+      <c r="A151" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="76"/>
-      <c r="C151" s="76"/>
-      <c r="D151" s="76"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="76"/>
-      <c r="B152" s="76"/>
-      <c r="C152" s="76"/>
-      <c r="D152" s="76"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="22" t="s">
@@ -3488,26 +3520,26 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="25"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="67"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="26"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="28"/>
+      <c r="A161" s="68"/>
+      <c r="B161" s="69"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="70"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="34" t="s">
+      <c r="A162" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B162" s="33"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A163" s="22" t="s">
@@ -3530,8 +3562,10 @@
       <c r="B164" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C164" s="20"/>
-      <c r="D164" s="71"/>
+      <c r="C164" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D164" s="26"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3540,8 +3574,10 @@
       <c r="B165" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C165" s="20"/>
-      <c r="D165" s="72"/>
+      <c r="C165" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D165" s="27"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3550,8 +3586,10 @@
       <c r="B166" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C166" s="20"/>
-      <c r="D166" s="72"/>
+      <c r="C166" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166" s="27"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3560,8 +3598,10 @@
       <c r="B167" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C167" s="20"/>
-      <c r="D167" s="72"/>
+      <c r="C167" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D167" s="27"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3570,40 +3610,143 @@
       <c r="B168" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C168" s="20"/>
-      <c r="D168" s="73"/>
+      <c r="C168" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D168" s="28"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="78" t="s">
+      <c r="A169" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="78"/>
-      <c r="C169" s="78"/>
-      <c r="D169" s="78"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="78"/>
-      <c r="B170" s="78"/>
-      <c r="C170" s="78"/>
-      <c r="D170" s="78"/>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+    </row>
+    <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+    </row>
+    <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A172" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C173" s="20"/>
+      <c r="D173" s="26"/>
+    </row>
+    <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C174" s="20"/>
+      <c r="D174" s="27"/>
+    </row>
+    <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C175" s="20"/>
+      <c r="D175" s="27"/>
+    </row>
+    <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C176" s="20"/>
+      <c r="D176" s="27"/>
+    </row>
+    <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C177" s="20"/>
+      <c r="D177" s="28"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
+  <mergeCells count="62">
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A178:D179"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3620,34 +3763,22 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
     <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A117:D117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="207">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -853,6 +853,30 @@
   </si>
   <si>
     <t>缺席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成忘记密码的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成我的关注页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习js的ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现下拉刷新功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习js的验证码的实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,17 +1249,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1243,108 +1390,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,30 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1725,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1740,12 +1764,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1779,7 +1803,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1793,7 +1817,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1805,7 +1829,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1817,7 +1841,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1829,23 +1853,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1871,7 +1895,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1885,7 +1909,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1897,7 +1921,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1909,7 +1933,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1921,23 +1945,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1963,7 +1987,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="57" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1977,7 +2001,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1989,7 +2013,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2001,7 +2025,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2013,21 +2037,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="59"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -2061,7 +2085,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="64" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2075,7 +2099,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2087,7 +2111,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2099,7 +2123,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2111,21 +2135,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -2159,7 +2183,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="47" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2173,7 +2197,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="60"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2185,7 +2209,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="60"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2197,7 +2221,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="60"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2209,10 +2233,10 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="61"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="44" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="45"/>
@@ -2251,7 +2275,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="47"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2263,7 +2287,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="48"/>
+      <c r="D47" s="65"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2275,7 +2299,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="65"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2287,7 +2311,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="65"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2299,10 +2323,10 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="49"/>
+      <c r="D50" s="66"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="63" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="45"/>
@@ -2341,7 +2365,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="38" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2355,7 +2379,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2367,7 +2391,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2379,7 +2403,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="63"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2391,15 +2415,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="64"/>
+      <c r="D58" s="40"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
@@ -2433,7 +2457,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="38" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2447,7 +2471,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="63"/>
+      <c r="D63" s="39"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2459,7 +2483,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2471,7 +2495,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="39"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2483,15 +2507,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="64"/>
+      <c r="D66" s="40"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
@@ -2525,7 +2549,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="41" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2539,7 +2563,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="42"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2551,7 +2575,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2563,7 +2587,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2575,15 +2599,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="33"/>
+      <c r="D74" s="43"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
@@ -2617,7 +2641,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="60" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2631,7 +2655,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="42"/>
+      <c r="D79" s="61"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2643,7 +2667,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="42"/>
+      <c r="D80" s="61"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2655,7 +2679,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="42"/>
+      <c r="D81" s="61"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2667,15 +2691,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="43"/>
+      <c r="D82" s="62"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -2709,7 +2733,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2723,7 +2747,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="32"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2735,7 +2759,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="32"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2747,7 +2771,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="32"/>
+      <c r="D89" s="42"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2759,15 +2783,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="33"/>
+      <c r="D90" s="43"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
@@ -2801,7 +2825,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="75"/>
+      <c r="D94" s="32"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2813,7 +2837,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="76"/>
+      <c r="D95" s="33"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2825,7 +2849,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="76"/>
+      <c r="D96" s="33"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2837,7 +2861,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="76"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2849,15 +2873,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="77"/>
+      <c r="D98" s="34"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="72" t="s">
+      <c r="A99" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="73"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="74"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="31"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
@@ -2942,12 +2966,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="78" t="s">
+      <c r="A107" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="78"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="78"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
@@ -2981,7 +3005,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="26"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -2993,7 +3017,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="27"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3005,7 +3029,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="27"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3017,7 +3041,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="27"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3029,21 +3053,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="28"/>
+      <c r="D114" s="27"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="40"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -3077,7 +3101,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="25" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3091,7 +3115,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="27"/>
+      <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3103,7 +3127,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="27"/>
+      <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3115,7 +3139,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="27"/>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3127,21 +3151,21 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="28"/>
+      <c r="D123" s="27"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
@@ -3175,7 +3199,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="41" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3189,7 +3213,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="32"/>
+      <c r="D129" s="42"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3201,7 +3225,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="32"/>
+      <c r="D130" s="42"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3213,7 +3237,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="32"/>
+      <c r="D131" s="42"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3225,21 +3249,21 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="33"/>
+      <c r="D132" s="43"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="30"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
+      <c r="A134" s="71"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
@@ -3273,7 +3297,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="25" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3287,7 +3311,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="27"/>
+      <c r="D138" s="26"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3299,7 +3323,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="27"/>
+      <c r="D139" s="26"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3311,7 +3335,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="27"/>
+      <c r="D140" s="26"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3323,21 +3347,21 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="28"/>
+      <c r="D141" s="27"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="34"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
@@ -3371,7 +3395,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="25" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3385,7 +3409,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="27"/>
+      <c r="D147" s="26"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3397,7 +3421,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="27"/>
+      <c r="D148" s="26"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3409,7 +3433,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="27"/>
+      <c r="D149" s="26"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3421,21 +3445,21 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="28"/>
+      <c r="D150" s="27"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="30" t="s">
+      <c r="A151" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="30"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
+      <c r="A152" s="71"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
@@ -3520,18 +3544,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="65" t="s">
+      <c r="A160" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="66"/>
-      <c r="C160" s="66"/>
-      <c r="D160" s="67"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="75"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="68"/>
-      <c r="B161" s="69"/>
-      <c r="C161" s="69"/>
-      <c r="D161" s="70"/>
+      <c r="A161" s="76"/>
+      <c r="B161" s="77"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="78"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
@@ -3565,7 +3589,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="26"/>
+      <c r="D164" s="25"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3577,7 +3601,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="27"/>
+      <c r="D165" s="26"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3589,7 +3613,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="27"/>
+      <c r="D166" s="26"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3601,7 +3625,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="27"/>
+      <c r="D167" s="26"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3613,21 +3637,21 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="28"/>
+      <c r="D168" s="27"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
@@ -3658,8 +3682,10 @@
       <c r="B173" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C173" s="20"/>
-      <c r="D173" s="26"/>
+      <c r="C173" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D173" s="25"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3668,8 +3694,10 @@
       <c r="B174" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C174" s="20"/>
-      <c r="D174" s="27"/>
+      <c r="C174" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" s="26"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3678,8 +3706,10 @@
       <c r="B175" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C175" s="20"/>
-      <c r="D175" s="27"/>
+      <c r="C175" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D175" s="26"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3688,8 +3718,10 @@
       <c r="B176" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C176" s="20"/>
-      <c r="D176" s="27"/>
+      <c r="C176" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D176" s="26"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3699,54 +3731,125 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="28"/>
+      <c r="D177" s="27"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="25"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+    </row>
+    <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B180" s="24"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+    </row>
+    <row r="181" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C182" s="20"/>
+      <c r="D182" s="25"/>
+    </row>
+    <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C183" s="20"/>
+      <c r="D183" s="26"/>
+    </row>
+    <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C184" s="20"/>
+      <c r="D184" s="26"/>
+    </row>
+    <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C185" s="20"/>
+      <c r="D185" s="26"/>
+    </row>
+    <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C186" s="20"/>
+      <c r="D186" s="27"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="A178:D179"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
+  <mergeCells count="65">
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="A187:D188"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3763,22 +3866,40 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A178:D179"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
     <mergeCell ref="A162:D162"/>
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="D164:D168"/>
     <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A160:D161"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="208">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,7 +876,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习js的验证码的实现</t>
+    <t>日期：2017.11.1 第10周 周三上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习js的验证码的实现（缺席）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,6 +1289,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1384,31 +1391,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1764,12 +1768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1803,7 +1807,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="54" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1817,7 +1821,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1829,7 +1833,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1841,7 +1845,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="55"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1853,23 +1857,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1895,7 +1899,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="57" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1909,7 +1913,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1921,7 +1925,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1933,7 +1937,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1945,23 +1949,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1987,7 +1991,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="58" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2001,7 +2005,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="59"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2013,7 +2017,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="59"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2025,7 +2029,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2037,21 +2041,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="60"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -2085,7 +2089,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="65" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2099,7 +2103,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2111,7 +2115,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="59"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2123,7 +2127,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="58"/>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2135,21 +2139,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -2183,7 +2187,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="48" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2197,7 +2201,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="48"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2209,7 +2213,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="48"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2221,7 +2225,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2233,15 +2237,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="49"/>
+      <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -2275,7 +2279,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="65"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2287,7 +2291,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="65"/>
+      <c r="D47" s="66"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2299,7 +2303,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="65"/>
+      <c r="D48" s="66"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2311,7 +2315,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="65"/>
+      <c r="D49" s="66"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2323,15 +2327,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="67"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
@@ -2365,7 +2369,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="39" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2379,7 +2383,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2391,7 +2395,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2403,7 +2407,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="39"/>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2415,7 +2419,7 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="40"/>
+      <c r="D58" s="41"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="35" t="s">
@@ -2457,7 +2461,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="39" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2471,7 +2475,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="39"/>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2483,7 +2487,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="39"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2495,7 +2499,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="40"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2507,15 +2511,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="40"/>
+      <c r="D66" s="41"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
@@ -2549,7 +2553,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="42" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2563,7 +2567,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="42"/>
+      <c r="D71" s="43"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2575,7 +2579,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="42"/>
+      <c r="D72" s="43"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2587,7 +2591,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="42"/>
+      <c r="D73" s="43"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2599,15 +2603,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="43"/>
+      <c r="D74" s="44"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
@@ -2641,7 +2645,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="60" t="s">
+      <c r="D78" s="61" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2655,7 +2659,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="61"/>
+      <c r="D79" s="62"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2667,7 +2671,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="61"/>
+      <c r="D80" s="62"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2679,7 +2683,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="61"/>
+      <c r="D81" s="62"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2691,7 +2695,7 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="62"/>
+      <c r="D82" s="63"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="35" t="s">
@@ -2733,7 +2737,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="42" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2747,7 +2751,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="D87" s="43"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2759,7 +2763,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="42"/>
+      <c r="D88" s="43"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2771,7 +2775,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="42"/>
+      <c r="D89" s="43"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2783,7 +2787,7 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="43"/>
+      <c r="D90" s="44"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="35" t="s">
@@ -3154,18 +3158,18 @@
       <c r="D123" s="27"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="70" t="s">
+      <c r="A124" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
@@ -3199,7 +3203,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="41" t="s">
+      <c r="D128" s="42" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3213,7 +3217,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="42"/>
+      <c r="D129" s="43"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3225,7 +3229,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="42"/>
+      <c r="D130" s="43"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3237,7 +3241,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="42"/>
+      <c r="D131" s="43"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3249,21 +3253,21 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="43"/>
+      <c r="D132" s="44"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="71" t="s">
+      <c r="A133" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="71"/>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="71"/>
-      <c r="B134" s="71"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
+      <c r="A134" s="77"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
@@ -3350,18 +3354,18 @@
       <c r="D141" s="27"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="72" t="s">
+      <c r="A142" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="72"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="78"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="72"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="72"/>
-      <c r="D143" s="72"/>
+      <c r="A143" s="78"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
@@ -3448,18 +3452,18 @@
       <c r="D150" s="27"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="71" t="s">
+      <c r="A151" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="71"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
+      <c r="B151" s="77"/>
+      <c r="C151" s="77"/>
+      <c r="D151" s="77"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="71"/>
-      <c r="B152" s="71"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
+      <c r="A152" s="77"/>
+      <c r="B152" s="77"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="77"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
@@ -3544,18 +3548,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="73" t="s">
+      <c r="A160" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="74"/>
-      <c r="C160" s="74"/>
-      <c r="D160" s="75"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="73"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="76"/>
-      <c r="B161" s="77"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="78"/>
+      <c r="A161" s="74"/>
+      <c r="B161" s="75"/>
+      <c r="C161" s="75"/>
+      <c r="D161" s="76"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
@@ -3749,7 +3753,7 @@
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B180" s="24"/>
       <c r="C180" s="24"/>
@@ -3814,7 +3818,7 @@
         <v>9</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C186" s="20"/>
       <c r="D186" s="27"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="217">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,42 @@
   </si>
   <si>
     <t>学习js的验证码的实现（缺席）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第10周 周三下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成我的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现设计师界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现下拉刷新功能并写完成demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习js的验证码的实现（缺席）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1753,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203:C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3780,7 +3816,9 @@
       <c r="B182" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C182" s="20"/>
+      <c r="C182" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="D182" s="25"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3790,7 +3828,9 @@
       <c r="B183" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C183" s="20"/>
+      <c r="C183" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="D183" s="26"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3800,7 +3840,9 @@
       <c r="B184" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C184" s="20"/>
+      <c r="C184" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="D184" s="26"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3810,7 +3852,9 @@
       <c r="B185" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C185" s="20"/>
+      <c r="C185" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="D185" s="26"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3820,7 +3864,9 @@
       <c r="B186" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C186" s="20"/>
+      <c r="C186" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="D186" s="27"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
@@ -3837,23 +3883,109 @@
       <c r="C188" s="28"/>
       <c r="D188" s="28"/>
     </row>
+    <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
+    </row>
+    <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A190" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A191" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C191" s="20"/>
+      <c r="D191" s="25"/>
+    </row>
+    <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C192" s="20"/>
+      <c r="D192" s="26"/>
+    </row>
+    <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A193" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C193" s="20"/>
+      <c r="D193" s="26"/>
+    </row>
+    <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A194" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C194" s="20"/>
+      <c r="D194" s="26"/>
+    </row>
+    <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A195" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C195" s="20"/>
+      <c r="D195" s="27"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C203" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="D182:D186"/>
-    <mergeCell ref="A187:D188"/>
-    <mergeCell ref="D119:D123"/>
+  <mergeCells count="68">
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
     <mergeCell ref="A133:D134"/>
     <mergeCell ref="D128:D132"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="A144:D144"/>
     <mergeCell ref="A151:D152"/>
     <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="D20:D24"/>
@@ -3888,10 +4020,6 @@
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="A178:D179"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="D94:D98"/>
@@ -3900,10 +4028,22 @@
     <mergeCell ref="D110:D114"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A178:D179"/>
     <mergeCell ref="A162:D162"/>
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="D164:D168"/>
     <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="A187:D188"/>
+    <mergeCell ref="D119:D123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -912,11 +912,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习js的验证码的实现（缺席）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习js的验证码的实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,6 +1289,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,135 +1301,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1443,12 +1449,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1792,7 +1792,7 @@
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203:C204"/>
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1843,7 +1843,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="52" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1869,7 +1869,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1881,7 +1881,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1893,23 +1893,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1935,7 +1935,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1961,7 +1961,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="55"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1973,7 +1973,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1985,23 +1985,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="55"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2027,7 +2027,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2053,7 +2053,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2065,7 +2065,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2077,21 +2077,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -2125,7 +2125,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="45" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2151,7 +2151,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2163,7 +2163,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2175,21 +2175,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -2223,7 +2223,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="57" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="58"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2249,7 +2249,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="58"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2261,7 +2261,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="58"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2273,15 +2273,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="50"/>
+      <c r="D42" s="59"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -2315,7 +2315,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="65"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2327,7 +2327,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="66"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2339,7 +2339,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="66"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2351,7 +2351,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2363,15 +2363,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="67"/>
+      <c r="D50" s="47"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="44"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
@@ -2405,7 +2405,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="60" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="40"/>
+      <c r="D55" s="61"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2431,7 +2431,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="40"/>
+      <c r="D56" s="61"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2443,7 +2443,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="40"/>
+      <c r="D57" s="61"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2455,15 +2455,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="41"/>
+      <c r="D58" s="62"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
@@ -2497,7 +2497,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="60" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="40"/>
+      <c r="D63" s="61"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2523,7 +2523,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="40"/>
+      <c r="D64" s="61"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2535,7 +2535,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="40"/>
+      <c r="D65" s="61"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2547,15 +2547,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="41"/>
+      <c r="D66" s="62"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
@@ -2589,7 +2589,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="43"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2615,7 +2615,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="43"/>
+      <c r="D72" s="31"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2627,7 +2627,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="43"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2639,15 +2639,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="44"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
@@ -2681,7 +2681,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="61" t="s">
+      <c r="D78" s="39" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="62"/>
+      <c r="D79" s="40"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2707,7 +2707,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="62"/>
+      <c r="D80" s="40"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2719,7 +2719,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="62"/>
+      <c r="D81" s="40"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2731,15 +2731,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="63"/>
+      <c r="D82" s="41"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -2773,7 +2773,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="30" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="43"/>
+      <c r="D87" s="31"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2799,7 +2799,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="43"/>
+      <c r="D88" s="31"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2811,7 +2811,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="43"/>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2823,15 +2823,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="44"/>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
@@ -2865,7 +2865,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="32"/>
+      <c r="D94" s="67"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2877,7 +2877,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="33"/>
+      <c r="D95" s="68"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2889,7 +2889,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="33"/>
+      <c r="D96" s="68"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2901,7 +2901,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="33"/>
+      <c r="D97" s="68"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2913,15 +2913,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="34"/>
+      <c r="D98" s="69"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="31"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="66"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
@@ -3006,12 +3006,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
@@ -3045,7 +3045,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3057,7 +3057,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="26"/>
+      <c r="D111" s="27"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3069,7 +3069,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="26"/>
+      <c r="D112" s="27"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3081,7 +3081,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="26"/>
+      <c r="D113" s="27"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3093,21 +3093,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="27"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="35"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -3141,7 +3141,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="26" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="26"/>
+      <c r="D120" s="27"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3167,7 +3167,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="26"/>
+      <c r="D121" s="27"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3179,7 +3179,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="26"/>
+      <c r="D122" s="27"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3191,21 +3191,21 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="27"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="37" t="s">
+      <c r="A124" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="37"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
+      <c r="A125" s="72"/>
+      <c r="B125" s="72"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
@@ -3239,7 +3239,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="42" t="s">
+      <c r="D128" s="30" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="43"/>
+      <c r="D129" s="31"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3265,7 +3265,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="43"/>
+      <c r="D130" s="31"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3277,7 +3277,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="43"/>
+      <c r="D131" s="31"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3289,21 +3289,21 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="44"/>
+      <c r="D132" s="32"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="77" t="s">
+      <c r="A133" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="77"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="77"/>
-      <c r="D134" s="77"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
@@ -3337,7 +3337,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="26" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="26"/>
+      <c r="D138" s="27"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3363,7 +3363,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="26"/>
+      <c r="D139" s="27"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3375,7 +3375,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="26"/>
+      <c r="D140" s="27"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3387,21 +3387,21 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="27"/>
+      <c r="D141" s="28"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="78" t="s">
+      <c r="A142" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="78"/>
-      <c r="C142" s="78"/>
-      <c r="D142" s="78"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="78"/>
-      <c r="B143" s="78"/>
-      <c r="C143" s="78"/>
-      <c r="D143" s="78"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
@@ -3435,7 +3435,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="25" t="s">
+      <c r="D146" s="26" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="26"/>
+      <c r="D147" s="27"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3461,7 +3461,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="26"/>
+      <c r="D148" s="27"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3473,7 +3473,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="26"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3485,21 +3485,21 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="27"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="77" t="s">
+      <c r="A151" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="77"/>
-      <c r="C151" s="77"/>
-      <c r="D151" s="77"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="77"/>
-      <c r="B152" s="77"/>
-      <c r="C152" s="77"/>
-      <c r="D152" s="77"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
@@ -3584,18 +3584,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="71" t="s">
+      <c r="A160" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="72"/>
-      <c r="C160" s="72"/>
-      <c r="D160" s="73"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="75"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="74"/>
-      <c r="B161" s="75"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="76"/>
+      <c r="A161" s="76"/>
+      <c r="B161" s="77"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="78"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
@@ -3629,7 +3629,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="25"/>
+      <c r="D164" s="26"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3641,7 +3641,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="26"/>
+      <c r="D165" s="27"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3653,7 +3653,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="26"/>
+      <c r="D166" s="27"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3665,7 +3665,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="26"/>
+      <c r="D167" s="27"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3677,21 +3677,21 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="27"/>
+      <c r="D168" s="28"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
+      <c r="B169" s="71"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
+      <c r="A170" s="71"/>
+      <c r="B170" s="71"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
@@ -3725,7 +3725,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="25"/>
+      <c r="D173" s="26"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3737,7 +3737,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="26"/>
+      <c r="D174" s="27"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3749,7 +3749,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="26"/>
+      <c r="D175" s="27"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3761,7 +3761,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="26"/>
+      <c r="D176" s="27"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3771,21 +3771,21 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="27"/>
+      <c r="D177" s="28"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="28" t="s">
+      <c r="A178" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
+      <c r="B178" s="71"/>
+      <c r="C178" s="71"/>
+      <c r="D178" s="71"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
+      <c r="A179" s="71"/>
+      <c r="B179" s="71"/>
+      <c r="C179" s="71"/>
+      <c r="D179" s="71"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
@@ -3819,7 +3819,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="25"/>
+      <c r="D182" s="26"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -3831,7 +3831,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="26"/>
+      <c r="D183" s="27"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -3843,7 +3843,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="26"/>
+      <c r="D184" s="27"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -3855,7 +3855,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="26"/>
+      <c r="D185" s="27"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -3867,21 +3867,21 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="27"/>
+      <c r="D186" s="28"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="28" t="s">
+      <c r="A187" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
+      <c r="B187" s="71"/>
+      <c r="C187" s="71"/>
+      <c r="D187" s="71"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="28"/>
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
+      <c r="A188" s="71"/>
+      <c r="B188" s="71"/>
+      <c r="C188" s="71"/>
+      <c r="D188" s="71"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
@@ -3913,7 +3913,7 @@
         <v>202</v>
       </c>
       <c r="C191" s="20"/>
-      <c r="D191" s="25"/>
+      <c r="D191" s="26"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -3923,7 +3923,7 @@
         <v>212</v>
       </c>
       <c r="C192" s="20"/>
-      <c r="D192" s="26"/>
+      <c r="D192" s="27"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -3933,7 +3933,7 @@
         <v>213</v>
       </c>
       <c r="C193" s="20"/>
-      <c r="D193" s="26"/>
+      <c r="D193" s="27"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -3943,45 +3943,85 @@
         <v>214</v>
       </c>
       <c r="C194" s="20"/>
-      <c r="D194" s="26"/>
+      <c r="D194" s="27"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C195" s="20"/>
-      <c r="D195" s="27"/>
+      <c r="D195" s="28"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="28" t="s">
+      <c r="A196" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
+      <c r="B196" s="71"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="71"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="28"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
+      <c r="A197" s="71"/>
+      <c r="B197" s="71"/>
+      <c r="C197" s="71"/>
+      <c r="D197" s="71"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A178:D179"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="A187:D188"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="A144:D144"/>
     <mergeCell ref="A151:D152"/>
@@ -3998,52 +4038,12 @@
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="D70:D74"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="A196:D197"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="A178:D179"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="D182:D186"/>
-    <mergeCell ref="A187:D188"/>
-    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="219">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,6 +917,14 @@
   </si>
   <si>
     <t>学习js的验证码的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：进度有点慢。下周将会加快速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,9 +1297,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,36 +1306,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1343,15 +1447,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,94 +1456,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1792,7 +1800,7 @@
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+      <selection activeCell="A196" sqref="A196:D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1804,12 +1812,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1843,7 +1851,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="59" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1857,7 +1865,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1869,7 +1877,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1881,7 +1889,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1893,23 +1901,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1935,7 +1943,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="62" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1949,7 +1957,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1961,7 +1969,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1973,7 +1981,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1985,23 +1993,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2027,7 +2035,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="70" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2041,7 +2049,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2053,7 +2061,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2065,7 +2073,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2077,21 +2085,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="55"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -2125,7 +2133,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="53" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2139,7 +2147,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="54"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2151,7 +2159,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="54"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2163,7 +2171,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="36"/>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2175,21 +2183,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="37"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -2223,7 +2231,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2237,7 +2245,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="58"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2249,7 +2257,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="58"/>
+      <c r="D40" s="67"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2261,7 +2269,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="58"/>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2273,15 +2281,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="68"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -2315,7 +2323,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="53"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2327,7 +2335,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="46"/>
+      <c r="D47" s="75"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2339,7 +2347,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="46"/>
+      <c r="D48" s="75"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2351,7 +2359,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="46"/>
+      <c r="D49" s="75"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2363,15 +2371,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="47"/>
+      <c r="D50" s="76"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="44"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
@@ -2405,7 +2413,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2419,7 +2427,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="61"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2431,7 +2439,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="61"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2443,7 +2451,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="61"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2455,15 +2463,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="62"/>
+      <c r="D58" s="50"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
@@ -2497,7 +2505,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="D62" s="48" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2511,7 +2519,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="61"/>
+      <c r="D63" s="49"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2523,7 +2531,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="61"/>
+      <c r="D64" s="49"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2535,7 +2543,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="61"/>
+      <c r="D65" s="49"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2547,15 +2555,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="62"/>
+      <c r="D66" s="50"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
@@ -2589,7 +2597,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="38" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2603,7 +2611,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="31"/>
+      <c r="D71" s="39"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2615,7 +2623,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="31"/>
+      <c r="D72" s="39"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2627,7 +2635,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="31"/>
+      <c r="D73" s="39"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2639,15 +2647,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="32"/>
+      <c r="D74" s="40"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
@@ -2681,7 +2689,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="71" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2695,7 +2703,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="40"/>
+      <c r="D79" s="72"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2707,7 +2715,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="40"/>
+      <c r="D80" s="72"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2719,7 +2727,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="40"/>
+      <c r="D81" s="72"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2731,15 +2739,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="41"/>
+      <c r="D82" s="73"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -2773,7 +2781,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="38" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2787,7 +2795,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="31"/>
+      <c r="D87" s="39"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2799,7 +2807,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="31"/>
+      <c r="D88" s="39"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2811,7 +2819,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="31"/>
+      <c r="D89" s="39"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2823,15 +2831,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="32"/>
+      <c r="D90" s="40"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
@@ -2865,7 +2873,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="67"/>
+      <c r="D94" s="44"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2877,7 +2885,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="68"/>
+      <c r="D95" s="45"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2889,7 +2897,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="68"/>
+      <c r="D96" s="45"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2901,7 +2909,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="68"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2913,15 +2921,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="69"/>
+      <c r="D98" s="46"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="66"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="43"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
@@ -3006,12 +3014,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
@@ -3045,7 +3053,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="26"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3057,7 +3065,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="27"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3069,7 +3077,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="27"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3081,7 +3089,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="27"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3093,21 +3101,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="28"/>
+      <c r="D114" s="27"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -3141,7 +3149,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="25" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3155,7 +3163,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="27"/>
+      <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3167,7 +3175,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="27"/>
+      <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3179,7 +3187,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="27"/>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3191,21 +3199,21 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="28"/>
+      <c r="D123" s="27"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="72" t="s">
+      <c r="A124" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="72"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
@@ -3239,7 +3247,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D128" s="38" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3253,7 +3261,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="31"/>
+      <c r="D129" s="39"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3265,7 +3273,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="31"/>
+      <c r="D130" s="39"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3277,7 +3285,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="31"/>
+      <c r="D131" s="39"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3289,21 +3297,21 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="32"/>
+      <c r="D132" s="40"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
+      <c r="B133" s="69"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
+      <c r="A134" s="69"/>
+      <c r="B134" s="69"/>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
@@ -3337,7 +3345,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="25" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3351,7 +3359,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="27"/>
+      <c r="D138" s="26"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3363,7 +3371,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="27"/>
+      <c r="D139" s="26"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3375,7 +3383,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="27"/>
+      <c r="D140" s="26"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3387,21 +3395,21 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="28"/>
+      <c r="D141" s="27"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="78"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
+      <c r="A143" s="78"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
@@ -3435,7 +3443,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="25" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3449,7 +3457,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="27"/>
+      <c r="D147" s="26"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3461,7 +3469,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="27"/>
+      <c r="D148" s="26"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3473,7 +3481,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="27"/>
+      <c r="D149" s="26"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3485,21 +3493,21 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="28"/>
+      <c r="D150" s="27"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="29" t="s">
+      <c r="A151" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
+      <c r="B151" s="69"/>
+      <c r="C151" s="69"/>
+      <c r="D151" s="69"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
+      <c r="A152" s="69"/>
+      <c r="B152" s="69"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
@@ -3584,18 +3592,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="73" t="s">
+      <c r="A160" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="74"/>
-      <c r="C160" s="74"/>
-      <c r="D160" s="75"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="32"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="76"/>
-      <c r="B161" s="77"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="78"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
@@ -3629,7 +3637,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="26"/>
+      <c r="D164" s="25"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3641,7 +3649,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="27"/>
+      <c r="D165" s="26"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3653,7 +3661,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="27"/>
+      <c r="D166" s="26"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3665,7 +3673,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="27"/>
+      <c r="D167" s="26"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3677,21 +3685,21 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="28"/>
+      <c r="D168" s="27"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="71" t="s">
+      <c r="A169" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="71"/>
-      <c r="C169" s="71"/>
-      <c r="D169" s="71"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="71"/>
-      <c r="B170" s="71"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
@@ -3725,7 +3733,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="26"/>
+      <c r="D173" s="25"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3737,7 +3745,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="27"/>
+      <c r="D174" s="26"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3749,7 +3757,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="27"/>
+      <c r="D175" s="26"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3761,7 +3769,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="27"/>
+      <c r="D176" s="26"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3771,21 +3779,21 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="28"/>
+      <c r="D177" s="27"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="71" t="s">
+      <c r="A178" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="71"/>
-      <c r="C178" s="71"/>
-      <c r="D178" s="71"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="71"/>
-      <c r="B179" s="71"/>
-      <c r="C179" s="71"/>
-      <c r="D179" s="71"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
@@ -3819,7 +3827,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="26"/>
+      <c r="D182" s="25"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -3831,7 +3839,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="27"/>
+      <c r="D183" s="26"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -3843,7 +3851,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="27"/>
+      <c r="D184" s="26"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -3855,7 +3863,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="27"/>
+      <c r="D185" s="26"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -3867,21 +3875,21 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="28"/>
+      <c r="D186" s="27"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="71" t="s">
+      <c r="A187" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="71"/>
-      <c r="C187" s="71"/>
-      <c r="D187" s="71"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="71"/>
-      <c r="B188" s="71"/>
-      <c r="C188" s="71"/>
-      <c r="D188" s="71"/>
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
@@ -3912,8 +3920,10 @@
       <c r="B191" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C191" s="20"/>
-      <c r="D191" s="26"/>
+      <c r="C191" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D191" s="25"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -3922,8 +3932,10 @@
       <c r="B192" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C192" s="20"/>
-      <c r="D192" s="27"/>
+      <c r="C192" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D192" s="26"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -3932,8 +3944,10 @@
       <c r="B193" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C193" s="20"/>
-      <c r="D193" s="27"/>
+      <c r="C193" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D193" s="26"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -3942,8 +3956,10 @@
       <c r="B194" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C194" s="20"/>
-      <c r="D194" s="27"/>
+      <c r="C194" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D194" s="26"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
@@ -3952,22 +3968,24 @@
       <c r="B195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C195" s="20"/>
-      <c r="D195" s="28"/>
+      <c r="C195" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D195" s="27"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="B196" s="71"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="71"/>
+      <c r="A196" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="71"/>
-      <c r="B197" s="71"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="71"/>
+      <c r="A197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C203" t="s">
@@ -3976,6 +3994,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
     <mergeCell ref="A189:D189"/>
     <mergeCell ref="D191:D195"/>
     <mergeCell ref="A196:D197"/>
@@ -3992,58 +4062,6 @@
     <mergeCell ref="D182:D186"/>
     <mergeCell ref="A187:D188"/>
     <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="225">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -912,10 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习js的验证码的实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -925,6 +921,34 @@
   </si>
   <si>
     <t>总结：进度有点慢。下周将会加快速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.6 第11周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成登录的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成“我的收藏”界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现上拉加载功能并写完成demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习弹出框的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现设计师的侧拉菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,6 +1321,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,6 +1333,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1328,135 +1481,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1797,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:D197"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1812,12 +1836,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1851,7 +1875,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1865,7 +1889,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1877,7 +1901,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="59"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1889,7 +1913,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1901,23 +1925,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1943,7 +1967,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="61" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1957,7 +1981,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="62"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1969,7 +1993,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1981,7 +2005,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1993,23 +2017,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2035,7 +2059,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="62" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2049,7 +2073,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="54"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2061,7 +2085,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2073,7 +2097,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="53"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2085,21 +2109,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -2133,7 +2157,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="47" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2147,7 +2171,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2159,7 +2183,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2171,7 +2195,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2183,7 +2207,7 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="54"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="51" t="s">
@@ -2231,7 +2255,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="36" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2245,7 +2269,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="67"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2257,7 +2281,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="67"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2269,7 +2293,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="67"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2281,15 +2305,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="68"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -2323,7 +2347,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="53"/>
+      <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2335,7 +2359,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="75"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2347,7 +2371,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="75"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2359,7 +2383,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="75"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2371,15 +2395,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="76"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
@@ -2413,7 +2437,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="39" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2427,7 +2451,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="49"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2439,7 +2463,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="49"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2451,7 +2475,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="49"/>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2463,15 +2487,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="50"/>
+      <c r="D58" s="41"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
@@ -2505,7 +2529,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D62" s="39" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2519,7 +2543,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="49"/>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2531,7 +2555,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="49"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2543,7 +2567,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="49"/>
+      <c r="D65" s="40"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2555,15 +2579,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="50"/>
+      <c r="D66" s="41"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
@@ -2597,7 +2621,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2611,7 +2635,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2623,7 +2647,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="31"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2635,7 +2659,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2647,15 +2671,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="40"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
@@ -2689,7 +2713,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="43" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2703,7 +2727,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="72"/>
+      <c r="D79" s="44"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2715,7 +2739,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="72"/>
+      <c r="D80" s="44"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2727,7 +2751,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="72"/>
+      <c r="D81" s="44"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2739,15 +2763,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="73"/>
+      <c r="D82" s="45"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -2781,7 +2805,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="38" t="s">
+      <c r="D86" s="30" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2795,7 +2819,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="39"/>
+      <c r="D87" s="31"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2807,7 +2831,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="31"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2819,7 +2843,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="39"/>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2831,15 +2855,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="40"/>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
@@ -2873,7 +2897,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="44"/>
+      <c r="D94" s="67"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2885,7 +2909,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="45"/>
+      <c r="D95" s="68"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2897,7 +2921,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="45"/>
+      <c r="D96" s="68"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2909,7 +2933,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="45"/>
+      <c r="D97" s="68"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2921,15 +2945,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="46"/>
+      <c r="D98" s="69"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="41" t="s">
+      <c r="A99" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="43"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="66"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
@@ -3014,12 +3038,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
@@ -3053,7 +3077,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3065,7 +3089,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="26"/>
+      <c r="D111" s="27"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3077,7 +3101,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="26"/>
+      <c r="D112" s="27"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3089,7 +3113,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="26"/>
+      <c r="D113" s="27"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3101,21 +3125,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="27"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="36" t="s">
+      <c r="A115" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -3149,7 +3173,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="26" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3163,7 +3187,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="26"/>
+      <c r="D120" s="27"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3175,7 +3199,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="26"/>
+      <c r="D121" s="27"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3187,7 +3211,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="26"/>
+      <c r="D122" s="27"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3199,21 +3223,21 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="27"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
+      <c r="A125" s="72"/>
+      <c r="B125" s="72"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
@@ -3247,7 +3271,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="38" t="s">
+      <c r="D128" s="30" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3261,7 +3285,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="39"/>
+      <c r="D129" s="31"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3273,7 +3297,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="39"/>
+      <c r="D130" s="31"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3285,7 +3309,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="39"/>
+      <c r="D131" s="31"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3297,21 +3321,21 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="40"/>
+      <c r="D132" s="32"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="69" t="s">
+      <c r="A133" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="69"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="69"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="69"/>
-      <c r="B134" s="69"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
@@ -3345,7 +3369,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="26" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3359,7 +3383,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="26"/>
+      <c r="D138" s="27"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3371,7 +3395,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="26"/>
+      <c r="D139" s="27"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3383,7 +3407,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="26"/>
+      <c r="D140" s="27"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3395,21 +3419,21 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="27"/>
+      <c r="D141" s="28"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="78" t="s">
+      <c r="A142" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="78"/>
-      <c r="C142" s="78"/>
-      <c r="D142" s="78"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="78"/>
-      <c r="B143" s="78"/>
-      <c r="C143" s="78"/>
-      <c r="D143" s="78"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
@@ -3443,7 +3467,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="25" t="s">
+      <c r="D146" s="26" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3457,7 +3481,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="26"/>
+      <c r="D147" s="27"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3469,7 +3493,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="26"/>
+      <c r="D148" s="27"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3481,7 +3505,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="26"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3493,21 +3517,21 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="27"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="69" t="s">
+      <c r="A151" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="69"/>
-      <c r="C151" s="69"/>
-      <c r="D151" s="69"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="69"/>
-      <c r="B152" s="69"/>
-      <c r="C152" s="69"/>
-      <c r="D152" s="69"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
@@ -3592,18 +3616,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="32"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="75"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="33"/>
-      <c r="B161" s="34"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="A161" s="76"/>
+      <c r="B161" s="77"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="78"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
@@ -3637,7 +3661,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="25"/>
+      <c r="D164" s="26"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3649,7 +3673,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="26"/>
+      <c r="D165" s="27"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3661,7 +3685,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="26"/>
+      <c r="D166" s="27"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3673,7 +3697,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="26"/>
+      <c r="D167" s="27"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3685,21 +3709,21 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="27"/>
+      <c r="D168" s="28"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
+      <c r="B169" s="71"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
+      <c r="A170" s="71"/>
+      <c r="B170" s="71"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
@@ -3733,7 +3757,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="25"/>
+      <c r="D173" s="26"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3745,7 +3769,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="26"/>
+      <c r="D174" s="27"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3757,7 +3781,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="26"/>
+      <c r="D175" s="27"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3769,7 +3793,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="26"/>
+      <c r="D176" s="27"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3779,21 +3803,21 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="27"/>
+      <c r="D177" s="28"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="28" t="s">
+      <c r="A178" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
+      <c r="B178" s="71"/>
+      <c r="C178" s="71"/>
+      <c r="D178" s="71"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
+      <c r="A179" s="71"/>
+      <c r="B179" s="71"/>
+      <c r="C179" s="71"/>
+      <c r="D179" s="71"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
@@ -3827,7 +3851,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="25"/>
+      <c r="D182" s="26"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -3839,7 +3863,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="26"/>
+      <c r="D183" s="27"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -3851,7 +3875,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="26"/>
+      <c r="D184" s="27"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -3863,7 +3887,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="26"/>
+      <c r="D185" s="27"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -3875,21 +3899,21 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="27"/>
+      <c r="D186" s="28"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="28" t="s">
+      <c r="A187" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
+      <c r="B187" s="71"/>
+      <c r="C187" s="71"/>
+      <c r="D187" s="71"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="28"/>
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
+      <c r="A188" s="71"/>
+      <c r="B188" s="71"/>
+      <c r="C188" s="71"/>
+      <c r="D188" s="71"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
@@ -3921,9 +3945,9 @@
         <v>202</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D191" s="25"/>
+        <v>216</v>
+      </c>
+      <c r="D191" s="26"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -3933,9 +3957,9 @@
         <v>212</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D192" s="26"/>
+        <v>216</v>
+      </c>
+      <c r="D192" s="27"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -3945,9 +3969,9 @@
         <v>213</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D193" s="26"/>
+        <v>216</v>
+      </c>
+      <c r="D193" s="27"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -3957,49 +3981,173 @@
         <v>214</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D194" s="26"/>
+        <v>216</v>
+      </c>
+      <c r="D194" s="27"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B195" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="D195" s="28"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="D195" s="27"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="28" t="s">
+      <c r="B196" s="71"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="71"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="71"/>
+      <c r="B197" s="71"/>
+      <c r="C197" s="71"/>
+      <c r="D197" s="71"/>
+    </row>
+    <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="28"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C203" t="s">
-        <v>215</v>
-      </c>
+      <c r="B198" s="24"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="24"/>
+    </row>
+    <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A199" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A200" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C200" s="20"/>
+      <c r="D200" s="26"/>
+    </row>
+    <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A201" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C201" s="20"/>
+      <c r="D201" s="27"/>
+    </row>
+    <row r="202" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A202" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C202" s="20"/>
+      <c r="D202" s="27"/>
+    </row>
+    <row r="203" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C203" s="20"/>
+      <c r="D203" s="27"/>
+    </row>
+    <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A204" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C204" s="20"/>
+      <c r="D204" s="28"/>
+    </row>
+    <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="B205" s="74"/>
+      <c r="C205" s="74"/>
+      <c r="D205" s="74"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="25"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
+  <mergeCells count="71">
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="D200:D204"/>
+    <mergeCell ref="A205:D206"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A178:D179"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="A187:D188"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="D38:D42"/>
@@ -4016,52 +4164,12 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="A196:D197"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="A178:D179"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="D182:D186"/>
-    <mergeCell ref="A187:D188"/>
-    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -1321,61 +1321,148 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1387,9 +1474,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1398,90 +1482,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1824,7 +1824,7 @@
   <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="A205" sqref="A205:D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1836,12 +1836,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1875,7 +1875,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="60" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1901,7 +1901,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1913,7 +1913,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1925,23 +1925,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1967,7 +1967,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="63" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="63"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1993,7 +1993,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="61"/>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2005,7 +2005,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="61"/>
+      <c r="D15" s="63"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -2017,23 +2017,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="63"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2059,7 +2059,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="64" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="55"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2085,7 +2085,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="53"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2097,7 +2097,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="53"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2109,21 +2109,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -2157,7 +2157,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="54" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="53"/>
+      <c r="D30" s="55"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2183,7 +2183,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="53"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2195,7 +2195,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="53"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2207,21 +2207,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -2255,7 +2255,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="37"/>
+      <c r="D39" s="69"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2281,7 +2281,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="37"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2293,7 +2293,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="37"/>
+      <c r="D41" s="69"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2305,15 +2305,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="38"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -2347,7 +2347,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="47"/>
+      <c r="D46" s="54"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2359,7 +2359,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="48"/>
+      <c r="D47" s="76"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2371,7 +2371,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="76"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2383,7 +2383,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="76"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2395,15 +2395,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="49"/>
+      <c r="D50" s="77"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
@@ -2437,7 +2437,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="40"/>
+      <c r="D55" s="50"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2463,7 +2463,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="40"/>
+      <c r="D56" s="50"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2475,7 +2475,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="40"/>
+      <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2487,15 +2487,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="41"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
@@ -2529,7 +2529,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="49" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="40"/>
+      <c r="D63" s="50"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2555,7 +2555,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="40"/>
+      <c r="D64" s="50"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2567,7 +2567,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="40"/>
+      <c r="D65" s="50"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2579,15 +2579,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="41"/>
+      <c r="D66" s="51"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
@@ -2621,7 +2621,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="39" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="31"/>
+      <c r="D71" s="40"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2647,7 +2647,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="31"/>
+      <c r="D72" s="40"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2659,7 +2659,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="31"/>
+      <c r="D73" s="40"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2671,15 +2671,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="32"/>
+      <c r="D74" s="41"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
@@ -2713,7 +2713,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="72" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="44"/>
+      <c r="D79" s="73"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2739,7 +2739,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="44"/>
+      <c r="D80" s="73"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2751,7 +2751,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="44"/>
+      <c r="D81" s="73"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2763,15 +2763,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="45"/>
+      <c r="D82" s="74"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -2805,7 +2805,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="39" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="31"/>
+      <c r="D87" s="40"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2831,7 +2831,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="31"/>
+      <c r="D88" s="40"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2843,7 +2843,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="31"/>
+      <c r="D89" s="40"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2855,15 +2855,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="32"/>
+      <c r="D90" s="41"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
@@ -2897,7 +2897,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="67"/>
+      <c r="D94" s="45"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2909,7 +2909,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="68"/>
+      <c r="D95" s="46"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2921,7 +2921,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="68"/>
+      <c r="D96" s="46"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2933,7 +2933,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="68"/>
+      <c r="D97" s="46"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2945,15 +2945,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="69"/>
+      <c r="D98" s="47"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="66"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="44"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
@@ -3038,12 +3038,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
@@ -3077,7 +3077,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="26"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3089,7 +3089,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="27"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3101,7 +3101,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="27"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3113,7 +3113,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="27"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3125,21 +3125,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="28"/>
+      <c r="D114" s="27"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="42"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -3173,7 +3173,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="25" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="27"/>
+      <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3199,7 +3199,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="27"/>
+      <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3211,7 +3211,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="27"/>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3223,21 +3223,21 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="28"/>
+      <c r="D123" s="27"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="72" t="s">
+      <c r="A124" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="72"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
@@ -3271,7 +3271,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D128" s="39" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="31"/>
+      <c r="D129" s="40"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3297,7 +3297,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="31"/>
+      <c r="D130" s="40"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3309,7 +3309,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="31"/>
+      <c r="D131" s="40"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3321,21 +3321,21 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="32"/>
+      <c r="D132" s="41"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
+      <c r="A134" s="71"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
@@ -3369,7 +3369,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="25" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="27"/>
+      <c r="D138" s="26"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3395,7 +3395,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="27"/>
+      <c r="D139" s="26"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3407,7 +3407,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="27"/>
+      <c r="D140" s="26"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3419,21 +3419,21 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="28"/>
+      <c r="D141" s="27"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
@@ -3467,7 +3467,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="25" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="27"/>
+      <c r="D147" s="26"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3493,7 +3493,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="27"/>
+      <c r="D148" s="26"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3505,7 +3505,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="27"/>
+      <c r="D149" s="26"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3517,21 +3517,21 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="28"/>
+      <c r="D150" s="27"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="29" t="s">
+      <c r="A151" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
+      <c r="A152" s="71"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
@@ -3616,18 +3616,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="73" t="s">
+      <c r="A160" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="74"/>
-      <c r="C160" s="74"/>
-      <c r="D160" s="75"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="33"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="76"/>
-      <c r="B161" s="77"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="78"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="36"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
@@ -3661,7 +3661,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="26"/>
+      <c r="D164" s="25"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3673,7 +3673,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="27"/>
+      <c r="D165" s="26"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3685,7 +3685,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="27"/>
+      <c r="D166" s="26"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3697,7 +3697,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="27"/>
+      <c r="D167" s="26"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3709,21 +3709,21 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="28"/>
+      <c r="D168" s="27"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="71" t="s">
+      <c r="A169" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="71"/>
-      <c r="C169" s="71"/>
-      <c r="D169" s="71"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="71"/>
-      <c r="B170" s="71"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
@@ -3757,7 +3757,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="26"/>
+      <c r="D173" s="25"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3769,7 +3769,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="27"/>
+      <c r="D174" s="26"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3781,7 +3781,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="27"/>
+      <c r="D175" s="26"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3793,7 +3793,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="27"/>
+      <c r="D176" s="26"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3803,21 +3803,21 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="28"/>
+      <c r="D177" s="27"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="71" t="s">
+      <c r="A178" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="71"/>
-      <c r="C178" s="71"/>
-      <c r="D178" s="71"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="71"/>
-      <c r="B179" s="71"/>
-      <c r="C179" s="71"/>
-      <c r="D179" s="71"/>
+      <c r="A179" s="30"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
@@ -3851,7 +3851,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="26"/>
+      <c r="D182" s="25"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -3863,7 +3863,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="27"/>
+      <c r="D183" s="26"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -3875,7 +3875,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="27"/>
+      <c r="D184" s="26"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -3887,7 +3887,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="27"/>
+      <c r="D185" s="26"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -3899,21 +3899,21 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="28"/>
+      <c r="D186" s="27"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="71" t="s">
+      <c r="A187" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="71"/>
-      <c r="C187" s="71"/>
-      <c r="D187" s="71"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="71"/>
-      <c r="B188" s="71"/>
-      <c r="C188" s="71"/>
-      <c r="D188" s="71"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
@@ -3947,7 +3947,7 @@
       <c r="C191" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D191" s="26"/>
+      <c r="D191" s="25"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -3959,7 +3959,7 @@
       <c r="C192" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D192" s="27"/>
+      <c r="D192" s="26"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -3971,7 +3971,7 @@
       <c r="C193" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D193" s="27"/>
+      <c r="D193" s="26"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -3983,7 +3983,7 @@
       <c r="C194" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D194" s="27"/>
+      <c r="D194" s="26"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
@@ -3995,21 +3995,21 @@
       <c r="C195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D195" s="28"/>
+      <c r="D195" s="27"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="71" t="s">
+      <c r="A196" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B196" s="71"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="71"/>
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="30"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="71"/>
-      <c r="B197" s="71"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="71"/>
+      <c r="A197" s="30"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
@@ -4033,7 +4033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6" t="s">
         <v>6</v>
       </c>
@@ -4041,9 +4041,9 @@
         <v>220</v>
       </c>
       <c r="C200" s="20"/>
-      <c r="D200" s="26"/>
-    </row>
-    <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D200" s="25"/>
+    </row>
+    <row r="201" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
         <v>7</v>
       </c>
@@ -4051,9 +4051,9 @@
         <v>221</v>
       </c>
       <c r="C201" s="20"/>
-      <c r="D201" s="27"/>
-    </row>
-    <row r="202" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D201" s="26"/>
+    </row>
+    <row r="202" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
         <v>8</v>
       </c>
@@ -4061,9 +4061,9 @@
         <v>224</v>
       </c>
       <c r="C202" s="20"/>
-      <c r="D202" s="27"/>
-    </row>
-    <row r="203" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D202" s="26"/>
+    </row>
+    <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
         <v>10</v>
       </c>
@@ -4071,9 +4071,9 @@
         <v>222</v>
       </c>
       <c r="C203" s="20"/>
-      <c r="D203" s="27"/>
-    </row>
-    <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D203" s="26"/>
+    </row>
+    <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
         <v>9</v>
       </c>
@@ -4081,73 +4081,24 @@
         <v>223</v>
       </c>
       <c r="C204" s="20"/>
-      <c r="D204" s="28"/>
+      <c r="D204" s="27"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="74" t="s">
+      <c r="A205" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B205" s="74"/>
-      <c r="C205" s="74"/>
-      <c r="D205" s="74"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
+      <c r="A206" s="29"/>
+      <c r="B206" s="29"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="D200:D204"/>
-    <mergeCell ref="A205:D206"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="A196:D197"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="A178:D179"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="D182:D186"/>
-    <mergeCell ref="A187:D188"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="D38:D42"/>
@@ -4164,12 +4115,61 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="A187:D188"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
     <mergeCell ref="A126:D126"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A142:D143"/>
     <mergeCell ref="D137:D141"/>
     <mergeCell ref="A133:D134"/>
     <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A178:D179"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="D200:D204"/>
+    <mergeCell ref="A205:D206"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="232">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -949,6 +949,34 @@
   </si>
   <si>
     <t>实现设计师的侧拉菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.8 第11周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成获取用户的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习并实现设计师界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习并实现设计作品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习并实现布料辅料界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习并实现个人资料界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,11 +1343,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1330,21 +1388,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1356,132 +1510,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1821,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:D206"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1836,20 +1864,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1875,7 +1903,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1889,7 +1917,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1901,7 +1929,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1913,7 +1941,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1925,23 +1953,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1967,7 +1995,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="60" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1981,7 +2009,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1993,7 +2021,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2005,7 +2033,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -2017,23 +2045,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2059,7 +2087,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="61" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2073,7 +2101,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2085,7 +2113,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2097,7 +2125,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2109,29 +2137,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -2157,7 +2185,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2171,7 +2199,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2183,7 +2211,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="52"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2195,7 +2223,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="55"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2207,29 +2235,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -2255,7 +2283,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="27" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2269,7 +2297,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="69"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2281,7 +2309,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="69"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2293,7 +2321,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2305,23 +2333,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="70"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2347,7 +2375,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="54"/>
+      <c r="D46" s="43"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2359,7 +2387,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="76"/>
+      <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2371,7 +2399,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="76"/>
+      <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2383,7 +2411,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="76"/>
+      <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2395,23 +2423,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="77"/>
+      <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2437,7 +2465,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2451,7 +2479,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="50"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2463,7 +2491,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="50"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2475,7 +2503,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="50"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2487,23 +2515,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2529,7 +2557,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="30" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2543,7 +2571,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="50"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2555,7 +2583,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="50"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2567,7 +2595,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="50"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2579,23 +2607,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="51"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2621,7 +2649,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="47" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2635,7 +2663,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="40"/>
+      <c r="D71" s="48"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2647,7 +2675,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="40"/>
+      <c r="D72" s="48"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2659,7 +2687,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="40"/>
+      <c r="D73" s="48"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2671,23 +2699,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="41"/>
+      <c r="D74" s="49"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2713,7 +2741,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="39" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2727,7 +2755,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="73"/>
+      <c r="D79" s="40"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2739,7 +2767,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="73"/>
+      <c r="D80" s="40"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2751,7 +2779,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="73"/>
+      <c r="D81" s="40"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2763,23 +2791,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="74"/>
+      <c r="D82" s="41"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2805,7 +2833,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D86" s="47" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2819,7 +2847,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="40"/>
+      <c r="D87" s="48"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2831,7 +2859,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="40"/>
+      <c r="D88" s="48"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2843,7 +2871,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="40"/>
+      <c r="D89" s="48"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2855,23 +2883,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="41"/>
+      <c r="D90" s="49"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2897,7 +2925,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="45"/>
+      <c r="D94" s="67"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2909,7 +2937,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="46"/>
+      <c r="D95" s="68"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2921,7 +2949,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="46"/>
+      <c r="D96" s="68"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2933,7 +2961,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="46"/>
+      <c r="D97" s="68"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2945,23 +2973,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="47"/>
+      <c r="D98" s="69"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="44"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="66"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -3038,20 +3066,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -3077,7 +3105,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="35"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3089,7 +3117,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="26"/>
+      <c r="D111" s="36"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3101,7 +3129,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="26"/>
+      <c r="D112" s="36"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3113,7 +3141,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="26"/>
+      <c r="D113" s="36"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3125,29 +3153,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="27"/>
+      <c r="D114" s="37"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -3173,7 +3201,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="35" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3187,7 +3215,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="26"/>
+      <c r="D120" s="36"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3199,7 +3227,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="26"/>
+      <c r="D121" s="36"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3211,7 +3239,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="26"/>
+      <c r="D122" s="36"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3223,29 +3251,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="27"/>
+      <c r="D123" s="37"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="31"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
+      <c r="A125" s="72"/>
+      <c r="B125" s="72"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -3271,7 +3299,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="39" t="s">
+      <c r="D128" s="47" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3285,7 +3313,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="40"/>
+      <c r="D129" s="48"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3297,7 +3325,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="40"/>
+      <c r="D130" s="48"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3309,7 +3337,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="40"/>
+      <c r="D131" s="48"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3321,29 +3349,29 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="41"/>
+      <c r="D132" s="49"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="71" t="s">
+      <c r="A133" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="71"/>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="34"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="71"/>
-      <c r="B134" s="71"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3369,7 +3397,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="35" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3383,7 +3411,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="26"/>
+      <c r="D138" s="36"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3395,7 +3423,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="26"/>
+      <c r="D139" s="36"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3407,7 +3435,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="26"/>
+      <c r="D140" s="36"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3419,29 +3447,29 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="27"/>
+      <c r="D141" s="37"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="29" t="s">
+      <c r="A142" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
+      <c r="B142" s="71"/>
+      <c r="C142" s="71"/>
+      <c r="D142" s="71"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
+      <c r="A143" s="71"/>
+      <c r="B143" s="71"/>
+      <c r="C143" s="71"/>
+      <c r="D143" s="71"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="23" t="s">
+      <c r="A144" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A145" s="22" t="s">
@@ -3467,7 +3495,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="25" t="s">
+      <c r="D146" s="35" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3481,7 +3509,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="26"/>
+      <c r="D147" s="36"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3493,7 +3521,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="26"/>
+      <c r="D148" s="36"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3505,7 +3533,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="26"/>
+      <c r="D149" s="36"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3517,29 +3545,29 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="27"/>
+      <c r="D150" s="37"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="71" t="s">
+      <c r="A151" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="71"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="71"/>
-      <c r="B152" s="71"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="23" t="s">
+      <c r="A153" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="22" t="s">
@@ -3616,26 +3644,26 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="32" t="s">
+      <c r="A160" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="33"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="75"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="34"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="36"/>
+      <c r="A161" s="76"/>
+      <c r="B161" s="77"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="78"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="23" t="s">
+      <c r="A162" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B162" s="24"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A163" s="22" t="s">
@@ -3661,7 +3689,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="25"/>
+      <c r="D164" s="35"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3673,7 +3701,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="26"/>
+      <c r="D165" s="36"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3685,7 +3713,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="26"/>
+      <c r="D166" s="36"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3697,7 +3725,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="26"/>
+      <c r="D167" s="36"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3709,29 +3737,29 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="27"/>
+      <c r="D168" s="37"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="30"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
+      <c r="A170" s="70"/>
+      <c r="B170" s="70"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="23" t="s">
+      <c r="A171" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A172" s="22" t="s">
@@ -3757,7 +3785,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="25"/>
+      <c r="D173" s="35"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3769,7 +3797,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="26"/>
+      <c r="D174" s="36"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3781,7 +3809,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="26"/>
+      <c r="D175" s="36"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3793,7 +3821,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="26"/>
+      <c r="D176" s="36"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3803,29 +3831,29 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="27"/>
+      <c r="D177" s="37"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="30" t="s">
+      <c r="A178" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
+      <c r="B178" s="70"/>
+      <c r="C178" s="70"/>
+      <c r="D178" s="70"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="30"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
+      <c r="A179" s="70"/>
+      <c r="B179" s="70"/>
+      <c r="C179" s="70"/>
+      <c r="D179" s="70"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="23" t="s">
+      <c r="A180" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B180" s="24"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
     </row>
     <row r="181" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="22" t="s">
@@ -3851,7 +3879,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="25"/>
+      <c r="D182" s="35"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -3863,7 +3891,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="26"/>
+      <c r="D183" s="36"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -3875,7 +3903,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="26"/>
+      <c r="D184" s="36"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -3887,7 +3915,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="26"/>
+      <c r="D185" s="36"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -3899,29 +3927,29 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="27"/>
+      <c r="D186" s="37"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="30" t="s">
+      <c r="A187" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="70"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="30"/>
-      <c r="B188" s="30"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="30"/>
+      <c r="A188" s="70"/>
+      <c r="B188" s="70"/>
+      <c r="C188" s="70"/>
+      <c r="D188" s="70"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="23" t="s">
+      <c r="A189" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B189" s="24"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="24"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A190" s="22" t="s">
@@ -3947,7 +3975,7 @@
       <c r="C191" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D191" s="25"/>
+      <c r="D191" s="35"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -3959,7 +3987,7 @@
       <c r="C192" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D192" s="26"/>
+      <c r="D192" s="36"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -3971,7 +3999,7 @@
       <c r="C193" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D193" s="26"/>
+      <c r="D193" s="36"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -3983,7 +4011,7 @@
       <c r="C194" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D194" s="26"/>
+      <c r="D194" s="36"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
@@ -3995,29 +4023,29 @@
       <c r="C195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D195" s="27"/>
+      <c r="D195" s="37"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="30" t="s">
+      <c r="A196" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="B196" s="30"/>
-      <c r="C196" s="30"/>
-      <c r="D196" s="30"/>
+      <c r="B196" s="70"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="70"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="30"/>
-      <c r="B197" s="30"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="30"/>
+      <c r="A197" s="70"/>
+      <c r="B197" s="70"/>
+      <c r="C197" s="70"/>
+      <c r="D197" s="70"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="23" t="s">
+      <c r="A198" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="B198" s="24"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="24"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="23"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A199" s="22" t="s">
@@ -4040,8 +4068,10 @@
       <c r="B200" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C200" s="20"/>
-      <c r="D200" s="25"/>
+      <c r="C200" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D200" s="35"/>
     </row>
     <row r="201" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
@@ -4050,8 +4080,10 @@
       <c r="B201" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C201" s="20"/>
-      <c r="D201" s="26"/>
+      <c r="C201" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D201" s="36"/>
     </row>
     <row r="202" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
@@ -4060,8 +4092,10 @@
       <c r="B202" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C202" s="20"/>
-      <c r="D202" s="26"/>
+      <c r="C202" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D202" s="36"/>
     </row>
     <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
@@ -4070,8 +4104,10 @@
       <c r="B203" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C203" s="20"/>
-      <c r="D203" s="26"/>
+      <c r="C203" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D203" s="36"/>
     </row>
     <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
@@ -4080,25 +4116,171 @@
       <c r="B204" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C204" s="20"/>
-      <c r="D204" s="27"/>
+      <c r="C204" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="28" t="s">
+      <c r="A205" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
+      <c r="B205" s="74"/>
+      <c r="C205" s="74"/>
+      <c r="D205" s="74"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="29"/>
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="29"/>
+      <c r="A206" s="71"/>
+      <c r="B206" s="71"/>
+      <c r="C206" s="71"/>
+      <c r="D206" s="71"/>
+    </row>
+    <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+    </row>
+    <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A208" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A209" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C209" s="20"/>
+      <c r="D209" s="35"/>
+    </row>
+    <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A210" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C210" s="20"/>
+      <c r="D210" s="36"/>
+    </row>
+    <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A211" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C211" s="20"/>
+      <c r="D211" s="36"/>
+    </row>
+    <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A212" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C212" s="20"/>
+      <c r="D212" s="36"/>
+    </row>
+    <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A213" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C213" s="20"/>
+      <c r="D213" s="37"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B214" s="74"/>
+      <c r="C214" s="74"/>
+      <c r="D214" s="74"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="71"/>
+      <c r="B215" s="71"/>
+      <c r="C215" s="71"/>
+      <c r="D215" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="74">
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="A214:D215"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="D200:D204"/>
+    <mergeCell ref="A205:D206"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="A178:D179"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="A187:D188"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="D38:D42"/>
@@ -4115,61 +4297,6 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="D182:D186"/>
-    <mergeCell ref="A187:D188"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="A178:D179"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="D200:D204"/>
-    <mergeCell ref="A205:D206"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="A196:D197"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="247">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,6 +977,66 @@
   </si>
   <si>
     <t>学习并实现个人资料界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.13 第12周 周一 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成首页的前后台交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计作品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计师界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给数据库录入十条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计师界面的前后端交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成首页子界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计师子界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成布料辅料界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给数据库录入字典数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1335,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1343,9 +1403,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1373,12 +1443,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,33 +1548,48 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1849,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J225" sqref="J225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1864,20 +1943,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1903,7 +1982,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1917,7 +1996,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1929,7 +2008,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1941,7 +2020,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1953,23 +2032,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1995,7 +2074,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="62" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2009,7 +2088,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -2021,7 +2100,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2033,7 +2112,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -2045,23 +2124,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2087,7 +2166,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="63" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2101,7 +2180,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2113,7 +2192,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2125,7 +2204,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2137,29 +2216,29 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="55"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -2185,7 +2264,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="45" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2199,7 +2278,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="54"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2211,7 +2290,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="54"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2223,7 +2302,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="52"/>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2235,29 +2314,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="53"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -2283,7 +2362,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2297,7 +2376,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2309,7 +2388,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="28"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2321,7 +2400,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="28"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2333,23 +2412,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2375,7 +2454,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="43"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2387,7 +2466,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2399,7 +2478,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2411,7 +2490,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="44"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2423,23 +2502,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="47"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2465,7 +2544,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2479,7 +2558,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="31"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2491,7 +2570,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="31"/>
+      <c r="D56" s="35"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2503,7 +2582,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="31"/>
+      <c r="D57" s="35"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2515,23 +2594,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="32"/>
+      <c r="D58" s="36"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2557,7 +2636,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="34" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2571,7 +2650,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="31"/>
+      <c r="D63" s="35"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2583,7 +2662,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="31"/>
+      <c r="D64" s="35"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2595,7 +2674,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="31"/>
+      <c r="D65" s="35"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2607,23 +2686,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="32"/>
+      <c r="D66" s="36"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2649,7 +2728,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D70" s="49" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2663,7 +2742,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="48"/>
+      <c r="D71" s="50"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2675,7 +2754,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="48"/>
+      <c r="D72" s="50"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2687,7 +2766,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="48"/>
+      <c r="D73" s="50"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2699,23 +2778,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="51"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2741,7 +2820,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="41" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2755,7 +2834,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="40"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2767,7 +2846,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="40"/>
+      <c r="D80" s="42"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2779,7 +2858,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="40"/>
+      <c r="D81" s="42"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2791,23 +2870,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="41"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2833,7 +2912,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D86" s="49" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2847,7 +2926,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="48"/>
+      <c r="D87" s="50"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2859,7 +2938,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="50"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2871,7 +2950,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="48"/>
+      <c r="D89" s="50"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2883,23 +2962,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="49"/>
+      <c r="D90" s="51"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2925,7 +3004,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="67"/>
+      <c r="D94" s="69"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -2937,7 +3016,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="68"/>
+      <c r="D95" s="70"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -2949,7 +3028,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="68"/>
+      <c r="D96" s="70"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -2961,7 +3040,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="68"/>
+      <c r="D97" s="70"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -2973,23 +3052,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="69"/>
+      <c r="D98" s="71"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="66"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -3066,20 +3145,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="63" t="s">
+      <c r="A107" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="63"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -3105,7 +3184,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="35"/>
+      <c r="D110" s="37"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3117,7 +3196,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="36"/>
+      <c r="D111" s="38"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3129,7 +3208,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="36"/>
+      <c r="D112" s="38"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3141,7 +3220,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="36"/>
+      <c r="D113" s="38"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3153,29 +3232,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="37"/>
+      <c r="D114" s="39"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="33" t="s">
+      <c r="A117" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -3201,7 +3280,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="37" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3215,7 +3294,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="36"/>
+      <c r="D120" s="38"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3227,7 +3306,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="36"/>
+      <c r="D121" s="38"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3239,7 +3318,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="36"/>
+      <c r="D122" s="38"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3251,7 +3330,7 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="37"/>
+      <c r="D123" s="39"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="72" t="s">
@@ -3268,12 +3347,12 @@
       <c r="D125" s="72"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -3299,7 +3378,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="47" t="s">
+      <c r="D128" s="49" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3313,7 +3392,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="48"/>
+      <c r="D129" s="50"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3325,7 +3404,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="48"/>
+      <c r="D130" s="50"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3337,7 +3416,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="48"/>
+      <c r="D131" s="50"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3349,29 +3428,29 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="49"/>
+      <c r="D132" s="51"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="34"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3397,7 +3476,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="35" t="s">
+      <c r="D137" s="37" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3411,7 +3490,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="36"/>
+      <c r="D138" s="38"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3423,7 +3502,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="36"/>
+      <c r="D139" s="38"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3435,7 +3514,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="36"/>
+      <c r="D140" s="38"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3447,29 +3526,29 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="37"/>
+      <c r="D141" s="39"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="71" t="s">
+      <c r="A142" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="71"/>
-      <c r="C142" s="71"/>
-      <c r="D142" s="71"/>
+      <c r="B142" s="80"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="80"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="71"/>
-      <c r="B143" s="71"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="71"/>
+      <c r="A143" s="80"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="80"/>
+      <c r="D143" s="80"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="33" t="s">
+      <c r="A144" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="23"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A145" s="22" t="s">
@@ -3495,7 +3574,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="35" t="s">
+      <c r="D146" s="37" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3509,7 +3588,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="36"/>
+      <c r="D147" s="38"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3521,7 +3600,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="36"/>
+      <c r="D148" s="38"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3533,7 +3612,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="36"/>
+      <c r="D149" s="38"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3545,29 +3624,29 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="37"/>
+      <c r="D150" s="39"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="34" t="s">
+      <c r="A151" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
+      <c r="A152" s="27"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="33" t="s">
+      <c r="A153" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="22" t="s">
@@ -3658,12 +3737,12 @@
       <c r="D161" s="78"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="33" t="s">
+      <c r="A162" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A163" s="22" t="s">
@@ -3689,7 +3768,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="35"/>
+      <c r="D164" s="37"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3701,7 +3780,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="36"/>
+      <c r="D165" s="38"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3713,7 +3792,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="36"/>
+      <c r="D166" s="38"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3725,7 +3804,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="36"/>
+      <c r="D167" s="38"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3737,29 +3816,29 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="37"/>
+      <c r="D168" s="39"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="70" t="s">
+      <c r="A169" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="70"/>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
+      <c r="B169" s="79"/>
+      <c r="C169" s="79"/>
+      <c r="D169" s="79"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="70"/>
-      <c r="B170" s="70"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
+      <c r="A170" s="79"/>
+      <c r="B170" s="79"/>
+      <c r="C170" s="79"/>
+      <c r="D170" s="79"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A172" s="22" t="s">
@@ -3785,7 +3864,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="35"/>
+      <c r="D173" s="37"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3797,7 +3876,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="36"/>
+      <c r="D174" s="38"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3809,7 +3888,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="36"/>
+      <c r="D175" s="38"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3821,7 +3900,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="36"/>
+      <c r="D176" s="38"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3831,29 +3910,29 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="37"/>
+      <c r="D177" s="39"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="70" t="s">
+      <c r="A178" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="70"/>
-      <c r="C178" s="70"/>
-      <c r="D178" s="70"/>
+      <c r="B178" s="79"/>
+      <c r="C178" s="79"/>
+      <c r="D178" s="79"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="70"/>
-      <c r="B179" s="70"/>
-      <c r="C179" s="70"/>
-      <c r="D179" s="70"/>
+      <c r="A179" s="79"/>
+      <c r="B179" s="79"/>
+      <c r="C179" s="79"/>
+      <c r="D179" s="79"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="33" t="s">
+      <c r="A180" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B180" s="23"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
     </row>
     <row r="181" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="22" t="s">
@@ -3879,7 +3958,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="35"/>
+      <c r="D182" s="37"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -3891,7 +3970,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="36"/>
+      <c r="D183" s="38"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -3903,7 +3982,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="36"/>
+      <c r="D184" s="38"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -3915,7 +3994,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="36"/>
+      <c r="D185" s="38"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -3927,29 +4006,29 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="37"/>
+      <c r="D186" s="39"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="70" t="s">
+      <c r="A187" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="70"/>
-      <c r="C187" s="70"/>
-      <c r="D187" s="70"/>
+      <c r="B187" s="79"/>
+      <c r="C187" s="79"/>
+      <c r="D187" s="79"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="70"/>
-      <c r="B188" s="70"/>
-      <c r="C188" s="70"/>
-      <c r="D188" s="70"/>
+      <c r="A188" s="79"/>
+      <c r="B188" s="79"/>
+      <c r="C188" s="79"/>
+      <c r="D188" s="79"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="33" t="s">
+      <c r="A189" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B189" s="23"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="23"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="26"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A190" s="22" t="s">
@@ -3975,7 +4054,7 @@
       <c r="C191" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D191" s="35"/>
+      <c r="D191" s="37"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -3987,7 +4066,7 @@
       <c r="C192" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D192" s="36"/>
+      <c r="D192" s="38"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -3999,7 +4078,7 @@
       <c r="C193" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D193" s="36"/>
+      <c r="D193" s="38"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -4011,7 +4090,7 @@
       <c r="C194" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D194" s="36"/>
+      <c r="D194" s="38"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
@@ -4023,29 +4102,29 @@
       <c r="C195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D195" s="37"/>
+      <c r="D195" s="39"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="70" t="s">
+      <c r="A196" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="B196" s="70"/>
-      <c r="C196" s="70"/>
-      <c r="D196" s="70"/>
+      <c r="B196" s="79"/>
+      <c r="C196" s="79"/>
+      <c r="D196" s="79"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="70"/>
-      <c r="B197" s="70"/>
-      <c r="C197" s="70"/>
-      <c r="D197" s="70"/>
+      <c r="A197" s="79"/>
+      <c r="B197" s="79"/>
+      <c r="C197" s="79"/>
+      <c r="D197" s="79"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="33" t="s">
+      <c r="A198" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B198" s="23"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="23"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A199" s="22" t="s">
@@ -4071,7 +4150,7 @@
       <c r="C200" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D200" s="35"/>
+      <c r="D200" s="37"/>
     </row>
     <row r="201" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
@@ -4083,7 +4162,7 @@
       <c r="C201" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D201" s="36"/>
+      <c r="D201" s="38"/>
     </row>
     <row r="202" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
@@ -4095,7 +4174,7 @@
       <c r="C202" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D202" s="36"/>
+      <c r="D202" s="38"/>
     </row>
     <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
@@ -4107,7 +4186,7 @@
       <c r="C203" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D203" s="36"/>
+      <c r="D203" s="38"/>
     </row>
     <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
@@ -4119,7 +4198,7 @@
       <c r="C204" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D204" s="37"/>
+      <c r="D204" s="39"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="74" t="s">
@@ -4130,18 +4209,18 @@
       <c r="D205" s="74"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="71"/>
-      <c r="B206" s="71"/>
-      <c r="C206" s="71"/>
-      <c r="D206" s="71"/>
+      <c r="A206" s="80"/>
+      <c r="B206" s="80"/>
+      <c r="C206" s="80"/>
+      <c r="D206" s="80"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="33" t="s">
+      <c r="A207" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B207" s="23"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="23"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="26"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="22" t="s">
@@ -4165,7 +4244,7 @@
         <v>227</v>
       </c>
       <c r="C209" s="20"/>
-      <c r="D209" s="35"/>
+      <c r="D209" s="37"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="6" t="s">
@@ -4175,7 +4254,7 @@
         <v>229</v>
       </c>
       <c r="C210" s="20"/>
-      <c r="D210" s="36"/>
+      <c r="D210" s="38"/>
     </row>
     <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A211" s="6" t="s">
@@ -4185,7 +4264,7 @@
         <v>228</v>
       </c>
       <c r="C211" s="20"/>
-      <c r="D211" s="36"/>
+      <c r="D211" s="38"/>
     </row>
     <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A212" s="6" t="s">
@@ -4195,7 +4274,7 @@
         <v>230</v>
       </c>
       <c r="C212" s="20"/>
-      <c r="D212" s="36"/>
+      <c r="D212" s="38"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="6" t="s">
@@ -4205,7 +4284,7 @@
         <v>231</v>
       </c>
       <c r="C213" s="20"/>
-      <c r="D213" s="37"/>
+      <c r="D213" s="39"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="74" t="s">
@@ -4216,44 +4295,233 @@
       <c r="D214" s="74"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="71"/>
-      <c r="B215" s="71"/>
-      <c r="C215" s="71"/>
-      <c r="D215" s="71"/>
+      <c r="A215" s="80"/>
+      <c r="B215" s="80"/>
+      <c r="C215" s="80"/>
+      <c r="D215" s="80"/>
+    </row>
+    <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B216" s="26"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+    </row>
+    <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A217" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A218" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C218" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D218" s="83"/>
+    </row>
+    <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A219" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D219" s="84"/>
+    </row>
+    <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A220" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D220" s="84"/>
+    </row>
+    <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A221" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D221" s="84"/>
+    </row>
+    <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A222" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D222" s="85"/>
+    </row>
+    <row r="223" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B223" s="27"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="27"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="27"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="27"/>
+    </row>
+    <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" s="26"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26"/>
+    </row>
+    <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A226" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A227" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" s="81"/>
+      <c r="D227" s="82"/>
+    </row>
+    <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C228" s="81"/>
+      <c r="D228" s="82"/>
+    </row>
+    <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A229" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C229" s="81"/>
+      <c r="D229" s="82"/>
+    </row>
+    <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A230" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C230" s="81"/>
+      <c r="D230" s="82"/>
+    </row>
+    <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A231" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="C231" s="87"/>
+      <c r="D231" s="82"/>
+    </row>
+    <row r="232" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B232" s="27"/>
+      <c r="C232" s="27"/>
+      <c r="D232" s="27"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233" s="27"/>
+      <c r="B233" s="27"/>
+      <c r="C233" s="27"/>
+      <c r="D233" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="80">
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A232:D233"/>
+    <mergeCell ref="D227:D231"/>
+    <mergeCell ref="D218:D222"/>
     <mergeCell ref="A207:D207"/>
     <mergeCell ref="D209:D213"/>
     <mergeCell ref="A214:D215"/>
     <mergeCell ref="A198:D198"/>
     <mergeCell ref="D200:D204"/>
     <mergeCell ref="A205:D206"/>
-    <mergeCell ref="A189:D189"/>
     <mergeCell ref="D191:D195"/>
     <mergeCell ref="A196:D197"/>
     <mergeCell ref="A178:D179"/>
     <mergeCell ref="A162:D162"/>
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A189:D189"/>
     <mergeCell ref="A160:D161"/>
     <mergeCell ref="A180:D180"/>
     <mergeCell ref="D182:D186"/>
     <mergeCell ref="A187:D188"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
     <mergeCell ref="D119:D123"/>
     <mergeCell ref="A108:D108"/>
     <mergeCell ref="A115:D116"/>
     <mergeCell ref="D110:D114"/>
     <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="D128:D132"/>
     <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="A91:D91"/>
@@ -4261,16 +4529,13 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
@@ -4278,9 +4543,13 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A223:D224"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="D38:D42"/>
@@ -4295,8 +4564,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="255">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,6 +1037,38 @@
   </si>
   <si>
     <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.15 第12周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.20 第13周 周一 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成首页中品牌服装的前后台交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成未完成的子界面的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新录入资讯数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与崧淦一起完成未完成的子界面的书写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,7 +1367,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1407,6 +1439,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1416,6 +1450,138 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1434,27 +1600,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1467,129 +1612,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1928,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J225" sqref="J225"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1943,20 +1974,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1982,7 +2013,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="66" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1996,7 +2027,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -2008,7 +2039,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="67"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -2020,7 +2051,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="67"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -2032,7 +2063,7 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57" t="s">
@@ -2043,12 +2074,12 @@
       <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -2074,7 +2105,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="69" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2088,7 +2119,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="62"/>
+      <c r="D13" s="69"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -2100,7 +2131,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2112,7 +2143,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -2124,7 +2155,7 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="69"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
@@ -2135,12 +2166,12 @@
       <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2166,7 +2197,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="58" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2180,7 +2211,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="54"/>
+      <c r="D21" s="59"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2192,7 +2223,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="59"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2204,7 +2235,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2216,7 +2247,7 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="60"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57" t="s">
@@ -2233,12 +2264,12 @@
       <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -2264,7 +2295,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="73" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2278,7 +2309,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2290,7 +2321,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="59"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2302,7 +2333,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2314,29 +2345,29 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -2362,7 +2393,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="77" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2376,7 +2407,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="78"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2388,7 +2419,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="78"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2400,7 +2431,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="78"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2412,23 +2443,23 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="79"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2454,7 +2485,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="73"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2466,7 +2497,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="46"/>
+      <c r="D47" s="84"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2478,7 +2509,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="46"/>
+      <c r="D48" s="84"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2490,7 +2521,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="46"/>
+      <c r="D49" s="84"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2502,23 +2533,23 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="47"/>
+      <c r="D50" s="85"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2544,7 +2575,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="62" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2558,7 +2589,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="35"/>
+      <c r="D55" s="63"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2570,7 +2601,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="35"/>
+      <c r="D56" s="63"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2582,7 +2613,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="35"/>
+      <c r="D57" s="63"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2594,23 +2625,23 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="36"/>
+      <c r="D58" s="64"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2636,7 +2667,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2650,7 +2681,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="35"/>
+      <c r="D63" s="63"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2662,7 +2693,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="35"/>
+      <c r="D64" s="63"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2674,7 +2705,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="35"/>
+      <c r="D65" s="63"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2686,23 +2717,23 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="36"/>
+      <c r="D66" s="64"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2728,7 +2759,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="39" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2742,7 +2773,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="50"/>
+      <c r="D71" s="40"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2754,7 +2785,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="50"/>
+      <c r="D72" s="40"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2766,7 +2797,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="50"/>
+      <c r="D73" s="40"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2778,23 +2809,23 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="51"/>
+      <c r="D74" s="41"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2820,7 +2851,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="80" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2834,7 +2865,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="42"/>
+      <c r="D79" s="81"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2846,7 +2877,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="42"/>
+      <c r="D80" s="81"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2858,7 +2889,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="42"/>
+      <c r="D81" s="81"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2870,23 +2901,23 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="43"/>
+      <c r="D82" s="82"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -2912,7 +2943,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="39" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2926,7 +2957,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="50"/>
+      <c r="D87" s="40"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2938,7 +2969,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="50"/>
+      <c r="D88" s="40"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2950,7 +2981,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="50"/>
+      <c r="D89" s="40"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2962,23 +2993,23 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="51"/>
+      <c r="D90" s="41"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -3004,7 +3035,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="69"/>
+      <c r="D94" s="53"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -3016,7 +3047,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="70"/>
+      <c r="D95" s="54"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -3028,7 +3059,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="70"/>
+      <c r="D96" s="54"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -3040,7 +3071,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="70"/>
+      <c r="D97" s="54"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -3052,23 +3083,23 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="71"/>
+      <c r="D98" s="55"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="66" t="s">
+      <c r="A99" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="68"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="52"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -3145,20 +3176,20 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="65" t="s">
+      <c r="A107" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -3184,7 +3215,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="37"/>
+      <c r="D110" s="33"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3196,7 +3227,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="38"/>
+      <c r="D111" s="34"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3208,7 +3239,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="38"/>
+      <c r="D112" s="34"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3220,7 +3251,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="38"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3232,29 +3263,29 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="39"/>
+      <c r="D114" s="35"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="40"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -3280,7 +3311,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="37" t="s">
+      <c r="D119" s="33" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3294,7 +3325,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="38"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3306,7 +3337,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="38"/>
+      <c r="D121" s="34"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3318,7 +3349,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="38"/>
+      <c r="D122" s="34"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3330,29 +3361,29 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="39"/>
+      <c r="D123" s="35"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="72" t="s">
+      <c r="A124" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="72"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
+      <c r="A125" s="48"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
@@ -3378,7 +3409,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="49" t="s">
+      <c r="D128" s="39" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3392,7 +3423,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="50"/>
+      <c r="D129" s="40"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3404,7 +3435,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="50"/>
+      <c r="D130" s="40"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3416,7 +3447,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="50"/>
+      <c r="D131" s="40"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3428,29 +3459,29 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="51"/>
+      <c r="D132" s="41"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -3476,7 +3507,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="37" t="s">
+      <c r="D137" s="33" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3490,7 +3521,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="38"/>
+      <c r="D138" s="34"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3502,7 +3533,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="38"/>
+      <c r="D139" s="34"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3514,7 +3545,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="38"/>
+      <c r="D140" s="34"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3526,29 +3557,29 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="39"/>
+      <c r="D141" s="35"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="80" t="s">
+      <c r="A142" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="80"/>
-      <c r="C142" s="80"/>
-      <c r="D142" s="80"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="80"/>
-      <c r="B143" s="80"/>
-      <c r="C143" s="80"/>
-      <c r="D143" s="80"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A145" s="22" t="s">
@@ -3574,7 +3605,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="37" t="s">
+      <c r="D146" s="33" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3588,7 +3619,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="38"/>
+      <c r="D147" s="34"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3600,7 +3631,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="38"/>
+      <c r="D148" s="34"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3612,7 +3643,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="38"/>
+      <c r="D149" s="34"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3624,29 +3655,29 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="39"/>
+      <c r="D150" s="35"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="27" t="s">
+      <c r="A151" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="27"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="22" t="s">
@@ -3723,26 +3754,26 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="73" t="s">
+      <c r="A160" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="74"/>
-      <c r="C160" s="74"/>
-      <c r="D160" s="75"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="43"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="76"/>
-      <c r="B161" s="77"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="78"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="46"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A163" s="22" t="s">
@@ -3768,7 +3799,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="37"/>
+      <c r="D164" s="33"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3780,7 +3811,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="38"/>
+      <c r="D165" s="34"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3792,7 +3823,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="38"/>
+      <c r="D166" s="34"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3804,7 +3835,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="38"/>
+      <c r="D167" s="34"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3816,29 +3847,29 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="39"/>
+      <c r="D168" s="35"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="79" t="s">
+      <c r="A169" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="79"/>
-      <c r="C169" s="79"/>
-      <c r="D169" s="79"/>
+      <c r="B169" s="38"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="79"/>
-      <c r="B170" s="79"/>
-      <c r="C170" s="79"/>
-      <c r="D170" s="79"/>
+      <c r="A170" s="38"/>
+      <c r="B170" s="38"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="38"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A172" s="22" t="s">
@@ -3864,7 +3895,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="37"/>
+      <c r="D173" s="33"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3876,7 +3907,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="38"/>
+      <c r="D174" s="34"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3888,7 +3919,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="38"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3900,7 +3931,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="38"/>
+      <c r="D176" s="34"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3910,29 +3941,29 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="39"/>
+      <c r="D177" s="35"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="79" t="s">
+      <c r="A178" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="79"/>
-      <c r="C178" s="79"/>
-      <c r="D178" s="79"/>
+      <c r="B178" s="38"/>
+      <c r="C178" s="38"/>
+      <c r="D178" s="38"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="79"/>
-      <c r="B179" s="79"/>
-      <c r="C179" s="79"/>
-      <c r="D179" s="79"/>
+      <c r="A179" s="38"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="38"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
     </row>
     <row r="181" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="22" t="s">
@@ -3958,7 +3989,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="37"/>
+      <c r="D182" s="33"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -3970,7 +4001,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="38"/>
+      <c r="D183" s="34"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -3982,7 +4013,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="38"/>
+      <c r="D184" s="34"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -3994,7 +4025,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="38"/>
+      <c r="D185" s="34"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -4006,29 +4037,29 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="39"/>
+      <c r="D186" s="35"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="79" t="s">
+      <c r="A187" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="79"/>
-      <c r="C187" s="79"/>
-      <c r="D187" s="79"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="38"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="79"/>
-      <c r="B188" s="79"/>
-      <c r="C188" s="79"/>
-      <c r="D188" s="79"/>
+      <c r="A188" s="38"/>
+      <c r="B188" s="38"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="38"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A190" s="22" t="s">
@@ -4054,7 +4085,7 @@
       <c r="C191" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D191" s="37"/>
+      <c r="D191" s="33"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -4066,7 +4097,7 @@
       <c r="C192" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D192" s="38"/>
+      <c r="D192" s="34"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -4078,7 +4109,7 @@
       <c r="C193" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D193" s="38"/>
+      <c r="D193" s="34"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -4090,7 +4121,7 @@
       <c r="C194" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D194" s="38"/>
+      <c r="D194" s="34"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
@@ -4102,29 +4133,29 @@
       <c r="C195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D195" s="39"/>
+      <c r="D195" s="35"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="79" t="s">
+      <c r="A196" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B196" s="79"/>
-      <c r="C196" s="79"/>
-      <c r="D196" s="79"/>
+      <c r="B196" s="38"/>
+      <c r="C196" s="38"/>
+      <c r="D196" s="38"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="79"/>
-      <c r="B197" s="79"/>
-      <c r="C197" s="79"/>
-      <c r="D197" s="79"/>
+      <c r="A197" s="38"/>
+      <c r="B197" s="38"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="38"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A199" s="22" t="s">
@@ -4150,7 +4181,7 @@
       <c r="C200" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D200" s="37"/>
+      <c r="D200" s="33"/>
     </row>
     <row r="201" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
@@ -4162,7 +4193,7 @@
       <c r="C201" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D201" s="38"/>
+      <c r="D201" s="34"/>
     </row>
     <row r="202" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
@@ -4174,7 +4205,7 @@
       <c r="C202" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D202" s="38"/>
+      <c r="D202" s="34"/>
     </row>
     <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
@@ -4186,7 +4217,7 @@
       <c r="C203" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D203" s="38"/>
+      <c r="D203" s="34"/>
     </row>
     <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
@@ -4198,29 +4229,29 @@
       <c r="C204" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D204" s="39"/>
+      <c r="D204" s="35"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="74" t="s">
+      <c r="A205" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="B205" s="74"/>
-      <c r="C205" s="74"/>
-      <c r="D205" s="74"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="80"/>
-      <c r="B206" s="80"/>
-      <c r="C206" s="80"/>
-      <c r="D206" s="80"/>
+      <c r="A206" s="37"/>
+      <c r="B206" s="37"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="37"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="26"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="22" t="s">
@@ -4244,7 +4275,7 @@
         <v>227</v>
       </c>
       <c r="C209" s="20"/>
-      <c r="D209" s="37"/>
+      <c r="D209" s="33"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="6" t="s">
@@ -4254,7 +4285,7 @@
         <v>229</v>
       </c>
       <c r="C210" s="20"/>
-      <c r="D210" s="38"/>
+      <c r="D210" s="34"/>
     </row>
     <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A211" s="6" t="s">
@@ -4264,7 +4295,7 @@
         <v>228</v>
       </c>
       <c r="C211" s="20"/>
-      <c r="D211" s="38"/>
+      <c r="D211" s="34"/>
     </row>
     <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A212" s="6" t="s">
@@ -4274,7 +4305,7 @@
         <v>230</v>
       </c>
       <c r="C212" s="20"/>
-      <c r="D212" s="38"/>
+      <c r="D212" s="34"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="6" t="s">
@@ -4284,29 +4315,29 @@
         <v>231</v>
       </c>
       <c r="C213" s="20"/>
-      <c r="D213" s="39"/>
+      <c r="D213" s="35"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="74" t="s">
+      <c r="A214" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B214" s="74"/>
-      <c r="C214" s="74"/>
-      <c r="D214" s="74"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="36"/>
+      <c r="D214" s="36"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="80"/>
-      <c r="B215" s="80"/>
-      <c r="C215" s="80"/>
-      <c r="D215" s="80"/>
+      <c r="A215" s="37"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
     </row>
     <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="26"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="28"/>
+      <c r="D216" s="28"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A217" s="22" t="s">
@@ -4332,7 +4363,7 @@
       <c r="C218" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D218" s="83"/>
+      <c r="D218" s="30"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="6" t="s">
@@ -4344,7 +4375,7 @@
       <c r="C219" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D219" s="84"/>
+      <c r="D219" s="31"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="6" t="s">
@@ -4356,7 +4387,7 @@
       <c r="C220" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D220" s="84"/>
+      <c r="D220" s="31"/>
     </row>
     <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A221" s="6" t="s">
@@ -4368,7 +4399,7 @@
       <c r="C221" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D221" s="84"/>
+      <c r="D221" s="31"/>
     </row>
     <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A222" s="6" t="s">
@@ -4380,29 +4411,29 @@
       <c r="C222" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D222" s="85"/>
+      <c r="D222" s="32"/>
     </row>
     <row r="223" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="27" t="s">
+      <c r="A223" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="B223" s="27"/>
-      <c r="C223" s="27"/>
-      <c r="D223" s="27"/>
+      <c r="B223" s="29"/>
+      <c r="C223" s="29"/>
+      <c r="D223" s="29"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224" s="27"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="27"/>
-      <c r="D224" s="27"/>
+      <c r="A224" s="29"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="29"/>
+      <c r="D224" s="29"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="26"/>
+      <c r="A225" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B225" s="28"/>
+      <c r="C225" s="28"/>
+      <c r="D225" s="28"/>
     </row>
     <row r="226" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A226" s="22" t="s">
@@ -4425,8 +4456,10 @@
       <c r="B227" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C227" s="81"/>
-      <c r="D227" s="82"/>
+      <c r="C227" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D227" s="86"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="6" t="s">
@@ -4435,8 +4468,10 @@
       <c r="B228" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="C228" s="81"/>
-      <c r="D228" s="82"/>
+      <c r="C228" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D228" s="86"/>
     </row>
     <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A229" s="6" t="s">
@@ -4445,8 +4480,10 @@
       <c r="B229" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C229" s="81"/>
-      <c r="D229" s="82"/>
+      <c r="C229" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D229" s="86"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A230" s="6" t="s">
@@ -4455,52 +4492,173 @@
       <c r="B230" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C230" s="81"/>
-      <c r="D230" s="82"/>
+      <c r="C230" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D230" s="86"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B231" s="86" t="s">
+      <c r="B231" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C231" s="87"/>
-      <c r="D231" s="82"/>
+      <c r="C231" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D231" s="86"/>
     </row>
     <row r="232" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="27" t="s">
+      <c r="A232" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="B232" s="27"/>
-      <c r="C232" s="27"/>
-      <c r="D232" s="27"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A233" s="27"/>
-      <c r="B233" s="27"/>
-      <c r="C233" s="27"/>
-      <c r="D233" s="27"/>
+      <c r="A233" s="29"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+    </row>
+    <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B234" s="28"/>
+      <c r="C234" s="28"/>
+      <c r="D234" s="28"/>
+    </row>
+    <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A235" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+    </row>
+    <row r="237" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
+    </row>
+    <row r="238" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+    </row>
+    <row r="239" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
+    </row>
+    <row r="240" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
+    </row>
+    <row r="241" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B241" s="29"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="29"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242" s="29"/>
+      <c r="B242" s="29"/>
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A232:D233"/>
-    <mergeCell ref="D227:D231"/>
-    <mergeCell ref="D218:D222"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="D209:D213"/>
-    <mergeCell ref="A214:D215"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="D200:D204"/>
-    <mergeCell ref="A205:D206"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="A196:D197"/>
-    <mergeCell ref="A178:D179"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A133:D134"/>
+  <mergeCells count="82">
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A241:D242"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
     <mergeCell ref="D128:D132"/>
     <mergeCell ref="A171:D171"/>
     <mergeCell ref="D173:D177"/>
@@ -4512,58 +4670,29 @@
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A142:D143"/>
     <mergeCell ref="D137:D141"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A223:D224"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="A144:D144"/>
     <mergeCell ref="A151:D152"/>
     <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A178:D179"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="D200:D204"/>
+    <mergeCell ref="A205:D206"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A232:D233"/>
+    <mergeCell ref="D227:D231"/>
+    <mergeCell ref="D218:D222"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="A214:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A223:D224"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="263">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1069,6 +1069,38 @@
   </si>
   <si>
     <t>与崧淦一起完成未完成的子界面的书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.22 第13周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成查看设计师详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习前后端的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往设计师作品表每个设计师录入多条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往设计师作品表，每个设计师录入多条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习前后端交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1450,6 +1482,168 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,168 +1651,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1959,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1974,12 +2006,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -2013,7 +2045,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2027,7 +2059,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="67"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -2039,7 +2071,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -2051,7 +2083,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -2063,23 +2095,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -2105,7 +2137,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2119,7 +2151,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="69"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -2131,7 +2163,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="69"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2143,7 +2175,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="69"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -2155,23 +2187,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="69"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2197,7 +2229,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2211,7 +2243,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2223,7 +2255,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2235,7 +2267,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2247,21 +2279,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
@@ -2295,7 +2327,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="46" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2309,7 +2341,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2321,7 +2353,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2333,7 +2365,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2345,21 +2377,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="39"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
@@ -2393,7 +2425,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="50" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2407,7 +2439,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="78"/>
+      <c r="D39" s="51"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2419,7 +2451,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="78"/>
+      <c r="D40" s="51"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2431,7 +2463,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="51"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2443,15 +2475,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="79"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -2485,7 +2517,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="73"/>
+      <c r="D46" s="46"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2497,7 +2529,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="84"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2509,7 +2541,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="84"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2521,7 +2553,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="84"/>
+      <c r="D49" s="54"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2533,15 +2565,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="85"/>
+      <c r="D50" s="55"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
@@ -2575,7 +2607,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2589,7 +2621,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="42"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2601,7 +2633,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="42"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2613,7 +2645,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="63"/>
+      <c r="D57" s="42"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2625,15 +2657,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="64"/>
+      <c r="D58" s="43"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
@@ -2667,7 +2699,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="41" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2681,7 +2713,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="63"/>
+      <c r="D63" s="42"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2693,7 +2725,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="42"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2705,7 +2737,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="42"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2717,15 +2749,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="64"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
@@ -2759,7 +2791,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="58" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2773,7 +2805,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="40"/>
+      <c r="D71" s="59"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2785,7 +2817,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="40"/>
+      <c r="D72" s="59"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2797,7 +2829,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="40"/>
+      <c r="D73" s="59"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2809,15 +2841,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="41"/>
+      <c r="D74" s="60"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
@@ -2851,7 +2883,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="80" t="s">
+      <c r="D78" s="68" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2865,7 +2897,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="81"/>
+      <c r="D79" s="69"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2877,7 +2909,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="81"/>
+      <c r="D80" s="69"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2889,7 +2921,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="81"/>
+      <c r="D81" s="69"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2901,15 +2933,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="82"/>
+      <c r="D82" s="70"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
@@ -2943,7 +2975,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D86" s="58" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2957,7 +2989,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="40"/>
+      <c r="D87" s="59"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -2969,7 +3001,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="40"/>
+      <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -2981,7 +3013,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="40"/>
+      <c r="D89" s="59"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -2993,15 +3025,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="41"/>
+      <c r="D90" s="60"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
@@ -3035,7 +3067,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="53"/>
+      <c r="D94" s="64"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -3047,7 +3079,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="54"/>
+      <c r="D95" s="65"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -3059,7 +3091,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="54"/>
+      <c r="D96" s="65"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -3071,7 +3103,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="54"/>
+      <c r="D97" s="65"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -3083,15 +3115,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="55"/>
+      <c r="D98" s="66"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="50" t="s">
+      <c r="A99" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="51"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="52"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
@@ -3176,12 +3208,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="49" t="s">
+      <c r="A107" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
@@ -3215,7 +3247,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="33"/>
+      <c r="D110" s="71"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3227,7 +3259,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="34"/>
+      <c r="D111" s="72"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3239,7 +3271,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="34"/>
+      <c r="D112" s="72"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3251,7 +3283,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="72"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3263,21 +3295,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="35"/>
+      <c r="D114" s="73"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="47" t="s">
+      <c r="A115" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="56"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
@@ -3311,7 +3343,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="71" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3325,7 +3357,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="72"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3337,7 +3369,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="34"/>
+      <c r="D121" s="72"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3349,7 +3381,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="34"/>
+      <c r="D122" s="72"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3361,21 +3393,21 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="35"/>
+      <c r="D123" s="73"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="48"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
+      <c r="A125" s="74"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="74"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
@@ -3409,7 +3441,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="39" t="s">
+      <c r="D128" s="58" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3423,7 +3455,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="40"/>
+      <c r="D129" s="59"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3435,7 +3467,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="40"/>
+      <c r="D130" s="59"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3447,7 +3479,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="40"/>
+      <c r="D131" s="59"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3459,7 +3491,7 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="41"/>
+      <c r="D132" s="60"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="29" t="s">
@@ -3507,7 +3539,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="33" t="s">
+      <c r="D137" s="71" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3521,7 +3553,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="34"/>
+      <c r="D138" s="72"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3533,7 +3565,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="34"/>
+      <c r="D139" s="72"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3545,7 +3577,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="34"/>
+      <c r="D140" s="72"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3557,21 +3589,21 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="35"/>
+      <c r="D141" s="73"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
+      <c r="B142" s="82"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="82"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="37"/>
-      <c r="B143" s="37"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
+      <c r="A143" s="82"/>
+      <c r="B143" s="82"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="82"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
@@ -3605,7 +3637,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="33" t="s">
+      <c r="D146" s="71" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3619,7 +3651,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="34"/>
+      <c r="D147" s="72"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3631,7 +3663,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="34"/>
+      <c r="D148" s="72"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3643,7 +3675,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="34"/>
+      <c r="D149" s="72"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3655,7 +3687,7 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="35"/>
+      <c r="D150" s="73"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29" t="s">
@@ -3754,18 +3786,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="42" t="s">
+      <c r="A160" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="36"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="43"/>
+      <c r="B160" s="76"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="77"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="44"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="45"/>
-      <c r="D161" s="46"/>
+      <c r="A161" s="78"/>
+      <c r="B161" s="79"/>
+      <c r="C161" s="79"/>
+      <c r="D161" s="80"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
@@ -3799,7 +3831,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="33"/>
+      <c r="D164" s="71"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3811,7 +3843,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="34"/>
+      <c r="D165" s="72"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3823,7 +3855,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="34"/>
+      <c r="D166" s="72"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3835,7 +3867,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="34"/>
+      <c r="D167" s="72"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3847,21 +3879,21 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="35"/>
+      <c r="D168" s="73"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="38"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="38"/>
+      <c r="B169" s="81"/>
+      <c r="C169" s="81"/>
+      <c r="D169" s="81"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="38"/>
-      <c r="B170" s="38"/>
-      <c r="C170" s="38"/>
-      <c r="D170" s="38"/>
+      <c r="A170" s="81"/>
+      <c r="B170" s="81"/>
+      <c r="C170" s="81"/>
+      <c r="D170" s="81"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
@@ -3895,7 +3927,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="33"/>
+      <c r="D173" s="71"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3907,7 +3939,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="34"/>
+      <c r="D174" s="72"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3919,7 +3951,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="34"/>
+      <c r="D175" s="72"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3931,7 +3963,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="34"/>
+      <c r="D176" s="72"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3941,21 +3973,21 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="35"/>
+      <c r="D177" s="73"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="38" t="s">
+      <c r="A178" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="38"/>
-      <c r="C178" s="38"/>
-      <c r="D178" s="38"/>
+      <c r="B178" s="81"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="81"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="38"/>
-      <c r="B179" s="38"/>
-      <c r="C179" s="38"/>
-      <c r="D179" s="38"/>
+      <c r="A179" s="81"/>
+      <c r="B179" s="81"/>
+      <c r="C179" s="81"/>
+      <c r="D179" s="81"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
@@ -3989,7 +4021,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="33"/>
+      <c r="D182" s="71"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -4001,7 +4033,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="34"/>
+      <c r="D183" s="72"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -4013,7 +4045,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="34"/>
+      <c r="D184" s="72"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -4025,7 +4057,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="34"/>
+      <c r="D185" s="72"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -4037,21 +4069,21 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="35"/>
+      <c r="D186" s="73"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="38" t="s">
+      <c r="A187" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="38"/>
-      <c r="C187" s="38"/>
-      <c r="D187" s="38"/>
+      <c r="B187" s="81"/>
+      <c r="C187" s="81"/>
+      <c r="D187" s="81"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="38"/>
-      <c r="B188" s="38"/>
-      <c r="C188" s="38"/>
-      <c r="D188" s="38"/>
+      <c r="A188" s="81"/>
+      <c r="B188" s="81"/>
+      <c r="C188" s="81"/>
+      <c r="D188" s="81"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
@@ -4085,7 +4117,7 @@
       <c r="C191" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D191" s="33"/>
+      <c r="D191" s="71"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -4097,7 +4129,7 @@
       <c r="C192" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D192" s="34"/>
+      <c r="D192" s="72"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -4109,7 +4141,7 @@
       <c r="C193" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D193" s="34"/>
+      <c r="D193" s="72"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -4121,7 +4153,7 @@
       <c r="C194" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D194" s="34"/>
+      <c r="D194" s="72"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
@@ -4133,21 +4165,21 @@
       <c r="C195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D195" s="35"/>
+      <c r="D195" s="73"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="38" t="s">
+      <c r="A196" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="B196" s="38"/>
-      <c r="C196" s="38"/>
-      <c r="D196" s="38"/>
+      <c r="B196" s="81"/>
+      <c r="C196" s="81"/>
+      <c r="D196" s="81"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="38"/>
-      <c r="B197" s="38"/>
-      <c r="C197" s="38"/>
-      <c r="D197" s="38"/>
+      <c r="A197" s="81"/>
+      <c r="B197" s="81"/>
+      <c r="C197" s="81"/>
+      <c r="D197" s="81"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A198" s="27" t="s">
@@ -4181,7 +4213,7 @@
       <c r="C200" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D200" s="33"/>
+      <c r="D200" s="71"/>
     </row>
     <row r="201" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
@@ -4193,7 +4225,7 @@
       <c r="C201" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D201" s="34"/>
+      <c r="D201" s="72"/>
     </row>
     <row r="202" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
@@ -4205,7 +4237,7 @@
       <c r="C202" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D202" s="34"/>
+      <c r="D202" s="72"/>
     </row>
     <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
@@ -4217,7 +4249,7 @@
       <c r="C203" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D203" s="34"/>
+      <c r="D203" s="72"/>
     </row>
     <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
@@ -4229,21 +4261,21 @@
       <c r="C204" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D204" s="35"/>
+      <c r="D204" s="73"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="36" t="s">
+      <c r="A205" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
+      <c r="B205" s="76"/>
+      <c r="C205" s="76"/>
+      <c r="D205" s="76"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="37"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="37"/>
+      <c r="A206" s="82"/>
+      <c r="B206" s="82"/>
+      <c r="C206" s="82"/>
+      <c r="D206" s="82"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A207" s="27" t="s">
@@ -4275,7 +4307,7 @@
         <v>227</v>
       </c>
       <c r="C209" s="20"/>
-      <c r="D209" s="33"/>
+      <c r="D209" s="71"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="6" t="s">
@@ -4285,7 +4317,7 @@
         <v>229</v>
       </c>
       <c r="C210" s="20"/>
-      <c r="D210" s="34"/>
+      <c r="D210" s="72"/>
     </row>
     <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A211" s="6" t="s">
@@ -4295,7 +4327,7 @@
         <v>228</v>
       </c>
       <c r="C211" s="20"/>
-      <c r="D211" s="34"/>
+      <c r="D211" s="72"/>
     </row>
     <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A212" s="6" t="s">
@@ -4305,7 +4337,7 @@
         <v>230</v>
       </c>
       <c r="C212" s="20"/>
-      <c r="D212" s="34"/>
+      <c r="D212" s="72"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="6" t="s">
@@ -4315,21 +4347,21 @@
         <v>231</v>
       </c>
       <c r="C213" s="20"/>
-      <c r="D213" s="35"/>
+      <c r="D213" s="73"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="36" t="s">
+      <c r="A214" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="B214" s="36"/>
-      <c r="C214" s="36"/>
-      <c r="D214" s="36"/>
+      <c r="B214" s="76"/>
+      <c r="C214" s="76"/>
+      <c r="D214" s="76"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="37"/>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
+      <c r="A215" s="82"/>
+      <c r="B215" s="82"/>
+      <c r="C215" s="82"/>
+      <c r="D215" s="82"/>
     </row>
     <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
@@ -4363,7 +4395,7 @@
       <c r="C218" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D218" s="30"/>
+      <c r="D218" s="84"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="6" t="s">
@@ -4375,7 +4407,7 @@
       <c r="C219" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D219" s="31"/>
+      <c r="D219" s="85"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="6" t="s">
@@ -4387,7 +4419,7 @@
       <c r="C220" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D220" s="31"/>
+      <c r="D220" s="85"/>
     </row>
     <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A221" s="6" t="s">
@@ -4399,7 +4431,7 @@
       <c r="C221" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D221" s="31"/>
+      <c r="D221" s="85"/>
     </row>
     <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A222" s="6" t="s">
@@ -4411,7 +4443,7 @@
       <c r="C222" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D222" s="32"/>
+      <c r="D222" s="86"/>
     </row>
     <row r="223" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="29" t="s">
@@ -4459,7 +4491,7 @@
       <c r="C227" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D227" s="86"/>
+      <c r="D227" s="83"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="6" t="s">
@@ -4471,7 +4503,7 @@
       <c r="C228" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D228" s="86"/>
+      <c r="D228" s="83"/>
     </row>
     <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A229" s="6" t="s">
@@ -4483,7 +4515,7 @@
       <c r="C229" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D229" s="86"/>
+      <c r="D229" s="83"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A230" s="6" t="s">
@@ -4495,7 +4527,7 @@
       <c r="C230" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D230" s="86"/>
+      <c r="D230" s="83"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="23" t="s">
@@ -4507,7 +4539,7 @@
       <c r="C231" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D231" s="86"/>
+      <c r="D231" s="83"/>
     </row>
     <row r="232" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="29" t="s">
@@ -4552,7 +4584,9 @@
       <c r="B236" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="C236" s="24"/>
+      <c r="C236" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="D236" s="24"/>
     </row>
     <row r="237" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -4562,7 +4596,9 @@
       <c r="B237" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C237" s="24"/>
+      <c r="C237" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="D237" s="24"/>
     </row>
     <row r="238" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4572,7 +4608,9 @@
       <c r="B238" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C238" s="24"/>
+      <c r="C238" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="D238" s="24"/>
     </row>
     <row r="239" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,7 +4620,9 @@
       <c r="B239" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C239" s="24"/>
+      <c r="C239" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="D239" s="24"/>
     </row>
     <row r="240" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4592,7 +4632,9 @@
       <c r="B240" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C240" s="24"/>
+      <c r="C240" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="D240" s="24"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4609,8 +4651,163 @@
       <c r="C242" s="29"/>
       <c r="D242" s="29"/>
     </row>
+    <row r="243" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B243" s="28"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+    </row>
+    <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A244" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C245" s="24"/>
+      <c r="D245" s="84"/>
+    </row>
+    <row r="246" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C246" s="24"/>
+      <c r="D246" s="85"/>
+    </row>
+    <row r="247" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C247" s="24"/>
+      <c r="D247" s="85"/>
+    </row>
+    <row r="248" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C248" s="24"/>
+      <c r="D248" s="85"/>
+    </row>
+    <row r="249" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C249" s="24"/>
+      <c r="D249" s="86"/>
+    </row>
+    <row r="250" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B250" s="29"/>
+      <c r="C250" s="29"/>
+      <c r="D250" s="29"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251" s="29"/>
+      <c r="B251" s="29"/>
+      <c r="C251" s="29"/>
+      <c r="D251" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="85">
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A250:D251"/>
+    <mergeCell ref="D245:D249"/>
+    <mergeCell ref="A232:D233"/>
+    <mergeCell ref="D227:D231"/>
+    <mergeCell ref="D218:D222"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="A214:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A223:D224"/>
+    <mergeCell ref="D200:D204"/>
+    <mergeCell ref="A205:D206"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="D182:D186"/>
+    <mergeCell ref="A187:D188"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="A178:D179"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
     <mergeCell ref="A234:D234"/>
     <mergeCell ref="A241:D242"/>
     <mergeCell ref="A1:D1"/>
@@ -4627,72 +4824,6 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D62:D66"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A160:D161"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="D182:D186"/>
-    <mergeCell ref="A187:D188"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="A178:D179"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="D200:D204"/>
-    <mergeCell ref="A205:D206"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="A196:D197"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A232:D233"/>
-    <mergeCell ref="D227:D231"/>
-    <mergeCell ref="D218:D222"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="D209:D213"/>
-    <mergeCell ref="A214:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A223:D224"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="270">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1101,6 +1101,34 @@
   </si>
   <si>
     <t>学习前后端交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成下拉刷新和上拉加载功能的前后台交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往布料辅料表录入十条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成资讯列表的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校mybatis的多表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.27 第14周 周一 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1482,6 +1510,150 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,152 +1678,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1991,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F247" sqref="F247"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2006,12 +2034,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -2045,7 +2073,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="81" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2059,7 +2087,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -2071,7 +2099,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -2083,7 +2111,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -2095,23 +2123,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -2137,7 +2165,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="84" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2151,7 +2179,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="84"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -2163,7 +2191,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2175,7 +2203,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -2187,23 +2215,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="84"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2229,7 +2257,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="85" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2243,7 +2271,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="72"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2255,7 +2283,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="72"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2267,7 +2295,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2279,21 +2307,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="73"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
@@ -2327,7 +2355,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="63" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2341,7 +2369,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="72"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2353,7 +2381,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="72"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2365,7 +2393,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="72"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2377,21 +2405,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
@@ -2425,7 +2453,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="75" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2439,7 +2467,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="51"/>
+      <c r="D39" s="76"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2451,7 +2479,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="51"/>
+      <c r="D40" s="76"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2463,7 +2491,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="51"/>
+      <c r="D41" s="76"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2475,15 +2503,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="77"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -2517,7 +2545,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="46"/>
+      <c r="D46" s="63"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2529,7 +2557,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="54"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2541,7 +2569,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2553,7 +2581,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="54"/>
+      <c r="D49" s="64"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2565,15 +2593,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="65"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
@@ -2607,7 +2635,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="57" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2621,7 +2649,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="42"/>
+      <c r="D55" s="58"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2633,7 +2661,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="42"/>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2645,7 +2673,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="42"/>
+      <c r="D57" s="58"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2657,15 +2685,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="43"/>
+      <c r="D58" s="59"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
@@ -2699,7 +2727,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="57" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2713,7 +2741,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="42"/>
+      <c r="D63" s="58"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2725,7 +2753,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="42"/>
+      <c r="D64" s="58"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2737,7 +2765,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="58"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2749,15 +2777,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="43"/>
+      <c r="D66" s="59"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
@@ -2791,7 +2819,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="40" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2805,7 +2833,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="59"/>
+      <c r="D71" s="41"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2817,7 +2845,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="59"/>
+      <c r="D72" s="41"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2829,7 +2857,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="59"/>
+      <c r="D73" s="41"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2841,15 +2869,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="60"/>
+      <c r="D74" s="42"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
@@ -2883,7 +2911,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="68" t="s">
+      <c r="D78" s="67" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2897,7 +2925,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="69"/>
+      <c r="D79" s="68"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2909,7 +2937,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="69"/>
+      <c r="D80" s="68"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2921,7 +2949,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="69"/>
+      <c r="D81" s="68"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2933,15 +2961,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="70"/>
+      <c r="D82" s="69"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
@@ -2975,7 +3003,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="58" t="s">
+      <c r="D86" s="40" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2989,7 +3017,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="59"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -3001,7 +3029,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="59"/>
+      <c r="D88" s="41"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -3013,7 +3041,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="59"/>
+      <c r="D89" s="41"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -3025,15 +3053,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="60"/>
+      <c r="D90" s="42"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
@@ -3067,7 +3095,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="64"/>
+      <c r="D94" s="54"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -3079,7 +3107,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="65"/>
+      <c r="D95" s="55"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -3091,7 +3119,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="65"/>
+      <c r="D96" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -3103,7 +3131,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="65"/>
+      <c r="D97" s="55"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -3115,15 +3143,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="66"/>
+      <c r="D98" s="56"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="61" t="s">
+      <c r="A99" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="63"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="53"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
@@ -3208,12 +3236,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="57" t="s">
+      <c r="A107" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
@@ -3247,7 +3275,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="71"/>
+      <c r="D110" s="34"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3259,7 +3287,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="72"/>
+      <c r="D111" s="35"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3271,7 +3299,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="72"/>
+      <c r="D112" s="35"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3283,7 +3311,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="72"/>
+      <c r="D113" s="35"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3295,21 +3323,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="73"/>
+      <c r="D114" s="36"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="56" t="s">
+      <c r="A115" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="56"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="56"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="56"/>
-      <c r="B116" s="56"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="56"/>
+      <c r="A116" s="48"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
@@ -3343,7 +3371,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="71" t="s">
+      <c r="D119" s="34" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3357,7 +3385,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="72"/>
+      <c r="D120" s="35"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3369,7 +3397,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="72"/>
+      <c r="D121" s="35"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3381,7 +3409,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="72"/>
+      <c r="D122" s="35"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3393,21 +3421,21 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="73"/>
+      <c r="D123" s="36"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="74" t="s">
+      <c r="A124" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="74"/>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="74"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="74"/>
-      <c r="D125" s="74"/>
+      <c r="A125" s="49"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
@@ -3441,7 +3469,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="58" t="s">
+      <c r="D128" s="40" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3455,7 +3483,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="59"/>
+      <c r="D129" s="41"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3467,7 +3495,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="59"/>
+      <c r="D130" s="41"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3479,7 +3507,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="59"/>
+      <c r="D131" s="41"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3491,7 +3519,7 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="60"/>
+      <c r="D132" s="42"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="29" t="s">
@@ -3539,7 +3567,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="71" t="s">
+      <c r="D137" s="34" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3553,7 +3581,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="72"/>
+      <c r="D138" s="35"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3565,7 +3593,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="72"/>
+      <c r="D139" s="35"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3577,7 +3605,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="72"/>
+      <c r="D140" s="35"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3589,21 +3617,21 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="73"/>
+      <c r="D141" s="36"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="82" t="s">
+      <c r="A142" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="82"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="82"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="82"/>
+      <c r="A143" s="38"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
@@ -3637,7 +3665,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="71" t="s">
+      <c r="D146" s="34" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3651,7 +3679,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="72"/>
+      <c r="D147" s="35"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3663,7 +3691,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="72"/>
+      <c r="D148" s="35"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3675,7 +3703,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="72"/>
+      <c r="D149" s="35"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3687,7 +3715,7 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="73"/>
+      <c r="D150" s="36"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29" t="s">
@@ -3786,18 +3814,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="75" t="s">
+      <c r="A160" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="76"/>
-      <c r="C160" s="76"/>
-      <c r="D160" s="77"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="37"/>
+      <c r="D160" s="44"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="78"/>
-      <c r="B161" s="79"/>
-      <c r="C161" s="79"/>
-      <c r="D161" s="80"/>
+      <c r="A161" s="45"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="47"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
@@ -3831,7 +3859,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="71"/>
+      <c r="D164" s="34"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3843,7 +3871,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="72"/>
+      <c r="D165" s="35"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3855,7 +3883,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="72"/>
+      <c r="D166" s="35"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3867,7 +3895,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="72"/>
+      <c r="D167" s="35"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3879,21 +3907,21 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="73"/>
+      <c r="D168" s="36"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="81" t="s">
+      <c r="A169" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="81"/>
-      <c r="C169" s="81"/>
-      <c r="D169" s="81"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="39"/>
+      <c r="D169" s="39"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="81"/>
-      <c r="B170" s="81"/>
-      <c r="C170" s="81"/>
-      <c r="D170" s="81"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="39"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
@@ -3927,7 +3955,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="71"/>
+      <c r="D173" s="34"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3939,7 +3967,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="72"/>
+      <c r="D174" s="35"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3951,7 +3979,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="72"/>
+      <c r="D175" s="35"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3963,7 +3991,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="72"/>
+      <c r="D176" s="35"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -3973,21 +4001,21 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="73"/>
+      <c r="D177" s="36"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="81" t="s">
+      <c r="A178" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="81"/>
-      <c r="C178" s="81"/>
-      <c r="D178" s="81"/>
+      <c r="B178" s="39"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="39"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="81"/>
-      <c r="B179" s="81"/>
-      <c r="C179" s="81"/>
-      <c r="D179" s="81"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="39"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
@@ -4021,7 +4049,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="71"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -4033,7 +4061,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="72"/>
+      <c r="D183" s="35"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -4045,7 +4073,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="72"/>
+      <c r="D184" s="35"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -4057,7 +4085,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="72"/>
+      <c r="D185" s="35"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -4069,21 +4097,21 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="73"/>
+      <c r="D186" s="36"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="81" t="s">
+      <c r="A187" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="81"/>
-      <c r="C187" s="81"/>
-      <c r="D187" s="81"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="81"/>
-      <c r="B188" s="81"/>
-      <c r="C188" s="81"/>
-      <c r="D188" s="81"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="39"/>
+      <c r="D188" s="39"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
@@ -4117,7 +4145,7 @@
       <c r="C191" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D191" s="71"/>
+      <c r="D191" s="34"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -4129,7 +4157,7 @@
       <c r="C192" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D192" s="72"/>
+      <c r="D192" s="35"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -4141,7 +4169,7 @@
       <c r="C193" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D193" s="72"/>
+      <c r="D193" s="35"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -4153,7 +4181,7 @@
       <c r="C194" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D194" s="72"/>
+      <c r="D194" s="35"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
@@ -4165,21 +4193,21 @@
       <c r="C195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D195" s="73"/>
+      <c r="D195" s="36"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="81" t="s">
+      <c r="A196" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B196" s="81"/>
-      <c r="C196" s="81"/>
-      <c r="D196" s="81"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="39"/>
+      <c r="D196" s="39"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="81"/>
-      <c r="B197" s="81"/>
-      <c r="C197" s="81"/>
-      <c r="D197" s="81"/>
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A198" s="27" t="s">
@@ -4213,7 +4241,7 @@
       <c r="C200" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D200" s="71"/>
+      <c r="D200" s="34"/>
     </row>
     <row r="201" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
@@ -4225,7 +4253,7 @@
       <c r="C201" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D201" s="72"/>
+      <c r="D201" s="35"/>
     </row>
     <row r="202" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
@@ -4237,7 +4265,7 @@
       <c r="C202" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D202" s="72"/>
+      <c r="D202" s="35"/>
     </row>
     <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
@@ -4249,7 +4277,7 @@
       <c r="C203" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D203" s="72"/>
+      <c r="D203" s="35"/>
     </row>
     <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
@@ -4261,21 +4289,21 @@
       <c r="C204" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D204" s="73"/>
+      <c r="D204" s="36"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="76" t="s">
+      <c r="A205" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B205" s="76"/>
-      <c r="C205" s="76"/>
-      <c r="D205" s="76"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="37"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="82"/>
-      <c r="B206" s="82"/>
-      <c r="C206" s="82"/>
-      <c r="D206" s="82"/>
+      <c r="A206" s="38"/>
+      <c r="B206" s="38"/>
+      <c r="C206" s="38"/>
+      <c r="D206" s="38"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A207" s="27" t="s">
@@ -4307,7 +4335,7 @@
         <v>227</v>
       </c>
       <c r="C209" s="20"/>
-      <c r="D209" s="71"/>
+      <c r="D209" s="34"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="6" t="s">
@@ -4317,7 +4345,7 @@
         <v>229</v>
       </c>
       <c r="C210" s="20"/>
-      <c r="D210" s="72"/>
+      <c r="D210" s="35"/>
     </row>
     <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A211" s="6" t="s">
@@ -4327,7 +4355,7 @@
         <v>228</v>
       </c>
       <c r="C211" s="20"/>
-      <c r="D211" s="72"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A212" s="6" t="s">
@@ -4337,7 +4365,7 @@
         <v>230</v>
       </c>
       <c r="C212" s="20"/>
-      <c r="D212" s="72"/>
+      <c r="D212" s="35"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="6" t="s">
@@ -4347,21 +4375,21 @@
         <v>231</v>
       </c>
       <c r="C213" s="20"/>
-      <c r="D213" s="73"/>
+      <c r="D213" s="36"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="76" t="s">
+      <c r="A214" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B214" s="76"/>
-      <c r="C214" s="76"/>
-      <c r="D214" s="76"/>
+      <c r="B214" s="37"/>
+      <c r="C214" s="37"/>
+      <c r="D214" s="37"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="82"/>
-      <c r="B215" s="82"/>
-      <c r="C215" s="82"/>
-      <c r="D215" s="82"/>
+      <c r="A215" s="38"/>
+      <c r="B215" s="38"/>
+      <c r="C215" s="38"/>
+      <c r="D215" s="38"/>
     </row>
     <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
@@ -4395,7 +4423,7 @@
       <c r="C218" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D218" s="84"/>
+      <c r="D218" s="30"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="6" t="s">
@@ -4407,7 +4435,7 @@
       <c r="C219" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D219" s="85"/>
+      <c r="D219" s="31"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="6" t="s">
@@ -4419,7 +4447,7 @@
       <c r="C220" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D220" s="85"/>
+      <c r="D220" s="31"/>
     </row>
     <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A221" s="6" t="s">
@@ -4431,7 +4459,7 @@
       <c r="C221" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D221" s="85"/>
+      <c r="D221" s="31"/>
     </row>
     <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A222" s="6" t="s">
@@ -4443,7 +4471,7 @@
       <c r="C222" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D222" s="86"/>
+      <c r="D222" s="32"/>
     </row>
     <row r="223" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="29" t="s">
@@ -4491,7 +4519,7 @@
       <c r="C227" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D227" s="83"/>
+      <c r="D227" s="33"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="6" t="s">
@@ -4503,7 +4531,7 @@
       <c r="C228" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D228" s="83"/>
+      <c r="D228" s="33"/>
     </row>
     <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A229" s="6" t="s">
@@ -4515,7 +4543,7 @@
       <c r="C229" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D229" s="83"/>
+      <c r="D229" s="33"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A230" s="6" t="s">
@@ -4527,7 +4555,7 @@
       <c r="C230" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D230" s="83"/>
+      <c r="D230" s="33"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="23" t="s">
@@ -4539,7 +4567,7 @@
       <c r="C231" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D231" s="83"/>
+      <c r="D231" s="33"/>
     </row>
     <row r="232" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="29" t="s">
@@ -4680,8 +4708,10 @@
       <c r="B245" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C245" s="24"/>
-      <c r="D245" s="84"/>
+      <c r="C245" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D245" s="30"/>
     </row>
     <row r="246" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6" t="s">
@@ -4690,8 +4720,10 @@
       <c r="B246" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C246" s="24"/>
-      <c r="D246" s="85"/>
+      <c r="C246" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D246" s="31"/>
     </row>
     <row r="247" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6" t="s">
@@ -4700,8 +4732,10 @@
       <c r="B247" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C247" s="24"/>
-      <c r="D247" s="85"/>
+      <c r="C247" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D247" s="31"/>
     </row>
     <row r="248" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6" t="s">
@@ -4710,8 +4744,10 @@
       <c r="B248" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C248" s="24"/>
-      <c r="D248" s="85"/>
+      <c r="C248" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D248" s="31"/>
     </row>
     <row r="249" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6" t="s">
@@ -4720,8 +4756,10 @@
       <c r="B249" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C249" s="24"/>
-      <c r="D249" s="86"/>
+      <c r="C249" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D249" s="32"/>
     </row>
     <row r="250" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="29" t="s">
@@ -4737,29 +4775,142 @@
       <c r="C251" s="29"/>
       <c r="D251" s="29"/>
     </row>
+    <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A252" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B252" s="28"/>
+      <c r="C252" s="28"/>
+      <c r="D252" s="28"/>
+    </row>
+    <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A253" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+    </row>
+    <row r="255" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+    </row>
+    <row r="256" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+    </row>
+    <row r="257" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
+    </row>
+    <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A258" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+    </row>
+    <row r="259" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B259" s="37"/>
+      <c r="C259" s="37"/>
+      <c r="D259" s="37"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260" s="38"/>
+      <c r="B260" s="38"/>
+      <c r="C260" s="38"/>
+      <c r="D260" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A250:D251"/>
-    <mergeCell ref="D245:D249"/>
-    <mergeCell ref="A232:D233"/>
-    <mergeCell ref="D227:D231"/>
-    <mergeCell ref="D218:D222"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="D209:D213"/>
-    <mergeCell ref="A214:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A223:D224"/>
-    <mergeCell ref="D200:D204"/>
-    <mergeCell ref="A205:D206"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="A196:D197"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="A198:D198"/>
+  <mergeCells count="87">
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
     <mergeCell ref="D128:D132"/>
     <mergeCell ref="A171:D171"/>
     <mergeCell ref="D173:D177"/>
@@ -4776,54 +4927,29 @@
     <mergeCell ref="A151:D152"/>
     <mergeCell ref="D146:D150"/>
     <mergeCell ref="A178:D179"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A223:D224"/>
+    <mergeCell ref="D200:D204"/>
+    <mergeCell ref="A205:D206"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="D218:D222"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="A214:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A250:D251"/>
+    <mergeCell ref="D245:D249"/>
+    <mergeCell ref="A232:D233"/>
+    <mergeCell ref="D227:D231"/>
     <mergeCell ref="A234:D234"/>
     <mergeCell ref="A241:D242"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="278">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1120,11 +1120,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学校mybatis的多表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2017.11.27 第14周 周一 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成新品来袭的详情显示和前后台交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续对界面的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuilder的头像剪切和上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习mybatis的多表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Hbuidler多表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往资讯表插入十条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.28 第14周 周三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1507,6 +1539,165 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1521,165 +1712,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2019,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2034,12 +2066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -2073,7 +2105,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2087,7 +2119,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="82"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -2099,7 +2131,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -2111,7 +2143,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -2123,23 +2155,23 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -2165,7 +2197,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2179,7 +2211,7 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -2191,7 +2223,7 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2203,7 +2235,7 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="84"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -2215,23 +2247,23 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2257,7 +2289,7 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="33" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2271,7 +2303,7 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="72"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -2283,7 +2315,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="72"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2295,7 +2327,7 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -2307,21 +2339,21 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="35"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
@@ -2355,7 +2387,7 @@
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="47" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2369,7 +2401,7 @@
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2381,7 +2413,7 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="72"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2393,7 +2425,7 @@
       <c r="C32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2405,21 +2437,21 @@
       <c r="C33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
@@ -2453,7 +2485,7 @@
       <c r="C38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="51" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2467,7 +2499,7 @@
       <c r="C39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="76"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2479,7 +2511,7 @@
       <c r="C40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="76"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2491,7 +2523,7 @@
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="76"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2503,15 +2535,15 @@
       <c r="C42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="77"/>
+      <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -2545,7 +2577,7 @@
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="63"/>
+      <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
@@ -2557,7 +2589,7 @@
       <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="55"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
@@ -2569,7 +2601,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="64"/>
+      <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
@@ -2581,7 +2613,7 @@
       <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="64"/>
+      <c r="D49" s="55"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
@@ -2593,15 +2625,15 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="65"/>
+      <c r="D50" s="56"/>
     </row>
     <row r="51" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
@@ -2635,7 +2667,7 @@
       <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="37" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2649,7 +2681,7 @@
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="58"/>
+      <c r="D55" s="38"/>
     </row>
     <row r="56" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
@@ -2661,7 +2693,7 @@
       <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="58"/>
+      <c r="D56" s="38"/>
     </row>
     <row r="57" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
@@ -2673,7 +2705,7 @@
       <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="58"/>
+      <c r="D57" s="38"/>
     </row>
     <row r="58" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
@@ -2685,15 +2717,15 @@
       <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="59"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
@@ -2727,7 +2759,7 @@
       <c r="C62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="D62" s="37" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2741,7 +2773,7 @@
       <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="58"/>
+      <c r="D63" s="38"/>
     </row>
     <row r="64" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -2753,7 +2785,7 @@
       <c r="C64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="38"/>
     </row>
     <row r="65" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2765,7 +2797,7 @@
       <c r="C65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="58"/>
+      <c r="D65" s="38"/>
     </row>
     <row r="66" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2777,15 +2809,15 @@
       <c r="C66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="59"/>
+      <c r="D66" s="39"/>
     </row>
     <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
@@ -2819,7 +2851,7 @@
       <c r="C70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="59" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2833,7 +2865,7 @@
       <c r="C71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="41"/>
+      <c r="D71" s="60"/>
     </row>
     <row r="72" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
@@ -2845,7 +2877,7 @@
       <c r="C72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="41"/>
+      <c r="D72" s="60"/>
     </row>
     <row r="73" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
@@ -2857,7 +2889,7 @@
       <c r="C73" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="41"/>
+      <c r="D73" s="60"/>
     </row>
     <row r="74" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -2869,15 +2901,15 @@
       <c r="C74" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="42"/>
+      <c r="D74" s="61"/>
     </row>
     <row r="75" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="66" t="s">
+      <c r="A75" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
@@ -2911,7 +2943,7 @@
       <c r="C78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="67" t="s">
+      <c r="D78" s="62" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2925,7 +2957,7 @@
       <c r="C79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="68"/>
+      <c r="D79" s="63"/>
     </row>
     <row r="80" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
@@ -2937,7 +2969,7 @@
       <c r="C80" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="68"/>
+      <c r="D80" s="63"/>
     </row>
     <row r="81" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
@@ -2949,7 +2981,7 @@
       <c r="C81" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="68"/>
+      <c r="D81" s="63"/>
     </row>
     <row r="82" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
@@ -2961,15 +2993,15 @@
       <c r="C82" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="69"/>
+      <c r="D82" s="64"/>
     </row>
     <row r="83" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
@@ -3003,7 +3035,7 @@
       <c r="C86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="D86" s="59" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3017,7 +3049,7 @@
       <c r="C87" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="41"/>
+      <c r="D87" s="60"/>
     </row>
     <row r="88" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
@@ -3029,7 +3061,7 @@
       <c r="C88" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="D88" s="60"/>
     </row>
     <row r="89" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
@@ -3041,7 +3073,7 @@
       <c r="C89" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="41"/>
+      <c r="D89" s="60"/>
     </row>
     <row r="90" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
@@ -3053,15 +3085,15 @@
       <c r="C90" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="42"/>
+      <c r="D90" s="61"/>
     </row>
     <row r="91" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
@@ -3095,7 +3127,7 @@
       <c r="C94" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="54"/>
+      <c r="D94" s="69"/>
     </row>
     <row r="95" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
@@ -3107,7 +3139,7 @@
       <c r="C95" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="55"/>
+      <c r="D95" s="70"/>
     </row>
     <row r="96" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
@@ -3119,7 +3151,7 @@
       <c r="C96" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="55"/>
+      <c r="D96" s="70"/>
     </row>
     <row r="97" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
@@ -3131,7 +3163,7 @@
       <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="55"/>
+      <c r="D97" s="70"/>
     </row>
     <row r="98" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
@@ -3143,15 +3175,15 @@
       <c r="C98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="56"/>
+      <c r="D98" s="71"/>
     </row>
     <row r="99" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="53"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
@@ -3236,12 +3268,12 @@
       <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="50"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
@@ -3275,7 +3307,7 @@
       <c r="C110" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="34"/>
+      <c r="D110" s="72"/>
     </row>
     <row r="111" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
@@ -3287,7 +3319,7 @@
       <c r="C111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="35"/>
+      <c r="D111" s="73"/>
     </row>
     <row r="112" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
@@ -3299,7 +3331,7 @@
       <c r="C112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="35"/>
+      <c r="D112" s="73"/>
     </row>
     <row r="113" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
@@ -3311,7 +3343,7 @@
       <c r="C113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="35"/>
+      <c r="D113" s="73"/>
     </row>
     <row r="114" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
@@ -3323,21 +3355,21 @@
       <c r="C114" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="36"/>
+      <c r="D114" s="74"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="57"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="48"/>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
+      <c r="A116" s="57"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
@@ -3371,7 +3403,7 @@
       <c r="C119" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="34" t="s">
+      <c r="D119" s="72" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3385,7 +3417,7 @@
       <c r="C120" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="35"/>
+      <c r="D120" s="73"/>
     </row>
     <row r="121" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
@@ -3397,7 +3429,7 @@
       <c r="C121" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="35"/>
+      <c r="D121" s="73"/>
     </row>
     <row r="122" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
@@ -3409,7 +3441,7 @@
       <c r="C122" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D122" s="35"/>
+      <c r="D122" s="73"/>
     </row>
     <row r="123" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
@@ -3421,21 +3453,21 @@
       <c r="C123" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="36"/>
+      <c r="D123" s="74"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="49" t="s">
+      <c r="A124" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="49"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="49"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="75"/>
+      <c r="D124" s="75"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="49"/>
-      <c r="B125" s="49"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49"/>
+      <c r="A125" s="75"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="75"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
@@ -3469,7 +3501,7 @@
       <c r="C128" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="D128" s="59" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3483,7 +3515,7 @@
       <c r="C129" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="41"/>
+      <c r="D129" s="60"/>
     </row>
     <row r="130" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
@@ -3495,7 +3527,7 @@
       <c r="C130" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="41"/>
+      <c r="D130" s="60"/>
     </row>
     <row r="131" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
@@ -3507,7 +3539,7 @@
       <c r="C131" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="41"/>
+      <c r="D131" s="60"/>
     </row>
     <row r="132" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
@@ -3519,21 +3551,21 @@
       <c r="C132" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="42"/>
+      <c r="D132" s="61"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="82"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
+      <c r="A134" s="82"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="82"/>
+      <c r="D134" s="82"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
@@ -3567,7 +3599,7 @@
       <c r="C137" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D137" s="34" t="s">
+      <c r="D137" s="72" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3581,7 +3613,7 @@
       <c r="C138" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D138" s="35"/>
+      <c r="D138" s="73"/>
     </row>
     <row r="139" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
@@ -3593,7 +3625,7 @@
       <c r="C139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D139" s="35"/>
+      <c r="D139" s="73"/>
     </row>
     <row r="140" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
@@ -3605,7 +3637,7 @@
       <c r="C140" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D140" s="35"/>
+      <c r="D140" s="73"/>
     </row>
     <row r="141" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
@@ -3617,21 +3649,21 @@
       <c r="C141" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="36"/>
+      <c r="D141" s="74"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="38" t="s">
+      <c r="A142" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="38"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="38"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="38"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="38"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
@@ -3665,7 +3697,7 @@
       <c r="C146" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D146" s="34" t="s">
+      <c r="D146" s="72" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3679,7 +3711,7 @@
       <c r="C147" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="35"/>
+      <c r="D147" s="73"/>
     </row>
     <row r="148" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
@@ -3691,7 +3723,7 @@
       <c r="C148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D148" s="35"/>
+      <c r="D148" s="73"/>
     </row>
     <row r="149" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
@@ -3703,7 +3735,7 @@
       <c r="C149" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="35"/>
+      <c r="D149" s="73"/>
     </row>
     <row r="150" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
@@ -3715,21 +3747,21 @@
       <c r="C150" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D150" s="36"/>
+      <c r="D150" s="74"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="29" t="s">
+      <c r="A151" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
+      <c r="B151" s="82"/>
+      <c r="C151" s="82"/>
+      <c r="D151" s="82"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
+      <c r="A152" s="82"/>
+      <c r="B152" s="82"/>
+      <c r="C152" s="82"/>
+      <c r="D152" s="82"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
@@ -3814,18 +3846,18 @@
       <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="37"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="44"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="77"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="45"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="47"/>
+      <c r="A161" s="78"/>
+      <c r="B161" s="79"/>
+      <c r="C161" s="79"/>
+      <c r="D161" s="80"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
@@ -3859,7 +3891,7 @@
       <c r="C164" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="34"/>
+      <c r="D164" s="72"/>
     </row>
     <row r="165" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
@@ -3871,7 +3903,7 @@
       <c r="C165" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D165" s="35"/>
+      <c r="D165" s="73"/>
     </row>
     <row r="166" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
@@ -3883,7 +3915,7 @@
       <c r="C166" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D166" s="35"/>
+      <c r="D166" s="73"/>
     </row>
     <row r="167" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
@@ -3895,7 +3927,7 @@
       <c r="C167" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="35"/>
+      <c r="D167" s="73"/>
     </row>
     <row r="168" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
@@ -3907,21 +3939,21 @@
       <c r="C168" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D168" s="36"/>
+      <c r="D168" s="74"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="39" t="s">
+      <c r="A169" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B169" s="39"/>
-      <c r="C169" s="39"/>
-      <c r="D169" s="39"/>
+      <c r="B169" s="81"/>
+      <c r="C169" s="81"/>
+      <c r="D169" s="81"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
-      <c r="C170" s="39"/>
-      <c r="D170" s="39"/>
+      <c r="A170" s="81"/>
+      <c r="B170" s="81"/>
+      <c r="C170" s="81"/>
+      <c r="D170" s="81"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
@@ -3955,7 +3987,7 @@
       <c r="C173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D173" s="34"/>
+      <c r="D173" s="72"/>
     </row>
     <row r="174" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
@@ -3967,7 +3999,7 @@
       <c r="C174" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="35"/>
+      <c r="D174" s="73"/>
     </row>
     <row r="175" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
@@ -3979,7 +4011,7 @@
       <c r="C175" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="35"/>
+      <c r="D175" s="73"/>
     </row>
     <row r="176" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
@@ -3991,7 +4023,7 @@
       <c r="C176" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D176" s="35"/>
+      <c r="D176" s="73"/>
     </row>
     <row r="177" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
@@ -4001,21 +4033,21 @@
         <v>200</v>
       </c>
       <c r="C177" s="20"/>
-      <c r="D177" s="36"/>
+      <c r="D177" s="74"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="39" t="s">
+      <c r="A178" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="39"/>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
+      <c r="B178" s="81"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="81"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="39"/>
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="39"/>
+      <c r="A179" s="81"/>
+      <c r="B179" s="81"/>
+      <c r="C179" s="81"/>
+      <c r="D179" s="81"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
@@ -4049,7 +4081,7 @@
       <c r="C182" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="34"/>
+      <c r="D182" s="72"/>
     </row>
     <row r="183" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
@@ -4061,7 +4093,7 @@
       <c r="C183" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="35"/>
+      <c r="D183" s="73"/>
     </row>
     <row r="184" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
@@ -4073,7 +4105,7 @@
       <c r="C184" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="35"/>
+      <c r="D184" s="73"/>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
@@ -4085,7 +4117,7 @@
       <c r="C185" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D185" s="35"/>
+      <c r="D185" s="73"/>
     </row>
     <row r="186" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
@@ -4097,21 +4129,21 @@
       <c r="C186" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D186" s="36"/>
+      <c r="D186" s="74"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="39" t="s">
+      <c r="A187" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="39"/>
-      <c r="C187" s="39"/>
-      <c r="D187" s="39"/>
+      <c r="B187" s="81"/>
+      <c r="C187" s="81"/>
+      <c r="D187" s="81"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
-      <c r="C188" s="39"/>
-      <c r="D188" s="39"/>
+      <c r="A188" s="81"/>
+      <c r="B188" s="81"/>
+      <c r="C188" s="81"/>
+      <c r="D188" s="81"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
@@ -4145,7 +4177,7 @@
       <c r="C191" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D191" s="34"/>
+      <c r="D191" s="72"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
@@ -4157,7 +4189,7 @@
       <c r="C192" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D192" s="35"/>
+      <c r="D192" s="73"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
@@ -4169,7 +4201,7 @@
       <c r="C193" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D193" s="35"/>
+      <c r="D193" s="73"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
@@ -4181,7 +4213,7 @@
       <c r="C194" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D194" s="35"/>
+      <c r="D194" s="73"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
@@ -4193,21 +4225,21 @@
       <c r="C195" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D195" s="36"/>
+      <c r="D195" s="74"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="39" t="s">
+      <c r="A196" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="B196" s="39"/>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
+      <c r="B196" s="81"/>
+      <c r="C196" s="81"/>
+      <c r="D196" s="81"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
+      <c r="A197" s="81"/>
+      <c r="B197" s="81"/>
+      <c r="C197" s="81"/>
+      <c r="D197" s="81"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A198" s="27" t="s">
@@ -4241,7 +4273,7 @@
       <c r="C200" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D200" s="34"/>
+      <c r="D200" s="72"/>
     </row>
     <row r="201" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6" t="s">
@@ -4253,7 +4285,7 @@
       <c r="C201" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D201" s="35"/>
+      <c r="D201" s="73"/>
     </row>
     <row r="202" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6" t="s">
@@ -4265,7 +4297,7 @@
       <c r="C202" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D202" s="35"/>
+      <c r="D202" s="73"/>
     </row>
     <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6" t="s">
@@ -4277,7 +4309,7 @@
       <c r="C203" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D203" s="35"/>
+      <c r="D203" s="73"/>
     </row>
     <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6" t="s">
@@ -4289,21 +4321,21 @@
       <c r="C204" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D204" s="36"/>
+      <c r="D204" s="74"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="37" t="s">
+      <c r="A205" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B205" s="37"/>
-      <c r="C205" s="37"/>
-      <c r="D205" s="37"/>
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="38"/>
-      <c r="B206" s="38"/>
-      <c r="C206" s="38"/>
-      <c r="D206" s="38"/>
+      <c r="A206" s="30"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
+      <c r="D206" s="30"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A207" s="27" t="s">
@@ -4335,7 +4367,7 @@
         <v>227</v>
       </c>
       <c r="C209" s="20"/>
-      <c r="D209" s="34"/>
+      <c r="D209" s="72"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A210" s="6" t="s">
@@ -4345,7 +4377,7 @@
         <v>229</v>
       </c>
       <c r="C210" s="20"/>
-      <c r="D210" s="35"/>
+      <c r="D210" s="73"/>
     </row>
     <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A211" s="6" t="s">
@@ -4355,7 +4387,7 @@
         <v>228</v>
       </c>
       <c r="C211" s="20"/>
-      <c r="D211" s="35"/>
+      <c r="D211" s="73"/>
     </row>
     <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A212" s="6" t="s">
@@ -4365,7 +4397,7 @@
         <v>230</v>
       </c>
       <c r="C212" s="20"/>
-      <c r="D212" s="35"/>
+      <c r="D212" s="73"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="6" t="s">
@@ -4375,21 +4407,21 @@
         <v>231</v>
       </c>
       <c r="C213" s="20"/>
-      <c r="D213" s="36"/>
+      <c r="D213" s="74"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="37" t="s">
+      <c r="A214" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B214" s="37"/>
-      <c r="C214" s="37"/>
-      <c r="D214" s="37"/>
+      <c r="B214" s="29"/>
+      <c r="C214" s="29"/>
+      <c r="D214" s="29"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="38"/>
-      <c r="B215" s="38"/>
-      <c r="C215" s="38"/>
-      <c r="D215" s="38"/>
+      <c r="A215" s="30"/>
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
     </row>
     <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
@@ -4423,7 +4455,7 @@
       <c r="C218" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D218" s="30"/>
+      <c r="D218" s="83"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A219" s="6" t="s">
@@ -4435,7 +4467,7 @@
       <c r="C219" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D219" s="31"/>
+      <c r="D219" s="84"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="6" t="s">
@@ -4447,7 +4479,7 @@
       <c r="C220" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D220" s="31"/>
+      <c r="D220" s="84"/>
     </row>
     <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A221" s="6" t="s">
@@ -4459,7 +4491,7 @@
       <c r="C221" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D221" s="31"/>
+      <c r="D221" s="84"/>
     </row>
     <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A222" s="6" t="s">
@@ -4471,21 +4503,21 @@
       <c r="C222" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D222" s="32"/>
+      <c r="D222" s="85"/>
     </row>
     <row r="223" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="29" t="s">
+      <c r="A223" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="B223" s="29"/>
-      <c r="C223" s="29"/>
-      <c r="D223" s="29"/>
+      <c r="B223" s="82"/>
+      <c r="C223" s="82"/>
+      <c r="D223" s="82"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224" s="29"/>
-      <c r="B224" s="29"/>
-      <c r="C224" s="29"/>
-      <c r="D224" s="29"/>
+      <c r="A224" s="82"/>
+      <c r="B224" s="82"/>
+      <c r="C224" s="82"/>
+      <c r="D224" s="82"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A225" s="27" t="s">
@@ -4519,7 +4551,7 @@
       <c r="C227" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D227" s="33"/>
+      <c r="D227" s="86"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="6" t="s">
@@ -4531,7 +4563,7 @@
       <c r="C228" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D228" s="33"/>
+      <c r="D228" s="86"/>
     </row>
     <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A229" s="6" t="s">
@@ -4543,7 +4575,7 @@
       <c r="C229" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D229" s="33"/>
+      <c r="D229" s="86"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A230" s="6" t="s">
@@ -4555,7 +4587,7 @@
       <c r="C230" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D230" s="33"/>
+      <c r="D230" s="86"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="23" t="s">
@@ -4567,21 +4599,21 @@
       <c r="C231" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D231" s="33"/>
+      <c r="D231" s="86"/>
     </row>
     <row r="232" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="29" t="s">
+      <c r="A232" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="B232" s="29"/>
-      <c r="C232" s="29"/>
-      <c r="D232" s="29"/>
+      <c r="B232" s="82"/>
+      <c r="C232" s="82"/>
+      <c r="D232" s="82"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A233" s="29"/>
-      <c r="B233" s="29"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
+      <c r="A233" s="82"/>
+      <c r="B233" s="82"/>
+      <c r="C233" s="82"/>
+      <c r="D233" s="82"/>
     </row>
     <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A234" s="27" t="s">
@@ -4666,18 +4698,18 @@
       <c r="D240" s="24"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="29" t="s">
+      <c r="A241" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="B241" s="29"/>
-      <c r="C241" s="29"/>
-      <c r="D241" s="29"/>
+      <c r="B241" s="82"/>
+      <c r="C241" s="82"/>
+      <c r="D241" s="82"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A242" s="29"/>
-      <c r="B242" s="29"/>
-      <c r="C242" s="29"/>
-      <c r="D242" s="29"/>
+      <c r="A242" s="82"/>
+      <c r="B242" s="82"/>
+      <c r="C242" s="82"/>
+      <c r="D242" s="82"/>
     </row>
     <row r="243" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A243" s="27" t="s">
@@ -4711,7 +4743,7 @@
       <c r="C245" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="D245" s="30"/>
+      <c r="D245" s="83"/>
     </row>
     <row r="246" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6" t="s">
@@ -4723,7 +4755,7 @@
       <c r="C246" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="D246" s="31"/>
+      <c r="D246" s="84"/>
     </row>
     <row r="247" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6" t="s">
@@ -4735,7 +4767,7 @@
       <c r="C247" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="D247" s="31"/>
+      <c r="D247" s="84"/>
     </row>
     <row r="248" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6" t="s">
@@ -4747,7 +4779,7 @@
       <c r="C248" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="D248" s="31"/>
+      <c r="D248" s="84"/>
     </row>
     <row r="249" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6" t="s">
@@ -4759,25 +4791,25 @@
       <c r="C249" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="D249" s="32"/>
+      <c r="D249" s="85"/>
     </row>
     <row r="250" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="29" t="s">
+      <c r="A250" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="B250" s="29"/>
-      <c r="C250" s="29"/>
-      <c r="D250" s="29"/>
+      <c r="B250" s="82"/>
+      <c r="C250" s="82"/>
+      <c r="D250" s="82"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A251" s="29"/>
-      <c r="B251" s="29"/>
-      <c r="C251" s="29"/>
-      <c r="D251" s="29"/>
+      <c r="A251" s="82"/>
+      <c r="B251" s="82"/>
+      <c r="C251" s="82"/>
+      <c r="D251" s="82"/>
     </row>
     <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A252" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B252" s="28"/>
       <c r="C252" s="28"/>
@@ -4804,7 +4836,9 @@
       <c r="B254" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C254" s="24"/>
+      <c r="C254" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="D254" s="24"/>
     </row>
     <row r="255" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4814,7 +4848,9 @@
       <c r="B255" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="C255" s="24"/>
+      <c r="C255" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="D255" s="24"/>
     </row>
     <row r="256" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4824,7 +4860,9 @@
       <c r="B256" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C256" s="24"/>
+      <c r="C256" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="D256" s="24"/>
     </row>
     <row r="257" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4832,9 +4870,11 @@
         <v>10</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="C257" s="24"/>
+        <v>273</v>
+      </c>
+      <c r="C257" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="D257" s="24"/>
     </row>
     <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4844,73 +4884,138 @@
       <c r="B258" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C258" s="24"/>
+      <c r="C258" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="D258" s="24"/>
     </row>
     <row r="259" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="B259" s="37"/>
-      <c r="C259" s="37"/>
-      <c r="D259" s="37"/>
+      <c r="A259" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B259" s="29"/>
+      <c r="C259" s="29"/>
+      <c r="D259" s="29"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="38"/>
-      <c r="B260" s="38"/>
-      <c r="C260" s="38"/>
-      <c r="D260" s="38"/>
+      <c r="A260" s="30"/>
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="30"/>
+    </row>
+    <row r="261" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B261" s="28"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="28"/>
+    </row>
+    <row r="262" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A262" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
+    </row>
+    <row r="264" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C264" s="24"/>
+      <c r="D264" s="24"/>
+    </row>
+    <row r="265" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C265" s="24"/>
+      <c r="D265" s="24"/>
+    </row>
+    <row r="266" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C266" s="24"/>
+      <c r="D266" s="24"/>
+    </row>
+    <row r="267" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C267" s="24"/>
+      <c r="D267" s="24"/>
+    </row>
+    <row r="268" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="B268" s="82"/>
+      <c r="C268" s="82"/>
+      <c r="D268" s="82"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A269" s="82"/>
+      <c r="B269" s="82"/>
+      <c r="C269" s="82"/>
+      <c r="D269" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="A259:D260"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D116"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A124:D125"/>
+  <mergeCells count="89">
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A268:D269"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A250:D251"/>
+    <mergeCell ref="D245:D249"/>
+    <mergeCell ref="A232:D233"/>
+    <mergeCell ref="D227:D231"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A241:D242"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A223:D224"/>
+    <mergeCell ref="D200:D204"/>
+    <mergeCell ref="A205:D206"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="D218:D222"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="A214:D215"/>
+    <mergeCell ref="A216:D216"/>
     <mergeCell ref="D128:D132"/>
     <mergeCell ref="A171:D171"/>
     <mergeCell ref="D173:D177"/>
@@ -4927,29 +5032,54 @@
     <mergeCell ref="A151:D152"/>
     <mergeCell ref="D146:D150"/>
     <mergeCell ref="A178:D179"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A133:D134"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A223:D224"/>
-    <mergeCell ref="D200:D204"/>
-    <mergeCell ref="A205:D206"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="A196:D197"/>
-    <mergeCell ref="D218:D222"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="D209:D213"/>
-    <mergeCell ref="A214:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A250:D251"/>
-    <mergeCell ref="D245:D249"/>
-    <mergeCell ref="A232:D233"/>
-    <mergeCell ref="D227:D231"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A241:D242"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D116"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D54:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第九组/第九小组计划实施表.xlsx
+++ b/第九组/第九小组计划实施表.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="284">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,6 +1161,30 @@
   </si>
   <si>
     <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成我的页面的前后台交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往专辑表中添加每个设计师的默认专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助崧淦完成界面的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对界面进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.12.4 第15周 周一 周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1539,17 +1563,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizonta